--- a/Consolidated_Estimator_Worksheet.xlsx
+++ b/Consolidated_Estimator_Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kijah\Documents\Data_Bootcamp\Estimator_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00523D7B-4653-41D7-B27B-EF22C24658EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{0587D576-A4F2-4999-AFF1-79ADD1275623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="32" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="30" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Rates" sheetId="1" r:id="rId1"/>
@@ -49,15 +49,16 @@
     <sheet name="Consolidated_Clean" sheetId="34" r:id="rId34"/>
     <sheet name="Working_Table12" sheetId="35" r:id="rId35"/>
     <sheet name="Cleaned_Data12" sheetId="36" r:id="rId36"/>
+    <sheet name="Location_Table" sheetId="37" r:id="rId37"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">Consolidated_Clean!$A$2:$E$540</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId37"/>
-    <pivotCache cacheId="1" r:id="rId38"/>
-    <pivotCache cacheId="2" r:id="rId39"/>
+    <pivotCache cacheId="0" r:id="rId38"/>
+    <pivotCache cacheId="1" r:id="rId39"/>
+    <pivotCache cacheId="2" r:id="rId40"/>
   </pivotCaches>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -76,8 +77,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6033" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6065" uniqueCount="214">
   <si>
     <t>Sales Tax</t>
   </si>
@@ -664,7 +687,61 @@
     <t>https://www.supplyworks.com/Sku/2487704/southwire-250-ft-122-solid-romex-simpull-cu-nm-b-wg-wire-032886163050-28828255</t>
   </si>
   <si>
+    <t>Vendor</t>
+  </si>
+  <si>
     <t>11/03/2022 10:49:30</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>['2455 Paces Ferry Rd SE, Atlanta, GA 30339']</t>
+  </si>
+  <si>
+    <t>["1000 Lowe's Blvd. Mooresville NC 28117"]</t>
+  </si>
+  <si>
+    <t>['Kankakee, 1290 N Hobbie Ave. HQ']</t>
+  </si>
+  <si>
+    <t>['6260 Abbott Dr, Omaha, Nebraska, 68110']</t>
+  </si>
+  <si>
+    <t>['Jacksonville, Florida']</t>
+  </si>
+  <si>
+    <t>['4777 Menard Drive Eau Claire, Wisconsin 54703 USA']</t>
+  </si>
+  <si>
+    <t>['the National Landing neighborhood of Arlington']</t>
+  </si>
+  <si>
+    <t>['28 Biopolis Road Singapore 138568']</t>
+  </si>
+  <si>
+    <t>['Steel City', 'connector', 'EMT conduit', 'Connector', 'steel']</t>
+  </si>
+  <si>
+    <t>['San Jose, CA. 2025 Hamilton Avenue San Jose, California 95125 USA']</t>
+  </si>
+  <si>
+    <t>['Grand Rapids, Minnesota, United States']</t>
+  </si>
+  <si>
+    <t>['Bentonville, Arkansas']</t>
+  </si>
+  <si>
+    <t>['574 Road 11, Schuyler, Nebraska, 68661, United States']</t>
+  </si>
+  <si>
+    <t>['1431 7th St Ste 204, Santa Monica, California, 90401']</t>
+  </si>
+  <si>
+    <t>Unique supplier names</t>
+  </si>
+  <si>
+    <t>Unique Suppliers</t>
   </si>
 </sst>
 </file>
@@ -676,7 +753,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="dddd"/>
   </numFmts>
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -926,6 +1003,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -995,7 +1077,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1631,12 +1713,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1844,6 +1941,13 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1895,7 +1999,9 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -17849,13 +17955,13 @@
       <c r="P8" s="63"/>
     </row>
     <row r="9" spans="1:16" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="123" t="s">
+      <c r="A9" s="126" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="124"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="127"/>
       <c r="F9" s="9"/>
       <c r="G9" s="51">
         <f t="shared" si="1"/>
@@ -17878,14 +17984,14 @@
         <v>11</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="125" t="s">
+      <c r="E10" s="128" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="54" t="str">
         <f>C10</f>
         <v>TOTAL</v>
       </c>
-      <c r="G10" s="127" t="s">
+      <c r="G10" s="130" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="63"/>
@@ -17905,11 +18011,11 @@
         <v>14</v>
       </c>
       <c r="D11" s="55"/>
-      <c r="E11" s="126"/>
+      <c r="E11" s="129"/>
       <c r="F11" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="116"/>
+      <c r="G11" s="119"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="63"/>
@@ -17921,59 +18027,59 @@
       <c r="P11" s="63"/>
     </row>
     <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="129">
+      <c r="B12" s="132">
         <f t="shared" ref="B12:G12" si="2">SUM(B2:B8)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="129">
+      <c r="C12" s="132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D12" s="129">
+      <c r="D12" s="132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E12" s="129">
+      <c r="E12" s="132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="129">
+      <c r="F12" s="132">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G12" s="117">
+      <c r="G12" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="119" t="s">
+      <c r="H12" s="122" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="116"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="119"/>
+      <c r="L12" s="119"/>
+      <c r="M12" s="119"/>
       <c r="N12" s="63"/>
       <c r="O12" s="63"/>
       <c r="P12" s="63"/>
     </row>
     <row r="13" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="116"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="116"/>
-      <c r="M13" s="116"/>
+      <c r="A13" s="119"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="119"/>
+      <c r="L13" s="119"/>
+      <c r="M13" s="119"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
       <c r="P13" s="63"/>
@@ -18038,10 +18144,10 @@
       <c r="B18" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="121"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
+      <c r="C18" s="124"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="125"/>
+      <c r="F18" s="125"/>
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
@@ -18058,10 +18164,10 @@
       <c r="B19" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
+      <c r="C19" s="116"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
       <c r="G19" s="63"/>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
@@ -18078,15 +18184,15 @@
       <c r="B20" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="121"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="125"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="125"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="125"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="125"/>
       <c r="L20" s="63"/>
       <c r="M20" s="63"/>
       <c r="N20" s="63"/>
@@ -18098,10 +18204,10 @@
       <c r="B21" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="C21" s="116"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
       <c r="G21" s="67"/>
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
@@ -18131,14 +18237,14 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="63"/>
       <c r="B23" s="63"/>
-      <c r="C23" s="115" t="s">
+      <c r="C23" s="118" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="119"/>
+      <c r="G23" s="119"/>
+      <c r="H23" s="119"/>
       <c r="I23" s="63"/>
       <c r="J23" s="63"/>
       <c r="K23" s="63"/>
@@ -18151,12 +18257,12 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="63"/>
       <c r="B24" s="63"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="119"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="119"/>
+      <c r="G24" s="119"/>
+      <c r="H24" s="119"/>
       <c r="I24" s="63"/>
       <c r="J24" s="63"/>
       <c r="K24" s="63"/>
@@ -18169,12 +18275,12 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="63"/>
       <c r="B25" s="63"/>
-      <c r="C25" s="116"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="119"/>
+      <c r="G25" s="119"/>
+      <c r="H25" s="119"/>
       <c r="I25" s="63"/>
       <c r="J25" s="63"/>
       <c r="K25" s="63"/>
@@ -27831,8 +27937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
   <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A189" workbookViewId="0">
-      <selection activeCell="A215" sqref="A215"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -27842,10 +27948,10 @@
     <col min="3" max="3" width="47.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.86328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.06640625" style="111" customWidth="1"/>
+    <col min="6" max="6" width="50.06640625" style="111" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="70" t="s">
         <v>24</v>
       </c>
@@ -27853,7 +27959,7 @@
         <v>26</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="D1" s="70" t="s">
         <v>84</v>
@@ -27861,8 +27967,11 @@
       <c r="E1" s="110" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="111" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -27876,11 +27985,15 @@
         <v>87</v>
       </c>
       <c r="E2" t="str">
-        <f t="shared" ref="E2:E33" si="0">TEXT(D2,"dddd")</f>
+        <f t="shared" ref="E2:E65" si="0">TEXT(D2,"dddd")</f>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" s="111" t="str" cm="1">
+        <f t="array" ref="F2:F11">_xlfn.UNIQUE(C2:C209)</f>
+        <v>gordonelectricsupply</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -27897,8 +28010,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" s="111" t="str">
+        <v>ebarnett</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -27915,8 +28031,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" s="111" t="str">
+        <v>amazon</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -27933,8 +28052,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" s="111" t="str">
+        <v>pinterest</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>93</v>
       </c>
@@ -27951,8 +28073,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" s="111" t="str">
+        <v>homedepot</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -27969,8 +28094,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" s="111" t="str">
+        <v>ebay</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>97</v>
       </c>
@@ -27987,8 +28115,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" s="111" t="str">
+        <v>dkhardware</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>98</v>
       </c>
@@ -28005,8 +28136,11 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9" s="111" t="str">
+        <v>com/p/halex-screw-emt-conduit-connector-051411262723</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -28023,8 +28157,11 @@
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" s="111" t="str">
+        <v>com/p/steel-city-emt-conduit-connector-785991183801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -28041,8 +28178,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" s="111" t="str">
+        <v>qcsupply</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>104</v>
       </c>
@@ -28060,7 +28200,7 @@
         <v>Saturday</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>106</v>
       </c>
@@ -28078,7 +28218,7 @@
         <v>Saturday</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>108</v>
       </c>
@@ -28096,7 +28236,7 @@
         <v>Saturday</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>110</v>
       </c>
@@ -28114,7 +28254,7 @@
         <v>Saturday</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>112</v>
       </c>
@@ -28452,7 +28592,7 @@
         <v>152</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" ref="E34:E65" si="1">TEXT(D34,"dddd")</f>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28470,7 +28610,7 @@
         <v>152</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28488,7 +28628,7 @@
         <v>152</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28506,7 +28646,7 @@
         <v>152</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28524,7 +28664,7 @@
         <v>152</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28542,7 +28682,7 @@
         <v>152</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28560,7 +28700,7 @@
         <v>152</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28578,7 +28718,7 @@
         <v>152</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28596,7 +28736,7 @@
         <v>152</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28614,7 +28754,7 @@
         <v>152</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28632,7 +28772,7 @@
         <v>152</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28650,7 +28790,7 @@
         <v>152</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28668,7 +28808,7 @@
         <v>152</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28686,7 +28826,7 @@
         <v>152</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28704,7 +28844,7 @@
         <v>152</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28722,7 +28862,7 @@
         <v>152</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
     </row>
@@ -28740,7 +28880,7 @@
         <v>156</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -28758,7 +28898,7 @@
         <v>156</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -28776,7 +28916,7 @@
         <v>156</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -28794,7 +28934,7 @@
         <v>156</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -28812,7 +28952,7 @@
         <v>156</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -28830,7 +28970,7 @@
         <v>156</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -28848,7 +28988,7 @@
         <v>156</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -28866,7 +29006,7 @@
         <v>156</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -28884,7 +29024,7 @@
         <v>156</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -28902,7 +29042,7 @@
         <v>156</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -28920,7 +29060,7 @@
         <v>156</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -28938,7 +29078,7 @@
         <v>156</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -28956,7 +29096,7 @@
         <v>156</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -28974,7 +29114,7 @@
         <v>156</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -28992,7 +29132,7 @@
         <v>156</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -29010,7 +29150,7 @@
         <v>157</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -29028,7 +29168,7 @@
         <v>163</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" ref="E66:E97" si="2">TEXT(D66,"dddd")</f>
+        <f t="shared" ref="E66:E129" si="1">TEXT(D66,"dddd")</f>
         <v>Wednesday</v>
       </c>
     </row>
@@ -29046,7 +29186,7 @@
         <v>163</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -29064,7 +29204,7 @@
         <v>163</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -29082,7 +29222,7 @@
         <v>163</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -29100,7 +29240,7 @@
         <v>163</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -29118,7 +29258,7 @@
         <v>156</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -29136,7 +29276,7 @@
         <v>163</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -29154,7 +29294,7 @@
         <v>163</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -29172,7 +29312,7 @@
         <v>163</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -29190,7 +29330,7 @@
         <v>163</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -29208,7 +29348,7 @@
         <v>163</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -29226,7 +29366,7 @@
         <v>163</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -29244,7 +29384,7 @@
         <v>163</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -29262,7 +29402,7 @@
         <v>163</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -29280,7 +29420,7 @@
         <v>156</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -29298,7 +29438,7 @@
         <v>163</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -29316,7 +29456,7 @@
         <v>168</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29334,7 +29474,7 @@
         <v>168</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29352,7 +29492,7 @@
         <v>168</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29370,7 +29510,7 @@
         <v>168</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29388,7 +29528,7 @@
         <v>168</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29406,7 +29546,7 @@
         <v>168</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29424,7 +29564,7 @@
         <v>168</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29442,7 +29582,7 @@
         <v>168</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29460,7 +29600,7 @@
         <v>168</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29478,7 +29618,7 @@
         <v>168</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29496,7 +29636,7 @@
         <v>168</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29514,7 +29654,7 @@
         <v>168</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29532,7 +29672,7 @@
         <v>168</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29550,7 +29690,7 @@
         <v>168</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29568,7 +29708,7 @@
         <v>168</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29586,7 +29726,7 @@
         <v>168</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29604,7 +29744,7 @@
         <v>171</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" ref="E98:E129" si="3">TEXT(D98,"dddd")</f>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
     </row>
@@ -29622,7 +29762,7 @@
         <v>171</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
     </row>
@@ -29640,7 +29780,7 @@
         <v>171</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
     </row>
@@ -29658,7 +29798,7 @@
         <v>171</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
     </row>
@@ -29676,7 +29816,7 @@
         <v>171</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
     </row>
@@ -29694,7 +29834,7 @@
         <v>171</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
     </row>
@@ -29712,7 +29852,7 @@
         <v>171</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
     </row>
@@ -29730,7 +29870,7 @@
         <v>171</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
     </row>
@@ -29748,7 +29888,7 @@
         <v>168</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Thursday</v>
       </c>
     </row>
@@ -29766,7 +29906,7 @@
         <v>171</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
     </row>
@@ -29784,7 +29924,7 @@
         <v>171</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
     </row>
@@ -29802,7 +29942,7 @@
         <v>171</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
     </row>
@@ -29820,7 +29960,7 @@
         <v>171</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
     </row>
@@ -29838,7 +29978,7 @@
         <v>171</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
     </row>
@@ -29856,7 +29996,7 @@
         <v>171</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
     </row>
@@ -29874,7 +30014,7 @@
         <v>171</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Friday</v>
       </c>
     </row>
@@ -29892,7 +30032,7 @@
         <v>176</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -29910,7 +30050,7 @@
         <v>176</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -29928,7 +30068,7 @@
         <v>176</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -29946,7 +30086,7 @@
         <v>176</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -29964,7 +30104,7 @@
         <v>176</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -29982,7 +30122,7 @@
         <v>176</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -30000,7 +30140,7 @@
         <v>176</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -30018,7 +30158,7 @@
         <v>176</v>
       </c>
       <c r="E121" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -30036,7 +30176,7 @@
         <v>176</v>
       </c>
       <c r="E122" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -30054,7 +30194,7 @@
         <v>176</v>
       </c>
       <c r="E123" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -30072,7 +30212,7 @@
         <v>176</v>
       </c>
       <c r="E124" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -30090,7 +30230,7 @@
         <v>176</v>
       </c>
       <c r="E125" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -30108,7 +30248,7 @@
         <v>176</v>
       </c>
       <c r="E126" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -30126,7 +30266,7 @@
         <v>176</v>
       </c>
       <c r="E127" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -30144,7 +30284,7 @@
         <v>176</v>
       </c>
       <c r="E128" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -30162,7 +30302,7 @@
         <v>176</v>
       </c>
       <c r="E129" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>Saturday</v>
       </c>
     </row>
@@ -30180,7 +30320,7 @@
         <v>180</v>
       </c>
       <c r="E130" t="str">
-        <f t="shared" ref="E130:E161" si="4">TEXT(D130,"dddd")</f>
+        <f t="shared" ref="E130:E193" si="2">TEXT(D130,"dddd")</f>
         <v>Sunday</v>
       </c>
     </row>
@@ -30198,7 +30338,7 @@
         <v>180</v>
       </c>
       <c r="E131" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
     </row>
@@ -30216,7 +30356,7 @@
         <v>180</v>
       </c>
       <c r="E132" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
     </row>
@@ -30234,7 +30374,7 @@
         <v>180</v>
       </c>
       <c r="E133" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
     </row>
@@ -30252,7 +30392,7 @@
         <v>180</v>
       </c>
       <c r="E134" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
     </row>
@@ -30270,7 +30410,7 @@
         <v>180</v>
       </c>
       <c r="E135" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
     </row>
@@ -30288,7 +30428,7 @@
         <v>180</v>
       </c>
       <c r="E136" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
     </row>
@@ -30306,7 +30446,7 @@
         <v>180</v>
       </c>
       <c r="E137" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
     </row>
@@ -30324,7 +30464,7 @@
         <v>180</v>
       </c>
       <c r="E138" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
     </row>
@@ -30342,7 +30482,7 @@
         <v>180</v>
       </c>
       <c r="E139" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
     </row>
@@ -30360,7 +30500,7 @@
         <v>180</v>
       </c>
       <c r="E140" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
     </row>
@@ -30378,7 +30518,7 @@
         <v>180</v>
       </c>
       <c r="E141" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
     </row>
@@ -30396,7 +30536,7 @@
         <v>180</v>
       </c>
       <c r="E142" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
     </row>
@@ -30414,7 +30554,7 @@
         <v>180</v>
       </c>
       <c r="E143" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
     </row>
@@ -30432,7 +30572,7 @@
         <v>180</v>
       </c>
       <c r="E144" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
     </row>
@@ -30450,7 +30590,7 @@
         <v>180</v>
       </c>
       <c r="E145" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Sunday</v>
       </c>
     </row>
@@ -30468,7 +30608,7 @@
         <v>183</v>
       </c>
       <c r="E146" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30486,7 +30626,7 @@
         <v>183</v>
       </c>
       <c r="E147" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30504,7 +30644,7 @@
         <v>183</v>
       </c>
       <c r="E148" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30522,7 +30662,7 @@
         <v>183</v>
       </c>
       <c r="E149" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30540,7 +30680,7 @@
         <v>183</v>
       </c>
       <c r="E150" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30558,7 +30698,7 @@
         <v>183</v>
       </c>
       <c r="E151" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30576,7 +30716,7 @@
         <v>183</v>
       </c>
       <c r="E152" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30594,7 +30734,7 @@
         <v>183</v>
       </c>
       <c r="E153" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30612,7 +30752,7 @@
         <v>183</v>
       </c>
       <c r="E154" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30630,7 +30770,7 @@
         <v>183</v>
       </c>
       <c r="E155" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30648,7 +30788,7 @@
         <v>183</v>
       </c>
       <c r="E156" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30666,7 +30806,7 @@
         <v>183</v>
       </c>
       <c r="E157" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30684,7 +30824,7 @@
         <v>183</v>
       </c>
       <c r="E158" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30702,7 +30842,7 @@
         <v>183</v>
       </c>
       <c r="E159" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30720,7 +30860,7 @@
         <v>183</v>
       </c>
       <c r="E160" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30738,7 +30878,7 @@
         <v>183</v>
       </c>
       <c r="E161" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>Monday</v>
       </c>
     </row>
@@ -30756,7 +30896,7 @@
         <v>185</v>
       </c>
       <c r="E162" t="str">
-        <f t="shared" ref="E162:E209" si="5">TEXT(D162,"dddd")</f>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -30774,7 +30914,7 @@
         <v>185</v>
       </c>
       <c r="E163" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -30792,7 +30932,7 @@
         <v>185</v>
       </c>
       <c r="E164" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -30810,7 +30950,7 @@
         <v>185</v>
       </c>
       <c r="E165" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -30828,7 +30968,7 @@
         <v>185</v>
       </c>
       <c r="E166" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -30846,7 +30986,7 @@
         <v>185</v>
       </c>
       <c r="E167" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -30864,7 +31004,7 @@
         <v>185</v>
       </c>
       <c r="E168" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -30882,7 +31022,7 @@
         <v>185</v>
       </c>
       <c r="E169" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -30900,7 +31040,7 @@
         <v>185</v>
       </c>
       <c r="E170" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -30918,7 +31058,7 @@
         <v>185</v>
       </c>
       <c r="E171" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -30936,7 +31076,7 @@
         <v>185</v>
       </c>
       <c r="E172" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -30954,7 +31094,7 @@
         <v>185</v>
       </c>
       <c r="E173" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -30972,7 +31112,7 @@
         <v>185</v>
       </c>
       <c r="E174" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -30990,7 +31130,7 @@
         <v>185</v>
       </c>
       <c r="E175" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -31008,7 +31148,7 @@
         <v>185</v>
       </c>
       <c r="E176" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -31026,7 +31166,7 @@
         <v>185</v>
       </c>
       <c r="E177" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Tuesday</v>
       </c>
     </row>
@@ -31044,7 +31184,7 @@
         <v>190</v>
       </c>
       <c r="E178" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -31062,7 +31202,7 @@
         <v>190</v>
       </c>
       <c r="E179" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -31080,7 +31220,7 @@
         <v>191</v>
       </c>
       <c r="E180" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -31098,7 +31238,7 @@
         <v>191</v>
       </c>
       <c r="E181" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -31116,7 +31256,7 @@
         <v>191</v>
       </c>
       <c r="E182" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -31134,7 +31274,7 @@
         <v>191</v>
       </c>
       <c r="E183" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -31152,7 +31292,7 @@
         <v>191</v>
       </c>
       <c r="E184" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -31170,7 +31310,7 @@
         <v>191</v>
       </c>
       <c r="E185" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -31188,7 +31328,7 @@
         <v>191</v>
       </c>
       <c r="E186" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -31206,7 +31346,7 @@
         <v>191</v>
       </c>
       <c r="E187" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -31224,7 +31364,7 @@
         <v>191</v>
       </c>
       <c r="E188" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -31242,7 +31382,7 @@
         <v>191</v>
       </c>
       <c r="E189" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -31260,7 +31400,7 @@
         <v>191</v>
       </c>
       <c r="E190" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -31278,7 +31418,7 @@
         <v>191</v>
       </c>
       <c r="E191" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
@@ -31296,11 +31436,11 @@
         <v>191</v>
       </c>
       <c r="E192" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
         <v>114</v>
       </c>
@@ -31314,11 +31454,11 @@
         <v>191</v>
       </c>
       <c r="E193" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="2"/>
         <v>Wednesday</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
         <v>85</v>
       </c>
@@ -31329,15 +31469,14 @@
         <v>57</v>
       </c>
       <c r="D194" t="s">
-        <v>195</v>
-      </c>
-      <c r="E194" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E194" s="113" t="str">
+        <f t="shared" ref="E194:E257" si="3">TEXT(D194,"dddd")</f>
         <v>Thursday</v>
       </c>
-      <c r="F194"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
         <v>88</v>
       </c>
@@ -31348,15 +31487,14 @@
         <v>55</v>
       </c>
       <c r="D195" t="s">
-        <v>195</v>
-      </c>
-      <c r="E195" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E195" s="113" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="F195"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
         <v>73</v>
       </c>
@@ -31367,15 +31505,14 @@
         <v>58</v>
       </c>
       <c r="D196" t="s">
-        <v>195</v>
-      </c>
-      <c r="E196" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E196" s="113" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="F196"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
         <v>91</v>
       </c>
@@ -31386,15 +31523,14 @@
         <v>49</v>
       </c>
       <c r="D197" t="s">
-        <v>195</v>
-      </c>
-      <c r="E197" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E197" s="113" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="F197"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
         <v>93</v>
       </c>
@@ -31405,15 +31541,14 @@
         <v>58</v>
       </c>
       <c r="D198" t="s">
-        <v>195</v>
-      </c>
-      <c r="E198" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E198" s="113" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="F198"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
         <v>95</v>
       </c>
@@ -31424,15 +31559,14 @@
         <v>58</v>
       </c>
       <c r="D199" t="s">
-        <v>195</v>
-      </c>
-      <c r="E199" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E199" s="113" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="F199"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
         <v>97</v>
       </c>
@@ -31443,15 +31577,14 @@
         <v>49</v>
       </c>
       <c r="D200" t="s">
-        <v>195</v>
-      </c>
-      <c r="E200" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E200" s="113" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="F200"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
         <v>98</v>
       </c>
@@ -31462,15 +31595,14 @@
         <v>49</v>
       </c>
       <c r="D201" t="s">
-        <v>195</v>
-      </c>
-      <c r="E201" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E201" s="113" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="F201"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
         <v>100</v>
       </c>
@@ -31481,15 +31613,14 @@
         <v>52</v>
       </c>
       <c r="D202" t="s">
-        <v>195</v>
-      </c>
-      <c r="E202" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E202" s="113" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="F202"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
         <v>102</v>
       </c>
@@ -31500,15 +31631,14 @@
         <v>49</v>
       </c>
       <c r="D203" t="s">
-        <v>195</v>
-      </c>
-      <c r="E203" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E203" s="113" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="F203"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
         <v>104</v>
       </c>
@@ -31519,15 +31649,14 @@
         <v>56</v>
       </c>
       <c r="D204" t="s">
-        <v>195</v>
-      </c>
-      <c r="E204" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E204" s="113" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="F204"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
         <v>106</v>
       </c>
@@ -31538,15 +31667,14 @@
         <v>58</v>
       </c>
       <c r="D205" t="s">
-        <v>195</v>
-      </c>
-      <c r="E205" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E205" s="113" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="F205"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
         <v>108</v>
       </c>
@@ -31557,15 +31685,14 @@
         <v>58</v>
       </c>
       <c r="D206" t="s">
-        <v>195</v>
-      </c>
-      <c r="E206" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E206" s="113" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="F206"/>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
         <v>110</v>
       </c>
@@ -31576,15 +31703,14 @@
         <v>49</v>
       </c>
       <c r="D207" t="s">
-        <v>195</v>
-      </c>
-      <c r="E207" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E207" s="113" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="F207"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
         <v>112</v>
       </c>
@@ -31595,15 +31721,14 @@
         <v>49</v>
       </c>
       <c r="D208" t="s">
-        <v>195</v>
-      </c>
-      <c r="E208" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E208" s="113" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="F208"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
         <v>114</v>
       </c>
@@ -31614,13 +31739,12 @@
         <v>49</v>
       </c>
       <c r="D209" t="s">
-        <v>195</v>
-      </c>
-      <c r="E209" s="136" t="str">
-        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="E209" s="113" t="str">
+        <f t="shared" si="3"/>
         <v>Thursday</v>
       </c>
-      <c r="F209"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31630,10 +31754,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1:E584"/>
+  <dimension ref="A1:F584"/>
   <sheetViews>
-    <sheetView topLeftCell="A554" workbookViewId="0">
-      <selection activeCell="E540" sqref="E540:E584"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -31643,9 +31767,10 @@
     <col min="3" max="3" width="47.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="70" t="s">
         <v>24</v>
       </c>
@@ -31653,7 +31778,7 @@
         <v>26</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>27</v>
+        <v>195</v>
       </c>
       <c r="D1" s="70" t="s">
         <v>84</v>
@@ -31661,8 +31786,11 @@
       <c r="E1" s="83" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" s="139" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>85</v>
       </c>
@@ -31679,8 +31807,12 @@
         <f t="shared" ref="E2:E65" si="0">TEXT(D2,"dddd")</f>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F2" t="str" cm="1">
+        <f t="array" ref="F2:F26">_xlfn.UNIQUE(C2:C584)</f>
+        <v>homedepot</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>85</v>
       </c>
@@ -31697,8 +31829,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F3" t="str">
+        <v>lowes</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -31715,8 +31850,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F4" t="str">
+        <v>gordonelectricsupply</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -31733,8 +31871,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F5" t="str">
+        <v>supplyworks</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>88</v>
       </c>
@@ -31751,8 +31892,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F6" t="str">
+        <v>ebarnett</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -31769,8 +31913,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F7" t="str">
+        <v>linemen-tools</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -31787,8 +31934,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F8" t="str">
+        <v>dkhardware</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>73</v>
       </c>
@@ -31805,8 +31955,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F9" t="str">
+        <v>amazon</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>73</v>
       </c>
@@ -31823,8 +31976,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F10" t="str">
+        <v>wilmar</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -31841,8 +31997,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F11" t="str">
+        <v>pinterest</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>91</v>
       </c>
@@ -31859,8 +32018,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F12" t="str">
+        <v>ebay</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>91</v>
       </c>
@@ -31877,8 +32039,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F13" t="str">
+        <v>com/p/solid-romex-simpull-cu-nm-b-wire-032886163005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>91</v>
       </c>
@@ -31895,8 +32060,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F14" t="str">
+        <v>qcsupply</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>93</v>
       </c>
@@ -31913,8 +32081,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F15" t="str">
+        <v>cooper-electric</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>95</v>
       </c>
@@ -31931,8 +32102,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F16" t="str">
+        <v>truevalue</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>97</v>
       </c>
@@ -31949,8 +32123,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F17" t="str">
+        <v>landmsupply</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>97</v>
       </c>
@@ -31967,8 +32144,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F18" t="str">
+        <v>superarbor</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>97</v>
       </c>
@@ -31985,8 +32165,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F19" t="str">
+        <v>menards</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>97</v>
       </c>
@@ -32003,8 +32186,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F20" t="str">
+        <v>mecampbell</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>102</v>
       </c>
@@ -32021,8 +32207,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F21" t="str">
+        <v>socalelectric</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -32039,8 +32228,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F22" t="str">
+        <v>wireandcableyourway</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>102</v>
       </c>
@@ -32057,8 +32249,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F23" t="str">
+        <v>com/p/halex-screw-emt-conduit-connector-051411262723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -32075,8 +32270,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F24" t="str">
+        <v>rona</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>104</v>
       </c>
@@ -32093,8 +32291,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F25" t="str">
+        <v>com/p/steel-city-emt-conduit-connector-785991183801</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -32111,8 +32312,11 @@
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F26" t="str">
+        <v>walmart</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>106</v>
       </c>
@@ -32130,7 +32334,7 @@
         <v>Saturday</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -32148,7 +32352,7 @@
         <v>Saturday</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>108</v>
       </c>
@@ -32166,7 +32370,7 @@
         <v>Saturday</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>108</v>
       </c>
@@ -32184,7 +32388,7 @@
         <v>Saturday</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>110</v>
       </c>
@@ -32202,7 +32406,7 @@
         <v>Saturday</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>110</v>
       </c>
@@ -41375,7 +41579,7 @@
         <v>57</v>
       </c>
       <c r="D541" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E541" t="str">
         <f t="shared" si="8"/>
@@ -41393,7 +41597,7 @@
         <v>58</v>
       </c>
       <c r="D542" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E542" t="str">
         <f t="shared" si="8"/>
@@ -41411,7 +41615,7 @@
         <v>55</v>
       </c>
       <c r="D543" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E543" t="str">
         <f t="shared" si="8"/>
@@ -41429,7 +41633,7 @@
         <v>57</v>
       </c>
       <c r="D544" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E544" t="str">
         <f t="shared" si="8"/>
@@ -41447,7 +41651,7 @@
         <v>58</v>
       </c>
       <c r="D545" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E545" t="str">
         <f t="shared" si="8"/>
@@ -41465,7 +41669,7 @@
         <v>71</v>
       </c>
       <c r="D546" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E546" t="str">
         <f t="shared" si="8"/>
@@ -41483,7 +41687,7 @@
         <v>58</v>
       </c>
       <c r="D547" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E547" t="str">
         <f t="shared" si="8"/>
@@ -41501,7 +41705,7 @@
         <v>49</v>
       </c>
       <c r="D548" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E548" t="str">
         <f t="shared" si="8"/>
@@ -41519,7 +41723,7 @@
         <v>58</v>
       </c>
       <c r="D549" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E549" t="str">
         <f t="shared" si="8"/>
@@ -41537,7 +41741,7 @@
         <v>69</v>
       </c>
       <c r="D550" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E550" t="str">
         <f t="shared" si="8"/>
@@ -41555,7 +41759,7 @@
         <v>61</v>
       </c>
       <c r="D551" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E551" t="str">
         <f t="shared" si="8"/>
@@ -41573,7 +41777,7 @@
         <v>64</v>
       </c>
       <c r="D552" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E552" t="str">
         <f t="shared" si="8"/>
@@ -41591,7 +41795,7 @@
         <v>58</v>
       </c>
       <c r="D553" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E553" t="str">
         <f t="shared" si="8"/>
@@ -41609,7 +41813,7 @@
         <v>58</v>
       </c>
       <c r="D554" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E554" t="str">
         <f t="shared" si="8"/>
@@ -41627,7 +41831,7 @@
         <v>49</v>
       </c>
       <c r="D555" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E555" t="str">
         <f t="shared" si="8"/>
@@ -41645,7 +41849,7 @@
         <v>61</v>
       </c>
       <c r="D556" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E556" t="str">
         <f t="shared" si="8"/>
@@ -41663,7 +41867,7 @@
         <v>71</v>
       </c>
       <c r="D557" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E557" t="str">
         <f t="shared" si="8"/>
@@ -41681,7 +41885,7 @@
         <v>58</v>
       </c>
       <c r="D558" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E558" t="str">
         <f t="shared" si="8"/>
@@ -41699,7 +41903,7 @@
         <v>61</v>
       </c>
       <c r="D559" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E559" t="str">
         <f t="shared" si="8"/>
@@ -41717,7 +41921,7 @@
         <v>49</v>
       </c>
       <c r="D560" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E560" t="str">
         <f t="shared" si="8"/>
@@ -41735,7 +41939,7 @@
         <v>58</v>
       </c>
       <c r="D561" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E561" t="str">
         <f t="shared" si="8"/>
@@ -41753,7 +41957,7 @@
         <v>52</v>
       </c>
       <c r="D562" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E562" t="str">
         <f t="shared" si="8"/>
@@ -41771,7 +41975,7 @@
         <v>58</v>
       </c>
       <c r="D563" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E563" t="str">
         <f t="shared" si="8"/>
@@ -41789,7 +41993,7 @@
         <v>49</v>
       </c>
       <c r="D564" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E564" t="str">
         <f t="shared" si="8"/>
@@ -41807,7 +42011,7 @@
         <v>61</v>
       </c>
       <c r="D565" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E565" t="str">
         <f t="shared" si="8"/>
@@ -41825,7 +42029,7 @@
         <v>56</v>
       </c>
       <c r="D566" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E566" t="str">
         <f t="shared" si="8"/>
@@ -41843,7 +42047,7 @@
         <v>59</v>
       </c>
       <c r="D567" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E567" t="str">
         <f t="shared" si="8"/>
@@ -41861,7 +42065,7 @@
         <v>58</v>
       </c>
       <c r="D568" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E568" t="str">
         <f t="shared" si="8"/>
@@ -41879,7 +42083,7 @@
         <v>61</v>
       </c>
       <c r="D569" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E569" t="str">
         <f t="shared" si="8"/>
@@ -41897,7 +42101,7 @@
         <v>56</v>
       </c>
       <c r="D570" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E570" t="str">
         <f t="shared" si="8"/>
@@ -41915,7 +42119,7 @@
         <v>192</v>
       </c>
       <c r="D571" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E571" t="str">
         <f t="shared" si="8"/>
@@ -41933,7 +42137,7 @@
         <v>58</v>
       </c>
       <c r="D572" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E572" t="str">
         <f t="shared" si="8"/>
@@ -41951,7 +42155,7 @@
         <v>61</v>
       </c>
       <c r="D573" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E573" t="str">
         <f t="shared" si="8"/>
@@ -41969,7 +42173,7 @@
         <v>58</v>
       </c>
       <c r="D574" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E574" t="str">
         <f t="shared" si="8"/>
@@ -41987,7 +42191,7 @@
         <v>61</v>
       </c>
       <c r="D575" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E575" t="str">
         <f t="shared" si="8"/>
@@ -42005,7 +42209,7 @@
         <v>65</v>
       </c>
       <c r="D576" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E576" t="str">
         <f t="shared" si="8"/>
@@ -42023,7 +42227,7 @@
         <v>58</v>
       </c>
       <c r="D577" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E577" t="str">
         <f t="shared" si="8"/>
@@ -42041,10 +42245,10 @@
         <v>49</v>
       </c>
       <c r="D578" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E578" t="str">
-        <f t="shared" ref="E578:E584" si="9">TEXT(D578,"dddd")</f>
+        <f t="shared" ref="E578:E641" si="9">TEXT(D578,"dddd")</f>
         <v>Thursday</v>
       </c>
     </row>
@@ -42059,7 +42263,7 @@
         <v>56</v>
       </c>
       <c r="D579" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E579" t="str">
         <f t="shared" si="9"/>
@@ -42077,7 +42281,7 @@
         <v>58</v>
       </c>
       <c r="D580" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E580" t="str">
         <f t="shared" si="9"/>
@@ -42095,7 +42299,7 @@
         <v>49</v>
       </c>
       <c r="D581" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E581" t="str">
         <f t="shared" si="9"/>
@@ -42113,7 +42317,7 @@
         <v>56</v>
       </c>
       <c r="D582" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E582" t="str">
         <f t="shared" si="9"/>
@@ -42131,7 +42335,7 @@
         <v>58</v>
       </c>
       <c r="D583" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E583" t="str">
         <f t="shared" si="9"/>
@@ -42149,7 +42353,7 @@
         <v>49</v>
       </c>
       <c r="D584" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E584" t="str">
         <f t="shared" si="9"/>
@@ -42167,7 +42371,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F17"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -42187,8 +42391,8 @@
       <c r="C1" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="112" t="s">
-        <v>27</v>
+      <c r="D1" s="114" t="s">
+        <v>195</v>
       </c>
       <c r="E1" s="112" t="s">
         <v>83</v>
@@ -42214,7 +42418,7 @@
         <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -42234,7 +42438,7 @@
         <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -42254,7 +42458,7 @@
         <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -42274,7 +42478,7 @@
         <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -42294,7 +42498,7 @@
         <v>177</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -42314,7 +42518,7 @@
         <v>96</v>
       </c>
       <c r="F7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -42334,7 +42538,7 @@
         <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -42354,7 +42558,7 @@
         <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -42374,7 +42578,7 @@
         <v>181</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -42394,7 +42598,7 @@
         <v>126</v>
       </c>
       <c r="F11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -42414,7 +42618,7 @@
         <v>186</v>
       </c>
       <c r="F12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -42434,7 +42638,7 @@
         <v>129</v>
       </c>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -42454,7 +42658,7 @@
         <v>109</v>
       </c>
       <c r="F14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -42474,7 +42678,7 @@
         <v>111</v>
       </c>
       <c r="F15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -42494,7 +42698,7 @@
         <v>140</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -42514,7 +42718,7 @@
         <v>115</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -42526,8 +42730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2300-000000000000}">
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -42547,8 +42751,8 @@
       <c r="C1" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="112" t="s">
-        <v>27</v>
+      <c r="D1" s="114" t="s">
+        <v>195</v>
       </c>
       <c r="E1" s="112" t="s">
         <v>83</v>
@@ -42574,7 +42778,7 @@
         <v>86</v>
       </c>
       <c r="F2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -42594,7 +42798,7 @@
         <v>119</v>
       </c>
       <c r="F3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -42614,7 +42818,7 @@
         <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -42634,7 +42838,7 @@
         <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -42654,7 +42858,7 @@
         <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -42674,7 +42878,7 @@
         <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -42694,7 +42898,7 @@
         <v>123</v>
       </c>
       <c r="F8" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -42714,7 +42918,7 @@
         <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -42734,7 +42938,7 @@
         <v>177</v>
       </c>
       <c r="F10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -42754,7 +42958,7 @@
         <v>153</v>
       </c>
       <c r="F11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -42774,7 +42978,7 @@
         <v>164</v>
       </c>
       <c r="F12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -42794,7 +42998,7 @@
         <v>94</v>
       </c>
       <c r="F13" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -42814,7 +43018,7 @@
         <v>96</v>
       </c>
       <c r="F14" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -42834,7 +43038,7 @@
         <v>123</v>
       </c>
       <c r="F15" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -42854,7 +43058,7 @@
         <v>92</v>
       </c>
       <c r="F16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -42874,7 +43078,7 @@
         <v>125</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -42894,7 +43098,7 @@
         <v>124</v>
       </c>
       <c r="F18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -42914,7 +43118,7 @@
         <v>99</v>
       </c>
       <c r="F19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.45">
@@ -42934,7 +43138,7 @@
         <v>146</v>
       </c>
       <c r="F20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.45">
@@ -42954,7 +43158,7 @@
         <v>184</v>
       </c>
       <c r="F21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -42974,7 +43178,7 @@
         <v>101</v>
       </c>
       <c r="F22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -42994,7 +43198,7 @@
         <v>181</v>
       </c>
       <c r="F23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -43014,7 +43218,7 @@
         <v>155</v>
       </c>
       <c r="F24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -43034,7 +43238,7 @@
         <v>126</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -43054,7 +43258,7 @@
         <v>182</v>
       </c>
       <c r="F26" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -43074,7 +43278,7 @@
         <v>147</v>
       </c>
       <c r="F27" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -43094,7 +43298,7 @@
         <v>148</v>
       </c>
       <c r="F28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -43114,7 +43318,7 @@
         <v>105</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -43134,7 +43338,7 @@
         <v>128</v>
       </c>
       <c r="F30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
@@ -43154,7 +43358,7 @@
         <v>186</v>
       </c>
       <c r="F31" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
@@ -43174,7 +43378,7 @@
         <v>193</v>
       </c>
       <c r="F32" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
@@ -43194,7 +43398,7 @@
         <v>129</v>
       </c>
       <c r="F33" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
@@ -43214,7 +43418,7 @@
         <v>149</v>
       </c>
       <c r="F34" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
@@ -43234,7 +43438,7 @@
         <v>109</v>
       </c>
       <c r="F35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
@@ -43254,7 +43458,7 @@
         <v>130</v>
       </c>
       <c r="F36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
@@ -43274,7 +43478,7 @@
         <v>131</v>
       </c>
       <c r="F37" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
@@ -43294,7 +43498,7 @@
         <v>132</v>
       </c>
       <c r="F38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
@@ -43314,7 +43518,7 @@
         <v>111</v>
       </c>
       <c r="F39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
@@ -43334,7 +43538,7 @@
         <v>133</v>
       </c>
       <c r="F40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
@@ -43354,7 +43558,7 @@
         <v>150</v>
       </c>
       <c r="F41" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
@@ -43374,7 +43578,7 @@
         <v>140</v>
       </c>
       <c r="F42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
@@ -43394,7 +43598,7 @@
         <v>113</v>
       </c>
       <c r="F43" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
@@ -43414,7 +43618,7 @@
         <v>134</v>
       </c>
       <c r="F44" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
@@ -43434,7 +43638,189 @@
         <v>115</v>
       </c>
       <c r="F45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="59.3984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="B1" s="115" t="s">
         <v>195</v>
+      </c>
+      <c r="C1" s="115" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="115">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="115">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="115">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="115">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="115">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="115">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="115">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="115">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="115">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="115">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="115">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="115">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="115">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="115">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -45680,8 +46066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AS40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -45733,12 +46119,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="84" customFormat="1" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="132"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="135"/>
     </row>
     <row r="2" spans="1:39" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="95" t="s">
@@ -46102,10 +46488,10 @@
       <c r="H5" s="82"/>
     </row>
     <row r="6" spans="1:39" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="136" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="124"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="84"/>
     </row>
     <row r="7" spans="1:39" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -46172,12 +46558,12 @@
     </row>
     <row r="14" spans="1:39" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="1:39" s="101" customFormat="1" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="133" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="131"/>
-      <c r="D15" s="132"/>
+      <c r="B15" s="134"/>
+      <c r="C15" s="134"/>
+      <c r="D15" s="135"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A16" s="103" t="s">
@@ -46520,11 +46906,11 @@
     </row>
     <row r="19" spans="1:45" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="20" spans="1:45" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="133" t="str">
+      <c r="A20" s="136" t="str">
         <f>A6</f>
         <v>Metrics</v>
       </c>
-      <c r="B20" s="124"/>
+      <c r="B20" s="127"/>
     </row>
     <row r="21" spans="1:45" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="91" t="str">
@@ -46574,12 +46960,12 @@
     </row>
     <row r="26" spans="1:45" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="27" spans="1:45" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="130" t="s">
+      <c r="A27" s="133" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
-      <c r="D27" s="132"/>
+      <c r="B27" s="134"/>
+      <c r="C27" s="134"/>
+      <c r="D27" s="135"/>
     </row>
     <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="90" t="str">
@@ -46999,11 +47385,11 @@
       <c r="A31" s="86"/>
     </row>
     <row r="32" spans="1:45" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="134" t="str">
+      <c r="A32" s="137" t="str">
         <f>A20</f>
         <v>Metrics</v>
       </c>
-      <c r="B32" s="124"/>
+      <c r="B32" s="127"/>
     </row>
     <row r="33" spans="1:2" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="93" t="str">

--- a/Consolidated_Estimator_Worksheet.xlsx
+++ b/Consolidated_Estimator_Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kijah\Documents\Data_Bootcamp\Estimator_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2D7A3930-B186-4916-BB53-2811E65CE42D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{690C2F71-4767-4A03-83A7-4F98BA2E76FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="48" activeTab="54" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="50" activeTab="52" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Rates" sheetId="1" r:id="rId1"/>
@@ -23,8 +23,8 @@
     <sheet name="Analysis_Tables" sheetId="8" r:id="rId8"/>
     <sheet name="target_table" sheetId="9" r:id="rId9"/>
     <sheet name="all_table" sheetId="10" r:id="rId10"/>
-    <sheet name="target_table1" sheetId="12" r:id="rId11"/>
-    <sheet name="all_table1" sheetId="11" r:id="rId12"/>
+    <sheet name="target_table1" sheetId="11" r:id="rId11"/>
+    <sheet name="all_table1" sheetId="12" r:id="rId12"/>
     <sheet name="target_table2" sheetId="13" r:id="rId13"/>
     <sheet name="all_table2" sheetId="14" r:id="rId14"/>
     <sheet name="target_table3" sheetId="15" r:id="rId15"/>
@@ -61,22 +61,24 @@
     <sheet name="all_table18" sheetId="46" r:id="rId46"/>
     <sheet name="target_table19" sheetId="47" r:id="rId47"/>
     <sheet name="all_table19" sheetId="48" r:id="rId48"/>
-    <sheet name="target_table20" sheetId="53" r:id="rId49"/>
-    <sheet name="all_table20" sheetId="49" r:id="rId50"/>
-    <sheet name="target_table21" sheetId="54" r:id="rId51"/>
-    <sheet name="all_table21" sheetId="55" r:id="rId52"/>
-    <sheet name="all_consolidated_table" sheetId="50" r:id="rId53"/>
-    <sheet name="target_consolidated_table" sheetId="51" r:id="rId54"/>
-    <sheet name="vendor_table" sheetId="52" r:id="rId55"/>
+    <sheet name="target_table20" sheetId="49" r:id="rId49"/>
+    <sheet name="all_table20" sheetId="50" r:id="rId50"/>
+    <sheet name="target_table21" sheetId="51" r:id="rId51"/>
+    <sheet name="all_table21" sheetId="52" r:id="rId52"/>
+    <sheet name="all_consolidated_table" sheetId="53" r:id="rId53"/>
+    <sheet name="target_consolidated_table" sheetId="54" r:id="rId54"/>
+    <sheet name="vendor_table" sheetId="55" r:id="rId55"/>
+    <sheet name="target_table22" sheetId="56" r:id="rId56"/>
+    <sheet name="all_table22" sheetId="57" r:id="rId57"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="52" hidden="1">all_consolidated_table!$A$2:$F$603</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId56"/>
-    <pivotCache cacheId="1" r:id="rId57"/>
-    <pivotCache cacheId="2" r:id="rId58"/>
+    <pivotCache cacheId="0" r:id="rId58"/>
+    <pivotCache cacheId="1" r:id="rId59"/>
+    <pivotCache cacheId="2" r:id="rId60"/>
   </pivotCaches>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -96,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9564" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9945" uniqueCount="279">
   <si>
     <t>Sales Tax</t>
   </si>
@@ -767,16 +769,22 @@
     <t>https://www.ebay.com/itm/373786770182</t>
   </si>
   <si>
-    <t>https://www.homedepot.ca/product/columbia-mbf-1-2-inch-emt-conduit/1000106377</t>
+    <t>ca/1-2-x-10-emt-conduit-1022191</t>
+  </si>
+  <si>
+    <t>https://kent.ca/1-2-x-10-emt-conduit-1022191</t>
   </si>
   <si>
     <t>11/09/2022 03:29:39</t>
   </si>
   <si>
-    <t>ca/1-2-x-10-emt-conduit-1022191</t>
+    <t>11/09/2022 03:29:40</t>
   </si>
   <si>
-    <t>https://kent.ca/1-2-x-10-emt-conduit-1022191</t>
+    <t>https://www.amazon.com/NM-B-Southwire-Romex-Electrical-Cable/dp/B07NJ5LRF1</t>
+  </si>
+  <si>
+    <t>https://www.homedepot.ca/product/columbia-mbf-1-2-inch-emt-conduit/1000106377</t>
   </si>
   <si>
     <t>homehardware</t>
@@ -785,10 +793,28 @@
     <t>https://www.homehardware.ca/en/12-x-10-emt-conduit/p/3621021</t>
   </si>
   <si>
-    <t>https://www.amazon.com/NM-B-Southwire-Romex-Electrical-Cable/dp/B07NJ5LRF1</t>
+    <t>https://www.supplyworks.com/Sku/2487704/southwire-250-ft-122-solid-romex-simpull-cu-nm-b-wg-wire-032886163050-28828255</t>
   </si>
   <si>
-    <t>https://www.supplyworks.com/Sku/2487704/southwire-250-ft-122-solid-romex-simpull-cu-nm-b-wg-wire-032886163050-28828255</t>
+    <t>11/10/2022 12:48:47</t>
+  </si>
+  <si>
+    <t>11/10/2022 12:48:48</t>
+  </si>
+  <si>
+    <t>https://www.ebay.com/itm/203899220280</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/SOUTHWIRE-COMPANY-20493301-500BLK-BLDG/dp/B000LNKH2C</t>
+  </si>
+  <si>
+    <t>https://www.ebarnett.com/Sku/2487708/southwire-250-ft-143-solid-romex-simpull-cu-nm-b-wg-wire-032886163500-63946855</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>dow</t>
   </si>
   <si>
     <t>Unique</t>
@@ -836,13 +862,7 @@
     <t>11/04/2022 11:39:56</t>
   </si>
   <si>
-    <t>11/09/2022 03:29:40</t>
-  </si>
-  <si>
     <t>vendor_id</t>
-  </si>
-  <si>
-    <t>location</t>
   </si>
   <si>
     <t>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</t>
@@ -911,22 +931,10 @@
     <t>online</t>
   </si>
   <si>
-    <t>11/10/2022 12:48:47</t>
+    <t>11/11/2022 11:38:32</t>
   </si>
   <si>
-    <t>https://www.ebay.com/itm/203899220280</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/SOUTHWIRE-COMPANY-20493301-500BLK-BLDG/dp/B000LNKH2C</t>
-  </si>
-  <si>
-    <t>https://www.ebarnett.com/Sku/2487708/southwire-250-ft-143-solid-romex-simpull-cu-nm-b-wg-wire-032886163500-63946855</t>
-  </si>
-  <si>
-    <t>11/10/2022 12:48:48</t>
-  </si>
-  <si>
-    <t>dow</t>
+    <t>11/11/2022 11:38:33</t>
   </si>
 </sst>
 </file>
@@ -938,7 +946,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="dddd"/>
   </numFmts>
-  <fonts count="49" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1247,6 +1255,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1316,7 +1329,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -2046,12 +2059,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2293,31 +2354,17 @@
     <xf numFmtId="0" fontId="48" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="17" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2330,6 +2377,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2343,6 +2407,23 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -13143,7 +13224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13454,7 +13535,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -18113,13 +18194,13 @@
       <c r="P8" s="63"/>
     </row>
     <row r="9" spans="1:16" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="136" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="127"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="137"/>
       <c r="F9" s="9"/>
       <c r="G9" s="51">
         <f t="shared" si="1"/>
@@ -18142,14 +18223,14 @@
         <v>11</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="128" t="s">
+      <c r="E10" s="138" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="54" t="str">
         <f>C10</f>
         <v>TOTAL</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="140" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="63"/>
@@ -18169,11 +18250,11 @@
         <v>14</v>
       </c>
       <c r="D11" s="55"/>
-      <c r="E11" s="129"/>
+      <c r="E11" s="139"/>
       <c r="F11" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="131"/>
+      <c r="G11" s="129"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="63"/>
@@ -18185,59 +18266,59 @@
       <c r="P11" s="63"/>
     </row>
     <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="132" t="s">
+      <c r="A12" s="141" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="133">
+      <c r="B12" s="142">
         <f t="shared" ref="B12:G12" si="2">SUM(B2:B8)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="133">
+      <c r="C12" s="142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D12" s="133">
+      <c r="D12" s="142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E12" s="133">
+      <c r="E12" s="142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="133">
+      <c r="F12" s="142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G12" s="136">
+      <c r="G12" s="130">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="138" t="s">
+      <c r="H12" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="131"/>
-      <c r="J12" s="131"/>
-      <c r="K12" s="131"/>
-      <c r="L12" s="131"/>
-      <c r="M12" s="131"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="129"/>
+      <c r="K12" s="129"/>
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
       <c r="N12" s="63"/>
       <c r="O12" s="63"/>
       <c r="P12" s="63"/>
     </row>
     <row r="13" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="131"/>
-      <c r="B13" s="131"/>
-      <c r="C13" s="131"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="131"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="131"/>
-      <c r="K13" s="131"/>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
+      <c r="A13" s="129"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="129"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="129"/>
+      <c r="M13" s="129"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
       <c r="P13" s="63"/>
@@ -18302,10 +18383,10 @@
       <c r="B18" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="140"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="141"/>
-      <c r="F18" s="141"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="135"/>
+      <c r="F18" s="135"/>
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
@@ -18322,10 +18403,10 @@
       <c r="B19" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="134"/>
-      <c r="D19" s="126"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="126"/>
+      <c r="C19" s="126"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="127"/>
       <c r="G19" s="63"/>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
@@ -18342,15 +18423,15 @@
       <c r="B20" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="140"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="141"/>
-      <c r="F20" s="141"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="141"/>
-      <c r="I20" s="141"/>
-      <c r="J20" s="141"/>
-      <c r="K20" s="141"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="135"/>
+      <c r="E20" s="135"/>
+      <c r="F20" s="135"/>
+      <c r="G20" s="135"/>
+      <c r="H20" s="135"/>
+      <c r="I20" s="135"/>
+      <c r="J20" s="135"/>
+      <c r="K20" s="135"/>
       <c r="L20" s="63"/>
       <c r="M20" s="63"/>
       <c r="N20" s="63"/>
@@ -18362,10 +18443,10 @@
       <c r="B21" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="134"/>
-      <c r="D21" s="126"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
+      <c r="C21" s="126"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="127"/>
       <c r="G21" s="67"/>
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
@@ -18395,14 +18476,14 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="63"/>
       <c r="B23" s="63"/>
-      <c r="C23" s="135" t="s">
+      <c r="C23" s="128" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="131"/>
-      <c r="E23" s="131"/>
-      <c r="F23" s="131"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="131"/>
+      <c r="D23" s="129"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="129"/>
       <c r="I23" s="63"/>
       <c r="J23" s="63"/>
       <c r="K23" s="63"/>
@@ -18415,12 +18496,12 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="63"/>
       <c r="B24" s="63"/>
-      <c r="C24" s="131"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="131"/>
-      <c r="F24" s="131"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="131"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="129"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="129"/>
       <c r="I24" s="63"/>
       <c r="J24" s="63"/>
       <c r="K24" s="63"/>
@@ -18433,12 +18514,12 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="63"/>
       <c r="B25" s="63"/>
-      <c r="C25" s="131"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="131"/>
-      <c r="F25" s="131"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="131"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="129"/>
+      <c r="E25" s="129"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="129"/>
       <c r="I25" s="63"/>
       <c r="J25" s="63"/>
       <c r="K25" s="63"/>
@@ -18468,13 +18549,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C23:H25"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:M13"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:K20"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="G10:G11"/>
@@ -18484,6 +18558,13 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C23:H25"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:M13"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37671,7 +37752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -37712,13 +37793,13 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="C2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E2" t="s">
         <v>225</v>
-      </c>
-      <c r="D2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -37735,7 +37816,7 @@
         <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -37752,7 +37833,7 @@
         <v>92</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -37769,7 +37850,7 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -37786,7 +37867,7 @@
         <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -37803,7 +37884,7 @@
         <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -37820,7 +37901,7 @@
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -37837,7 +37918,7 @@
         <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -37854,7 +37935,7 @@
         <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -37871,7 +37952,7 @@
         <v>135</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -37885,10 +37966,10 @@
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -37905,7 +37986,7 @@
         <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -37922,7 +38003,7 @@
         <v>168</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -37939,7 +38020,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -37956,7 +38037,7 @@
         <v>116</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -37973,11 +38054,10 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="47" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -38074,7 +38154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
@@ -38118,10 +38198,10 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -38132,13 +38212,13 @@
         <v>25.19</v>
       </c>
       <c r="C3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E3" t="s">
         <v>225</v>
-      </c>
-      <c r="D3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -38149,13 +38229,13 @@
         <v>17.989999999999998</v>
       </c>
       <c r="C4" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E4" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -38172,7 +38252,7 @@
         <v>121</v>
       </c>
       <c r="E5" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -38189,7 +38269,7 @@
         <v>123</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -38206,7 +38286,7 @@
         <v>199</v>
       </c>
       <c r="E7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -38223,7 +38303,7 @@
         <v>91</v>
       </c>
       <c r="E8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -38240,7 +38320,7 @@
         <v>124</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -38257,7 +38337,7 @@
         <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -38274,7 +38354,7 @@
         <v>125</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -38291,7 +38371,7 @@
         <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -38308,7 +38388,7 @@
         <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -38325,7 +38405,7 @@
         <v>98</v>
       </c>
       <c r="E14" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -38342,7 +38422,7 @@
         <v>187</v>
       </c>
       <c r="E15" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -38359,7 +38439,7 @@
         <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -38376,7 +38456,7 @@
         <v>196</v>
       </c>
       <c r="E17" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -38393,7 +38473,7 @@
         <v>215</v>
       </c>
       <c r="E18" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -38410,7 +38490,7 @@
         <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -38427,7 +38507,7 @@
         <v>135</v>
       </c>
       <c r="E20" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -38444,7 +38524,7 @@
         <v>136</v>
       </c>
       <c r="E21" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -38461,7 +38541,7 @@
         <v>137</v>
       </c>
       <c r="E22" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -38478,7 +38558,7 @@
         <v>170</v>
       </c>
       <c r="E23" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -38495,7 +38575,7 @@
         <v>140</v>
       </c>
       <c r="E24" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -38512,7 +38592,7 @@
         <v>141</v>
       </c>
       <c r="E25" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -38526,10 +38606,10 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -38546,7 +38626,7 @@
         <v>222</v>
       </c>
       <c r="E27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -38563,7 +38643,7 @@
         <v>143</v>
       </c>
       <c r="E28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -38580,7 +38660,7 @@
         <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -38594,10 +38674,10 @@
         <v>69</v>
       </c>
       <c r="D30" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E30" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -38614,7 +38694,7 @@
         <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -38631,7 +38711,7 @@
         <v>144</v>
       </c>
       <c r="E32" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -38648,7 +38728,7 @@
         <v>168</v>
       </c>
       <c r="E33" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -38665,7 +38745,7 @@
         <v>146</v>
       </c>
       <c r="E34" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -38682,7 +38762,7 @@
         <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -38699,7 +38779,7 @@
         <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -38716,7 +38796,7 @@
         <v>149</v>
       </c>
       <c r="E37" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -38733,7 +38813,7 @@
         <v>116</v>
       </c>
       <c r="E38" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -38750,7 +38830,7 @@
         <v>212</v>
       </c>
       <c r="E39" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
@@ -38767,7 +38847,7 @@
         <v>150</v>
       </c>
       <c r="E40" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -38784,7 +38864,7 @@
         <v>220</v>
       </c>
       <c r="E41" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.45">
@@ -38801,7 +38881,7 @@
         <v>151</v>
       </c>
       <c r="E42" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.45">
@@ -38818,7 +38898,7 @@
         <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.45">
@@ -38835,7 +38915,7 @@
         <v>158</v>
       </c>
       <c r="E44" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -38844,11 +38924,11 @@
 </file>
 
 <file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E17"/>
+      <selection activeCell="A8" sqref="A8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -38891,7 +38971,7 @@
         <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -38908,7 +38988,7 @@
         <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -38925,7 +39005,7 @@
         <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -38942,7 +39022,7 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -38959,7 +39039,7 @@
         <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -38976,7 +39056,7 @@
         <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -38993,7 +39073,7 @@
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -39010,7 +39090,7 @@
         <v>196</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -39027,7 +39107,7 @@
         <v>104</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -39044,7 +39124,7 @@
         <v>106</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -39061,7 +39141,7 @@
         <v>217</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -39078,7 +39158,7 @@
         <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -39092,10 +39172,10 @@
         <v>56</v>
       </c>
       <c r="D14" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="E14" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -39112,7 +39192,7 @@
         <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -39126,10 +39206,10 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="E16" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -39146,17 +39226,16 @@
         <v>118</v>
       </c>
       <c r="E17" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="47" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
@@ -39203,7 +39282,7 @@
         <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
@@ -39220,7 +39299,7 @@
         <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
@@ -39237,7 +39316,7 @@
         <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
@@ -39254,7 +39333,7 @@
         <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
@@ -39271,7 +39350,7 @@
         <v>207</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
@@ -39288,7 +39367,7 @@
         <v>186</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
@@ -39305,7 +39384,7 @@
         <v>123</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
@@ -39322,7 +39401,7 @@
         <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
@@ -39339,7 +39418,7 @@
         <v>124</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
@@ -39356,7 +39435,7 @@
         <v>165</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
@@ -39373,7 +39452,7 @@
         <v>190</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
@@ -39390,7 +39469,7 @@
         <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
@@ -39407,7 +39486,7 @@
         <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
@@ -39424,7 +39503,7 @@
         <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.45">
@@ -39441,7 +39520,7 @@
         <v>102</v>
       </c>
       <c r="E16" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.45">
@@ -39458,7 +39537,7 @@
         <v>134</v>
       </c>
       <c r="E17" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.45">
@@ -39475,7 +39554,7 @@
         <v>196</v>
       </c>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.45">
@@ -39492,7 +39571,7 @@
         <v>104</v>
       </c>
       <c r="E19" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.45">
@@ -39509,7 +39588,7 @@
         <v>173</v>
       </c>
       <c r="E20" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.45">
@@ -39526,7 +39605,7 @@
         <v>135</v>
       </c>
       <c r="E21" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.45">
@@ -39543,7 +39622,7 @@
         <v>136</v>
       </c>
       <c r="E22" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
@@ -39560,7 +39639,7 @@
         <v>137</v>
       </c>
       <c r="E23" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
@@ -39577,7 +39656,7 @@
         <v>170</v>
       </c>
       <c r="E24" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
@@ -39594,7 +39673,7 @@
         <v>106</v>
       </c>
       <c r="E25" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
@@ -39611,7 +39690,7 @@
         <v>140</v>
       </c>
       <c r="E26" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
@@ -39628,7 +39707,7 @@
         <v>141</v>
       </c>
       <c r="E27" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
@@ -39645,7 +39724,7 @@
         <v>217</v>
       </c>
       <c r="E28" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
@@ -39659,10 +39738,10 @@
         <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="E29" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
@@ -39679,7 +39758,7 @@
         <v>218</v>
       </c>
       <c r="E30" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
@@ -39696,7 +39775,7 @@
         <v>143</v>
       </c>
       <c r="E31" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
@@ -39713,7 +39792,7 @@
         <v>157</v>
       </c>
       <c r="E32" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
@@ -39730,7 +39809,7 @@
         <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
@@ -39744,10 +39823,10 @@
         <v>56</v>
       </c>
       <c r="D34" t="s">
-        <v>272</v>
+        <v>234</v>
       </c>
       <c r="E34" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
@@ -39764,7 +39843,7 @@
         <v>114</v>
       </c>
       <c r="E35" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
@@ -39781,7 +39860,7 @@
         <v>147</v>
       </c>
       <c r="E36" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
@@ -39795,10 +39874,10 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>273</v>
+        <v>235</v>
       </c>
       <c r="E37" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
@@ -39815,7 +39894,7 @@
         <v>150</v>
       </c>
       <c r="E38" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
@@ -39832,7 +39911,7 @@
         <v>151</v>
       </c>
       <c r="E39" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.45">
@@ -39849,7 +39928,7 @@
         <v>118</v>
       </c>
       <c r="E40" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.45">
@@ -39866,7 +39945,7 @@
         <v>158</v>
       </c>
       <c r="E41" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -39875,11 +39954,11 @@
 </file>
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
-  <dimension ref="A1:J956"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
+  <dimension ref="A1:J993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A956" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F993"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -39905,17 +39984,17 @@
         <v>85</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E1" s="70" t="s">
         <v>87</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="G1" s="85"/>
       <c r="I1" s="85" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -59280,7 +59359,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E874" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F874" t="str">
         <f t="shared" si="13"/>
@@ -59295,14 +59374,14 @@
         <v>25.19</v>
       </c>
       <c r="C875" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D875" t="str">
         <f>VLOOKUP(C875,vendor_table!$B$2:$C$29,2,)</f>
         <v>online</v>
       </c>
       <c r="E875" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F875" t="str">
         <f t="shared" si="13"/>
@@ -59317,14 +59396,14 @@
         <v>17.989999999999998</v>
       </c>
       <c r="C876" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D876" t="str">
         <f>VLOOKUP(C876,vendor_table!$B$2:$C$29,2,)</f>
         <v>online</v>
       </c>
       <c r="E876" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F876" t="str">
         <f t="shared" si="13"/>
@@ -59346,7 +59425,7 @@
         <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
       </c>
       <c r="E877" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F877" t="str">
         <f t="shared" si="13"/>
@@ -59368,7 +59447,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E878" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F878" t="str">
         <f t="shared" si="13"/>
@@ -59390,7 +59469,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E879" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F879" t="str">
         <f t="shared" si="13"/>
@@ -59412,7 +59491,7 @@
         <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
       </c>
       <c r="E880" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F880" t="str">
         <f t="shared" si="13"/>
@@ -59434,7 +59513,7 @@
         <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
       </c>
       <c r="E881" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F881" t="str">
         <f t="shared" si="13"/>
@@ -59456,7 +59535,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E882" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F882" t="str">
         <f t="shared" si="13"/>
@@ -59478,7 +59557,7 @@
         <v>28 Biopolis Road. Singapore, 138568</v>
       </c>
       <c r="E883" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F883" t="str">
         <f t="shared" si="13"/>
@@ -59500,7 +59579,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E884" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F884" t="str">
         <f t="shared" si="13"/>
@@ -59522,7 +59601,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E885" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F885" t="str">
         <f t="shared" si="13"/>
@@ -59544,7 +59623,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E886" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F886" t="str">
         <f t="shared" si="13"/>
@@ -59566,7 +59645,7 @@
         <v>28 Biopolis Road. Singapore, 138568</v>
       </c>
       <c r="E887" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F887" t="str">
         <f t="shared" si="13"/>
@@ -59588,7 +59667,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E888" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F888" t="str">
         <f t="shared" si="13"/>
@@ -59610,7 +59689,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E889" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F889" t="str">
         <f t="shared" si="13"/>
@@ -59632,7 +59711,7 @@
         <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
       </c>
       <c r="E890" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F890" t="str">
         <f t="shared" si="13"/>
@@ -59654,7 +59733,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E891" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F891" t="str">
         <f t="shared" si="13"/>
@@ -59676,7 +59755,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E892" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F892" t="str">
         <f t="shared" si="13"/>
@@ -59698,7 +59777,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E893" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F893" t="str">
         <f t="shared" si="13"/>
@@ -59720,7 +59799,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E894" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F894" t="str">
         <f t="shared" si="13"/>
@@ -59742,7 +59821,7 @@
         <v>1200 E Us Hwy 169. Grand Rapids, Minnesota, 55744</v>
       </c>
       <c r="E895" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F895" t="str">
         <f t="shared" si="13"/>
@@ -59764,7 +59843,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E896" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F896" t="str">
         <f t="shared" si="13"/>
@@ -59786,7 +59865,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E897" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F897" t="str">
         <f t="shared" si="13"/>
@@ -59808,7 +59887,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E898" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F898" t="str">
         <f t="shared" ref="F898:F961" si="14">TEXT(E898,"dddd")</f>
@@ -59830,7 +59909,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E899" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F899" t="str">
         <f t="shared" si="14"/>
@@ -59852,7 +59931,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E900" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F900" t="str">
         <f t="shared" si="14"/>
@@ -59874,7 +59953,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E901" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F901" t="str">
         <f t="shared" si="14"/>
@@ -59896,7 +59975,7 @@
         <v>6260 Abbott Dr. Omaha, Nebraska, 68110</v>
       </c>
       <c r="E902" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F902" t="str">
         <f t="shared" si="14"/>
@@ -59918,7 +59997,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E903" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F903" t="str">
         <f t="shared" si="14"/>
@@ -59940,7 +60019,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E904" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F904" t="str">
         <f t="shared" si="14"/>
@@ -59962,7 +60041,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E905" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F905" t="str">
         <f t="shared" si="14"/>
@@ -59984,7 +60063,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E906" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F906" t="str">
         <f t="shared" si="14"/>
@@ -60006,7 +60085,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E907" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F907" t="str">
         <f t="shared" si="14"/>
@@ -60028,7 +60107,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E908" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F908" t="str">
         <f t="shared" si="14"/>
@@ -60050,7 +60129,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E909" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F909" t="str">
         <f t="shared" si="14"/>
@@ -60072,7 +60151,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E910" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F910" t="str">
         <f t="shared" si="14"/>
@@ -60094,7 +60173,7 @@
         <v>1917 S Avenue B. Yuma, AZ, 85364</v>
       </c>
       <c r="E911" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F911" t="str">
         <f t="shared" si="14"/>
@@ -60116,7 +60195,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E912" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F912" t="str">
         <f t="shared" si="14"/>
@@ -60138,7 +60217,7 @@
         <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
       </c>
       <c r="E913" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F913" t="str">
         <f t="shared" si="14"/>
@@ -60160,7 +60239,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E914" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F914" t="str">
         <f t="shared" si="14"/>
@@ -60182,7 +60261,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E915" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F915" t="str">
         <f t="shared" si="14"/>
@@ -60204,7 +60283,7 @@
         <v>1431 7th St Ste 204. Santa Monica, California, 90401</v>
       </c>
       <c r="E916" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F916" t="str">
         <f t="shared" si="14"/>
@@ -60226,7 +60305,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E917" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F917" t="str">
         <f t="shared" si="14"/>
@@ -60248,7 +60327,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E918" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F918" t="str">
         <f t="shared" si="14"/>
@@ -60270,7 +60349,7 @@
         <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
       </c>
       <c r="E919" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F919" t="str">
         <f t="shared" si="14"/>
@@ -60292,7 +60371,7 @@
         <v>6260 Abbott Dr. Omaha, Nebraska, 68110</v>
       </c>
       <c r="E920" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F920" t="str">
         <f t="shared" si="14"/>
@@ -60314,7 +60393,7 @@
         <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
       </c>
       <c r="E921" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F921" t="str">
         <f t="shared" si="14"/>
@@ -60336,7 +60415,7 @@
         <v>4777 Menard Drive. Eau Claire, Wisconsin, 54703</v>
       </c>
       <c r="E922" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F922" t="str">
         <f t="shared" si="14"/>
@@ -60358,7 +60437,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E923" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F923" t="str">
         <f t="shared" si="14"/>
@@ -60380,7 +60459,7 @@
         <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
       </c>
       <c r="E924" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F924" t="str">
         <f t="shared" si="14"/>
@@ -60402,7 +60481,7 @@
         <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
       </c>
       <c r="E925" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F925" t="str">
         <f t="shared" si="14"/>
@@ -60424,7 +60503,7 @@
         <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
       </c>
       <c r="E926" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F926" t="str">
         <f t="shared" si="14"/>
@@ -60446,7 +60525,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E927" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F927" t="str">
         <f t="shared" si="14"/>
@@ -60468,7 +60547,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E928" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F928" t="str">
         <f t="shared" si="14"/>
@@ -60490,7 +60569,7 @@
         <v>651 Brannan St. San Francisco, CA, 94107</v>
       </c>
       <c r="E929" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F929" t="str">
         <f t="shared" si="14"/>
@@ -60512,7 +60591,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E930" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F930" t="str">
         <f t="shared" si="14"/>
@@ -60534,7 +60613,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E931" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F931" t="str">
         <f t="shared" si="14"/>
@@ -60556,7 +60635,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E932" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F932" t="str">
         <f t="shared" si="14"/>
@@ -60578,7 +60657,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E933" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F933" t="str">
         <f t="shared" si="14"/>
@@ -60600,7 +60679,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E934" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F934" t="str">
         <f t="shared" si="14"/>
@@ -60622,7 +60701,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E935" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F935" t="str">
         <f t="shared" si="14"/>
@@ -60644,7 +60723,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E936" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F936" t="str">
         <f t="shared" si="14"/>
@@ -60666,7 +60745,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E937" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F937" t="str">
         <f t="shared" si="14"/>
@@ -60688,7 +60767,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E938" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F938" t="str">
         <f t="shared" si="14"/>
@@ -60710,7 +60789,7 @@
         <v>1200 E Us Hwy 169. Grand Rapids, Minnesota, 55744</v>
       </c>
       <c r="E939" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F939" t="str">
         <f t="shared" si="14"/>
@@ -60732,7 +60811,7 @@
         <v>online</v>
       </c>
       <c r="E940" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F940" t="str">
         <f t="shared" si="14"/>
@@ -60754,7 +60833,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E941" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F941" t="str">
         <f t="shared" si="14"/>
@@ -60776,7 +60855,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E942" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F942" t="str">
         <f t="shared" si="14"/>
@@ -60798,7 +60877,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E943" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F943" t="str">
         <f t="shared" si="14"/>
@@ -60820,7 +60899,7 @@
         <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
       </c>
       <c r="E944" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F944" t="str">
         <f t="shared" si="14"/>
@@ -60842,7 +60921,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E945" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F945" t="str">
         <f t="shared" si="14"/>
@@ -60864,7 +60943,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E946" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F946" t="str">
         <f t="shared" si="14"/>
@@ -60886,7 +60965,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E947" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F947" t="str">
         <f t="shared" si="14"/>
@@ -60908,7 +60987,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E948" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F948" t="str">
         <f t="shared" si="14"/>
@@ -60930,7 +61009,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E949" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F949" t="str">
         <f t="shared" si="14"/>
@@ -60952,7 +61031,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E950" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F950" t="str">
         <f t="shared" si="14"/>
@@ -60974,7 +61053,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E951" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F951" t="str">
         <f t="shared" si="14"/>
@@ -60996,7 +61075,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E952" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F952" t="str">
         <f t="shared" si="14"/>
@@ -61018,7 +61097,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E953" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F953" t="str">
         <f t="shared" si="14"/>
@@ -61040,7 +61119,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E954" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F954" t="str">
         <f t="shared" si="14"/>
@@ -61062,7 +61141,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E955" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F955" t="str">
         <f t="shared" si="14"/>
@@ -61070,10 +61149,10 @@
       </c>
     </row>
     <row r="956" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A956" t="s">
+      <c r="A956" s="149" t="s">
         <v>117</v>
       </c>
-      <c r="B956">
+      <c r="B956" s="149">
         <v>165</v>
       </c>
       <c r="C956" t="s">
@@ -61084,26 +61163,840 @@
         <v>1431 7th St Ste 204. Santa Monica, California, 90401</v>
       </c>
       <c r="E956" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F956" t="str">
         <f t="shared" si="14"/>
         <v>Thursday</v>
       </c>
     </row>
+    <row r="957" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A957" s="155" t="s">
+        <v>88</v>
+      </c>
+      <c r="B957" s="149">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C957" t="s">
+        <v>57</v>
+      </c>
+      <c r="D957" t="str">
+        <f>VLOOKUP(C957,vendor_table!$B$2:$C$29,2,)</f>
+        <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
+      </c>
+      <c r="E957" t="s">
+        <v>277</v>
+      </c>
+      <c r="F957" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="958" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A958" s="153" t="s">
+        <v>90</v>
+      </c>
+      <c r="B958">
+        <v>11.91</v>
+      </c>
+      <c r="C958" t="s">
+        <v>58</v>
+      </c>
+      <c r="D958" t="str">
+        <f>VLOOKUP(C958,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E958" t="s">
+        <v>277</v>
+      </c>
+      <c r="F958" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="959" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A959" s="153" t="s">
+        <v>90</v>
+      </c>
+      <c r="B959">
+        <v>10.47</v>
+      </c>
+      <c r="C959" t="s">
+        <v>55</v>
+      </c>
+      <c r="D959" t="str">
+        <f>VLOOKUP(C959,vendor_table!$B$2:$C$29,2,)</f>
+        <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
+      </c>
+      <c r="E959" t="s">
+        <v>277</v>
+      </c>
+      <c r="F959" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="960" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A960" s="153" t="s">
+        <v>90</v>
+      </c>
+      <c r="B960">
+        <v>8.35</v>
+      </c>
+      <c r="C960" t="s">
+        <v>57</v>
+      </c>
+      <c r="D960" t="str">
+        <f>VLOOKUP(C960,vendor_table!$B$2:$C$29,2,)</f>
+        <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
+      </c>
+      <c r="E960" t="s">
+        <v>277</v>
+      </c>
+      <c r="F960" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="961" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A961" s="153" t="s">
+        <v>73</v>
+      </c>
+      <c r="B961">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="C961" t="s">
+        <v>54</v>
+      </c>
+      <c r="D961" t="str">
+        <f>VLOOKUP(C961,vendor_table!$B$2:$C$29,2,)</f>
+        <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
+      </c>
+      <c r="E961" t="s">
+        <v>277</v>
+      </c>
+      <c r="F961" t="str">
+        <f t="shared" si="14"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="962" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A962" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="B962">
+        <v>2.98</v>
+      </c>
+      <c r="C962" t="s">
+        <v>58</v>
+      </c>
+      <c r="D962" t="str">
+        <f>VLOOKUP(C962,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E962" t="s">
+        <v>277</v>
+      </c>
+      <c r="F962" t="str">
+        <f t="shared" ref="F962:F993" si="15">TEXT(E962,"dddd")</f>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="963" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A963" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="B963">
+        <v>5.99</v>
+      </c>
+      <c r="C963" t="s">
+        <v>61</v>
+      </c>
+      <c r="D963" t="str">
+        <f>VLOOKUP(C963,vendor_table!$B$2:$C$29,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E963" t="s">
+        <v>277</v>
+      </c>
+      <c r="F963" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="964" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A964" s="153" t="s">
+        <v>97</v>
+      </c>
+      <c r="B964">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C964" t="s">
+        <v>58</v>
+      </c>
+      <c r="D964" t="str">
+        <f>VLOOKUP(C964,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E964" t="s">
+        <v>277</v>
+      </c>
+      <c r="F964" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="965" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A965" s="153" t="s">
+        <v>101</v>
+      </c>
+      <c r="B965">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C965" t="s">
+        <v>58</v>
+      </c>
+      <c r="D965" t="str">
+        <f>VLOOKUP(C965,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E965" t="s">
+        <v>277</v>
+      </c>
+      <c r="F965" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="966" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A966" s="153" t="s">
+        <v>101</v>
+      </c>
+      <c r="B966">
+        <v>5.99</v>
+      </c>
+      <c r="C966" t="s">
+        <v>61</v>
+      </c>
+      <c r="D966" t="str">
+        <f>VLOOKUP(C966,vendor_table!$B$2:$C$29,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E966" t="s">
+        <v>277</v>
+      </c>
+      <c r="F966" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="967" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A967" s="153" t="s">
+        <v>101</v>
+      </c>
+      <c r="B967">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="C967" t="s">
+        <v>49</v>
+      </c>
+      <c r="D967" t="str">
+        <f>VLOOKUP(C967,vendor_table!$B$2:$C$29,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E967" t="s">
+        <v>277</v>
+      </c>
+      <c r="F967" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="968" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A968" s="153" t="s">
+        <v>103</v>
+      </c>
+      <c r="B968">
+        <v>1.6</v>
+      </c>
+      <c r="C968" t="s">
+        <v>58</v>
+      </c>
+      <c r="D968" t="str">
+        <f>VLOOKUP(C968,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E968" t="s">
+        <v>277</v>
+      </c>
+      <c r="F968" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="969" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A969" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B969">
+        <v>116.94</v>
+      </c>
+      <c r="C969" t="s">
+        <v>49</v>
+      </c>
+      <c r="D969" t="str">
+        <f>VLOOKUP(C969,vendor_table!$B$2:$C$29,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E969" t="s">
+        <v>277</v>
+      </c>
+      <c r="F969" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="970" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A970" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B970">
+        <v>118</v>
+      </c>
+      <c r="C970" t="s">
+        <v>61</v>
+      </c>
+      <c r="D970" t="str">
+        <f>VLOOKUP(C970,vendor_table!$B$2:$C$29,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E970" t="s">
+        <v>277</v>
+      </c>
+      <c r="F970" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="971" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A971" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B971">
+        <v>111.07</v>
+      </c>
+      <c r="C971" t="s">
+        <v>56</v>
+      </c>
+      <c r="D971" t="str">
+        <f>VLOOKUP(C971,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
+      </c>
+      <c r="E971" t="s">
+        <v>277</v>
+      </c>
+      <c r="F971" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="972" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A972" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B972">
+        <v>117</v>
+      </c>
+      <c r="C972" t="s">
+        <v>67</v>
+      </c>
+      <c r="D972" t="str">
+        <f>VLOOKUP(C972,vendor_table!$B$2:$C$29,2,)</f>
+        <v>5512 West Pico Blvd. Los Angeles, CA, 90019</v>
+      </c>
+      <c r="E972" t="s">
+        <v>277</v>
+      </c>
+      <c r="F972" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="973" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A973" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B973">
+        <v>84.99</v>
+      </c>
+      <c r="C973" t="s">
+        <v>59</v>
+      </c>
+      <c r="D973" t="str">
+        <f>VLOOKUP(C973,vendor_table!$B$2:$C$29,2,)</f>
+        <v>1200 E Us Hwy 169. Grand Rapids, Minnesota, 55744</v>
+      </c>
+      <c r="E973" t="s">
+        <v>277</v>
+      </c>
+      <c r="F973" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="974" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A974" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B974">
+        <v>90</v>
+      </c>
+      <c r="C974" t="s">
+        <v>139</v>
+      </c>
+      <c r="D974" t="str">
+        <f>VLOOKUP(C974,vendor_table!$B$2:$C$29,2,)</f>
+        <v>online</v>
+      </c>
+      <c r="E974" t="s">
+        <v>277</v>
+      </c>
+      <c r="F974" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="975" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A975" s="153" t="s">
+        <v>107</v>
+      </c>
+      <c r="B975">
+        <v>159</v>
+      </c>
+      <c r="C975" t="s">
+        <v>58</v>
+      </c>
+      <c r="D975" t="str">
+        <f>VLOOKUP(C975,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E975" t="s">
+        <v>277</v>
+      </c>
+      <c r="F975" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="976" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A976" s="153" t="s">
+        <v>107</v>
+      </c>
+      <c r="B976">
+        <v>158</v>
+      </c>
+      <c r="C976" t="s">
+        <v>61</v>
+      </c>
+      <c r="D976" t="str">
+        <f>VLOOKUP(C976,vendor_table!$B$2:$C$29,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E976" t="s">
+        <v>277</v>
+      </c>
+      <c r="F976" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="977" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A977" s="153" t="s">
+        <v>107</v>
+      </c>
+      <c r="B977">
+        <v>330.85</v>
+      </c>
+      <c r="C977" t="s">
+        <v>55</v>
+      </c>
+      <c r="D977" t="str">
+        <f>VLOOKUP(C977,vendor_table!$B$2:$C$29,2,)</f>
+        <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
+      </c>
+      <c r="E977" t="s">
+        <v>277</v>
+      </c>
+      <c r="F977" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="978" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A978" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="B978">
+        <v>149</v>
+      </c>
+      <c r="C978" t="s">
+        <v>58</v>
+      </c>
+      <c r="D978" t="str">
+        <f>VLOOKUP(C978,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E978" t="s">
+        <v>277</v>
+      </c>
+      <c r="F978" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="979" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A979" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="B979">
+        <v>149</v>
+      </c>
+      <c r="C979" t="s">
+        <v>61</v>
+      </c>
+      <c r="D979" t="str">
+        <f>VLOOKUP(C979,vendor_table!$B$2:$C$29,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E979" t="s">
+        <v>277</v>
+      </c>
+      <c r="F979" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="980" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A980" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="B980">
+        <v>289</v>
+      </c>
+      <c r="C980" t="s">
+        <v>58</v>
+      </c>
+      <c r="D980" t="str">
+        <f>VLOOKUP(C980,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E980" t="s">
+        <v>277</v>
+      </c>
+      <c r="F980" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="981" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A981" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="B981">
+        <v>279</v>
+      </c>
+      <c r="C981" t="s">
+        <v>61</v>
+      </c>
+      <c r="D981" t="str">
+        <f>VLOOKUP(C981,vendor_table!$B$2:$C$29,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E981" t="s">
+        <v>277</v>
+      </c>
+      <c r="F981" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="982" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A982" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="B982">
+        <v>315.01</v>
+      </c>
+      <c r="C982" t="s">
+        <v>56</v>
+      </c>
+      <c r="D982" t="str">
+        <f>VLOOKUP(C982,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
+      </c>
+      <c r="E982" t="s">
+        <v>277</v>
+      </c>
+      <c r="F982" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="983" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A983" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="B983">
+        <v>339.09</v>
+      </c>
+      <c r="C983" t="s">
+        <v>65</v>
+      </c>
+      <c r="D983" t="str">
+        <f>VLOOKUP(C983,vendor_table!$B$2:$C$29,2,)</f>
+        <v>574 Road 11. Schuyler, Nebraska, 68661</v>
+      </c>
+      <c r="E983" t="s">
+        <v>277</v>
+      </c>
+      <c r="F983" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="984" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A984" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="B984">
+        <v>765</v>
+      </c>
+      <c r="C984" t="s">
+        <v>58</v>
+      </c>
+      <c r="D984" t="str">
+        <f>VLOOKUP(C984,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E984" t="s">
+        <v>277</v>
+      </c>
+      <c r="F984" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="985" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A985" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="B985">
+        <v>634.6</v>
+      </c>
+      <c r="C985" t="s">
+        <v>49</v>
+      </c>
+      <c r="D985" t="str">
+        <f>VLOOKUP(C985,vendor_table!$B$2:$C$29,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E985" t="s">
+        <v>277</v>
+      </c>
+      <c r="F985" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="986" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A986" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="B986">
+        <v>634.70000000000005</v>
+      </c>
+      <c r="C986" t="s">
+        <v>56</v>
+      </c>
+      <c r="D986" t="str">
+        <f>VLOOKUP(C986,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
+      </c>
+      <c r="E986" t="s">
+        <v>277</v>
+      </c>
+      <c r="F986" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="987" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A987" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="B987">
+        <v>409</v>
+      </c>
+      <c r="C987" t="s">
+        <v>58</v>
+      </c>
+      <c r="D987" t="str">
+        <f>VLOOKUP(C987,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E987" t="s">
+        <v>277</v>
+      </c>
+      <c r="F987" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="988" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A988" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="B988">
+        <v>456.49</v>
+      </c>
+      <c r="C988" t="s">
+        <v>49</v>
+      </c>
+      <c r="D988" t="str">
+        <f>VLOOKUP(C988,vendor_table!$B$2:$C$29,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E988" t="s">
+        <v>277</v>
+      </c>
+      <c r="F988" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="989" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A989" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="B989">
+        <v>354.99</v>
+      </c>
+      <c r="C989" t="s">
+        <v>211</v>
+      </c>
+      <c r="D989" t="str">
+        <f>VLOOKUP(C989,vendor_table!$B$2:$C$29,2,)</f>
+        <v>1917 S Avenue B. Yuma, AZ, 85364</v>
+      </c>
+      <c r="E989" t="s">
+        <v>277</v>
+      </c>
+      <c r="F989" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="990" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A990" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="B990">
+        <v>445.81</v>
+      </c>
+      <c r="C990" t="s">
+        <v>56</v>
+      </c>
+      <c r="D990" t="str">
+        <f>VLOOKUP(C990,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
+      </c>
+      <c r="E990" t="s">
+        <v>277</v>
+      </c>
+      <c r="F990" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="991" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A991" s="153" t="s">
+        <v>117</v>
+      </c>
+      <c r="B991">
+        <v>156</v>
+      </c>
+      <c r="C991" t="s">
+        <v>58</v>
+      </c>
+      <c r="D991" t="str">
+        <f>VLOOKUP(C991,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E991" t="s">
+        <v>277</v>
+      </c>
+      <c r="F991" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="992" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A992" s="153" t="s">
+        <v>117</v>
+      </c>
+      <c r="B992">
+        <v>155.99</v>
+      </c>
+      <c r="C992" t="s">
+        <v>49</v>
+      </c>
+      <c r="D992" t="str">
+        <f>VLOOKUP(C992,vendor_table!$B$2:$C$29,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E992" t="s">
+        <v>277</v>
+      </c>
+      <c r="F992" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="993" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A993" s="153" t="s">
+        <v>117</v>
+      </c>
+      <c r="B993">
+        <v>165</v>
+      </c>
+      <c r="C993" t="s">
+        <v>72</v>
+      </c>
+      <c r="D993" t="str">
+        <f>VLOOKUP(C993,vendor_table!$B$2:$C$29,2,)</f>
+        <v>1431 7th St Ste 204. Santa Monica, California, 90401</v>
+      </c>
+      <c r="E993" t="s">
+        <v>277</v>
+      </c>
+      <c r="F993" t="str">
+        <f t="shared" si="15"/>
+        <v>Friday</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:F603" xr:uid="{00000000-0009-0000-0000-000031000000}"/>
+  <autoFilter ref="A2:F603" xr:uid="{00000000-0009-0000-0000-000034000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
-  <dimension ref="A1:F349"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
+  <dimension ref="A1:F365"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="C350" sqref="C350"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -61117,7 +62010,7 @@
     <col min="7" max="7" width="50.06640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="70" t="s">
         <v>83</v>
       </c>
@@ -61128,13 +62021,13 @@
         <v>85</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E1" s="70" t="s">
         <v>87</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -66454,7 +67347,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E243" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="3"/>
@@ -66476,7 +67369,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E244" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="3"/>
@@ -66498,7 +67391,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E245" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="3"/>
@@ -66520,7 +67413,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E246" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="3"/>
@@ -66542,7 +67435,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E247" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="3"/>
@@ -66564,7 +67457,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E248" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="3"/>
@@ -66586,7 +67479,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E249" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="3"/>
@@ -66608,7 +67501,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E250" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="3"/>
@@ -66630,7 +67523,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E251" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="3"/>
@@ -66652,7 +67545,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E252" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="3"/>
@@ -66674,7 +67567,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E253" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="3"/>
@@ -66696,7 +67589,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E254" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="3"/>
@@ -66718,7 +67611,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E255" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="3"/>
@@ -66740,7 +67633,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E256" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="3"/>
@@ -68097,14 +68990,14 @@
         <v>4.7300000000000004</v>
       </c>
       <c r="C318" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D318" t="str">
         <f>VLOOKUP(C318,vendor_table!$B$2:$C$29,2,)</f>
         <v>online</v>
       </c>
       <c r="E318" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F318" t="str">
         <f t="shared" si="4"/>
@@ -68126,7 +69019,7 @@
         <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
       </c>
       <c r="E319" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F319" t="str">
         <f t="shared" si="4"/>
@@ -68148,7 +69041,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E320" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F320" t="str">
         <f t="shared" si="4"/>
@@ -68170,7 +69063,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E321" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F321" t="str">
         <f t="shared" si="4"/>
@@ -68192,10 +69085,10 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E322" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F322" t="str">
-        <f t="shared" ref="F322:F349" si="5">TEXT(E322,"dddd")</f>
+        <f t="shared" ref="F322:F385" si="5">TEXT(E322,"dddd")</f>
         <v>Wednesday</v>
       </c>
     </row>
@@ -68214,7 +69107,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E323" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F323" t="str">
         <f t="shared" si="5"/>
@@ -68236,7 +69129,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E324" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="F324" t="str">
         <f t="shared" si="5"/>
@@ -68258,7 +69151,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E325" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F325" t="str">
         <f t="shared" si="5"/>
@@ -68280,7 +69173,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E326" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F326" t="str">
         <f t="shared" si="5"/>
@@ -68302,7 +69195,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E327" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F327" t="str">
         <f t="shared" si="5"/>
@@ -68324,7 +69217,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E328" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F328" t="str">
         <f t="shared" si="5"/>
@@ -68346,7 +69239,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E329" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F329" t="str">
         <f t="shared" si="5"/>
@@ -68368,7 +69261,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E330" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F330" t="str">
         <f t="shared" si="5"/>
@@ -68390,7 +69283,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E331" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F331" t="str">
         <f t="shared" si="5"/>
@@ -68412,7 +69305,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E332" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F332" t="str">
         <f t="shared" si="5"/>
@@ -68434,7 +69327,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E333" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F333" t="str">
         <f t="shared" si="5"/>
@@ -68456,7 +69349,7 @@
         <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
       </c>
       <c r="E334" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F334" t="str">
         <f t="shared" si="5"/>
@@ -68478,7 +69371,7 @@
         <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
       </c>
       <c r="E335" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F335" t="str">
         <f t="shared" si="5"/>
@@ -68500,7 +69393,7 @@
         <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
       </c>
       <c r="E336" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F336" t="str">
         <f t="shared" si="5"/>
@@ -68522,7 +69415,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E337" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="F337" t="str">
         <f t="shared" si="5"/>
@@ -68544,7 +69437,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E338" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F338" t="str">
         <f t="shared" si="5"/>
@@ -68566,7 +69459,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E339" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F339" t="str">
         <f t="shared" si="5"/>
@@ -68588,7 +69481,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E340" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="F340" t="str">
         <f t="shared" si="5"/>
@@ -68610,7 +69503,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E341" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F341" t="str">
         <f t="shared" si="5"/>
@@ -68632,7 +69525,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E342" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F342" t="str">
         <f t="shared" si="5"/>
@@ -68654,7 +69547,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E343" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F343" t="str">
         <f t="shared" si="5"/>
@@ -68676,7 +69569,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E344" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F344" t="str">
         <f t="shared" si="5"/>
@@ -68698,7 +69591,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E345" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F345" t="str">
         <f t="shared" si="5"/>
@@ -68720,7 +69613,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E346" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F346" t="str">
         <f t="shared" si="5"/>
@@ -68742,7 +69635,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E347" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F347" t="str">
         <f t="shared" si="5"/>
@@ -68764,7 +69657,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E348" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F348" t="str">
         <f t="shared" si="5"/>
@@ -68772,10 +69665,10 @@
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A349" t="s">
+      <c r="A349" s="149" t="s">
         <v>117</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="149">
         <v>155.99</v>
       </c>
       <c r="C349" t="s">
@@ -68786,11 +69679,363 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E349" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="F349" t="str">
         <f t="shared" si="5"/>
         <v>Thursday</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A350" s="155" t="s">
+        <v>88</v>
+      </c>
+      <c r="B350" s="149">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C350" t="s">
+        <v>57</v>
+      </c>
+      <c r="D350" t="str">
+        <f>VLOOKUP(C350,vendor_table!$B$2:$C$29,2,)</f>
+        <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
+      </c>
+      <c r="E350" t="s">
+        <v>277</v>
+      </c>
+      <c r="F350" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A351" s="153" t="s">
+        <v>90</v>
+      </c>
+      <c r="B351">
+        <v>8.35</v>
+      </c>
+      <c r="C351" t="s">
+        <v>55</v>
+      </c>
+      <c r="D351" t="str">
+        <f>VLOOKUP(C351,vendor_table!$B$2:$C$29,2,)</f>
+        <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
+      </c>
+      <c r="E351" t="s">
+        <v>277</v>
+      </c>
+      <c r="F351" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A352" s="153" t="s">
+        <v>73</v>
+      </c>
+      <c r="B352">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="C352" t="s">
+        <v>54</v>
+      </c>
+      <c r="D352" t="str">
+        <f>VLOOKUP(C352,vendor_table!$B$2:$C$29,2,)</f>
+        <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
+      </c>
+      <c r="E352" t="s">
+        <v>277</v>
+      </c>
+      <c r="F352" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A353" s="154" t="s">
+        <v>93</v>
+      </c>
+      <c r="B353">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="C353" t="s">
+        <v>49</v>
+      </c>
+      <c r="D353" t="str">
+        <f>VLOOKUP(C353,vendor_table!$B$2:$C$29,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E353" t="s">
+        <v>278</v>
+      </c>
+      <c r="F353" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A354" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="B354">
+        <v>2.98</v>
+      </c>
+      <c r="C354" t="s">
+        <v>58</v>
+      </c>
+      <c r="D354" t="str">
+        <f>VLOOKUP(C354,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E354" t="s">
+        <v>277</v>
+      </c>
+      <c r="F354" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A355" s="153" t="s">
+        <v>97</v>
+      </c>
+      <c r="B355">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C355" t="s">
+        <v>58</v>
+      </c>
+      <c r="D355" t="str">
+        <f>VLOOKUP(C355,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E355" t="s">
+        <v>277</v>
+      </c>
+      <c r="F355" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A356" s="154" t="s">
+        <v>99</v>
+      </c>
+      <c r="B356">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="C356" t="s">
+        <v>49</v>
+      </c>
+      <c r="D356" t="str">
+        <f>VLOOKUP(C356,vendor_table!$B$2:$C$29,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E356" t="s">
+        <v>278</v>
+      </c>
+      <c r="F356" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A357" s="153" t="s">
+        <v>101</v>
+      </c>
+      <c r="B357">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C357" t="s">
+        <v>49</v>
+      </c>
+      <c r="D357" t="str">
+        <f>VLOOKUP(C357,vendor_table!$B$2:$C$29,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E357" t="s">
+        <v>277</v>
+      </c>
+      <c r="F357" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A358" s="153" t="s">
+        <v>103</v>
+      </c>
+      <c r="B358">
+        <v>1.6</v>
+      </c>
+      <c r="C358" t="s">
+        <v>58</v>
+      </c>
+      <c r="D358" t="str">
+        <f>VLOOKUP(C358,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E358" t="s">
+        <v>277</v>
+      </c>
+      <c r="F358" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A359" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B359">
+        <v>84.99</v>
+      </c>
+      <c r="C359" t="s">
+        <v>49</v>
+      </c>
+      <c r="D359" t="str">
+        <f>VLOOKUP(C359,vendor_table!$B$2:$C$29,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E359" t="s">
+        <v>277</v>
+      </c>
+      <c r="F359" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A360" s="153" t="s">
+        <v>107</v>
+      </c>
+      <c r="B360">
+        <v>158</v>
+      </c>
+      <c r="C360" t="s">
+        <v>55</v>
+      </c>
+      <c r="D360" t="str">
+        <f>VLOOKUP(C360,vendor_table!$B$2:$C$29,2,)</f>
+        <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
+      </c>
+      <c r="E360" t="s">
+        <v>277</v>
+      </c>
+      <c r="F360" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A361" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="B361">
+        <v>149</v>
+      </c>
+      <c r="C361" t="s">
+        <v>58</v>
+      </c>
+      <c r="D361" t="str">
+        <f>VLOOKUP(C361,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E361" t="s">
+        <v>277</v>
+      </c>
+      <c r="F361" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A362" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="B362">
+        <v>279</v>
+      </c>
+      <c r="C362" t="s">
+        <v>56</v>
+      </c>
+      <c r="D362" t="str">
+        <f>VLOOKUP(C362,vendor_table!$B$2:$C$29,2,)</f>
+        <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
+      </c>
+      <c r="E362" t="s">
+        <v>277</v>
+      </c>
+      <c r="F362" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A363" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="B363">
+        <v>634.6</v>
+      </c>
+      <c r="C363" t="s">
+        <v>49</v>
+      </c>
+      <c r="D363" t="str">
+        <f>VLOOKUP(C363,vendor_table!$B$2:$C$29,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E363" t="s">
+        <v>277</v>
+      </c>
+      <c r="F363" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A364" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="B364">
+        <v>354.99</v>
+      </c>
+      <c r="C364" t="s">
+        <v>49</v>
+      </c>
+      <c r="D364" t="str">
+        <f>VLOOKUP(C364,vendor_table!$B$2:$C$29,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E364" t="s">
+        <v>277</v>
+      </c>
+      <c r="F364" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A365" s="153" t="s">
+        <v>117</v>
+      </c>
+      <c r="B365">
+        <v>155.99</v>
+      </c>
+      <c r="C365" t="s">
+        <v>49</v>
+      </c>
+      <c r="D365" t="str">
+        <f>VLOOKUP(C365,vendor_table!$B$2:$C$29,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E365" t="s">
+        <v>277</v>
+      </c>
+      <c r="F365" t="str">
+        <f t="shared" si="5"/>
+        <v>Friday</v>
       </c>
     </row>
   </sheetData>
@@ -68799,7 +70044,7 @@
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D1 C350:D1048576 C34:C349">
+  <conditionalFormatting sqref="C1:D1 C366:D1048576 C34:C365">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"rona"</formula>
     </cfRule>
@@ -68810,11 +70055,11 @@
 </file>
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -68826,13 +70071,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B1" s="113" t="s">
         <v>85</v>
       </c>
       <c r="C1" s="114" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -68843,7 +70088,7 @@
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -68854,7 +70099,7 @@
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -68865,7 +70110,7 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -68876,7 +70121,7 @@
         <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -68887,7 +70132,7 @@
         <v>55</v>
       </c>
       <c r="C6" s="112" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -68898,7 +70143,7 @@
         <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -68909,7 +70154,7 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -68920,7 +70165,7 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -68931,7 +70176,7 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -68942,7 +70187,7 @@
         <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -68953,7 +70198,7 @@
         <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -68964,7 +70209,7 @@
         <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -68975,7 +70220,7 @@
         <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -68986,7 +70231,7 @@
         <v>211</v>
       </c>
       <c r="C15" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -68997,7 +70242,7 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -69008,7 +70253,7 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -69019,7 +70264,7 @@
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -69030,7 +70275,7 @@
         <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -69041,7 +70286,7 @@
         <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -69052,7 +70297,7 @@
         <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -69063,7 +70308,7 @@
         <v>67</v>
       </c>
       <c r="C22" s="120" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -69074,7 +70319,7 @@
         <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -69085,7 +70330,7 @@
         <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -69096,7 +70341,7 @@
         <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -69107,7 +70352,7 @@
         <v>52</v>
       </c>
       <c r="C26" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -69118,7 +70363,7 @@
         <v>139</v>
       </c>
       <c r="C27" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -69126,10 +70371,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C28" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -69137,15 +70382,996 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C29" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="68.19921875" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="114.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="125" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="152" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="151">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="153" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>8.35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="153" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="154" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E5" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6">
+        <v>2.98</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>190</v>
+      </c>
+      <c r="E6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="153" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="154" t="s">
+        <v>99</v>
+      </c>
+      <c r="B8">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="153" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="153" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10">
+        <v>1.6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B11">
+        <v>84.99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" t="s">
+        <v>106</v>
+      </c>
+      <c r="E11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="153" t="s">
+        <v>107</v>
+      </c>
+      <c r="B12">
+        <v>158</v>
+      </c>
+      <c r="C12" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13">
+        <v>149</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14">
+        <v>279</v>
+      </c>
+      <c r="C14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15">
+        <v>634.6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16">
+        <v>354.99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="153" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17">
+        <v>155.99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="47" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
+  <dimension ref="A1:E38"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="68.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="144.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.06640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="125" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="150" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="125" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="125" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="125" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="152" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="151">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="153" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>11.91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="153" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>10.47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="153" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>8.35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="153" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <v>2.98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>5.99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="153" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="153" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="153" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11">
+        <v>5.99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="153" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="153" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>1.6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>116.94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16">
+        <v>111.07</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18">
+        <v>84.99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="153" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="153" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="153" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21">
+        <v>158</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="153" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22">
+        <v>330.85</v>
+      </c>
+      <c r="C22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="153" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25">
+        <v>289</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26">
+        <v>279</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27">
+        <v>315.01</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="153" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28">
+        <v>339.09</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29">
+        <v>765</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30">
+        <v>634.6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="153" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31">
+        <v>634.70000000000005</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32">
+        <v>409</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33">
+        <v>456.49</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34">
+        <v>354.99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="153" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35">
+        <v>445.81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="153" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36">
+        <v>156</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>151</v>
+      </c>
+      <c r="E36" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="153" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37">
+        <v>155.99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="153" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38">
+        <v>165</v>
+      </c>
+      <c r="C38" t="s">
+        <v>72</v>
+      </c>
+      <c r="D38" t="s">
+        <v>158</v>
+      </c>
+      <c r="E38" t="s">
+        <v>277</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -69542,12 +71768,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="83" customFormat="1" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="148" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="143"/>
-      <c r="C1" s="143"/>
-      <c r="D1" s="144"/>
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="145"/>
     </row>
     <row r="2" spans="1:39" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="94" t="s">
@@ -69911,10 +72137,10 @@
       <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:39" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="145" t="s">
+      <c r="A6" s="146" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="127"/>
+      <c r="B6" s="137"/>
       <c r="C6" s="83"/>
     </row>
     <row r="7" spans="1:39" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -69981,12 +72207,12 @@
     </row>
     <row r="14" spans="1:39" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="1:39" s="100" customFormat="1" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="142" t="s">
+      <c r="A15" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="143"/>
-      <c r="C15" s="143"/>
-      <c r="D15" s="144"/>
+      <c r="B15" s="144"/>
+      <c r="C15" s="144"/>
+      <c r="D15" s="145"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A16" s="102" t="s">
@@ -70329,11 +72555,11 @@
     </row>
     <row r="19" spans="1:45" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="20" spans="1:45" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="145" t="str">
+      <c r="A20" s="146" t="str">
         <f>A6</f>
         <v>Metrics</v>
       </c>
-      <c r="B20" s="127"/>
+      <c r="B20" s="137"/>
     </row>
     <row r="21" spans="1:45" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="90" t="str">
@@ -70383,12 +72609,12 @@
     </row>
     <row r="26" spans="1:45" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="27" spans="1:45" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="142" t="s">
+      <c r="A27" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="143"/>
-      <c r="C27" s="143"/>
-      <c r="D27" s="144"/>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="145"/>
     </row>
     <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="89" t="str">
@@ -70808,11 +73034,11 @@
       <c r="A31" s="85"/>
     </row>
     <row r="32" spans="1:45" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="146" t="str">
+      <c r="A32" s="147" t="str">
         <f>A20</f>
         <v>Metrics</v>
       </c>
-      <c r="B32" s="127"/>
+      <c r="B32" s="137"/>
     </row>
     <row r="33" spans="1:2" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="92" t="str">

--- a/Consolidated_Estimator_Worksheet.xlsx
+++ b/Consolidated_Estimator_Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kijah\Documents\Data_Bootcamp\Estimator_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEEE3FBA-4B62-46C8-95AC-9BDC44C42460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CADE9272-30B7-4FFB-B727-FFFE80F779DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13155" firstSheet="59" activeTab="60" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="58" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Rates" sheetId="1" r:id="rId1"/>
@@ -71,20 +71,22 @@
     <sheet name="all_table23" sheetId="56" r:id="rId56"/>
     <sheet name="target_table24" sheetId="57" r:id="rId57"/>
     <sheet name="all_table24" sheetId="58" r:id="rId58"/>
-    <sheet name="target_table25" sheetId="62" r:id="rId59"/>
-    <sheet name="target_consolidated_table" sheetId="59" r:id="rId60"/>
-    <sheet name="all_consolidated_table" sheetId="60" r:id="rId61"/>
-    <sheet name="vendor_table" sheetId="61" r:id="rId62"/>
-    <sheet name="all_table25" sheetId="63" r:id="rId63"/>
+    <sheet name="target_table25" sheetId="59" r:id="rId59"/>
+    <sheet name="all_table25" sheetId="63" r:id="rId60"/>
+    <sheet name="target_table26" sheetId="64" r:id="rId61"/>
+    <sheet name="target_consolidated_table" sheetId="60" r:id="rId62"/>
+    <sheet name="all_consolidated_table" sheetId="61" r:id="rId63"/>
+    <sheet name="vendor_table" sheetId="62" r:id="rId64"/>
+    <sheet name="all_table26" sheetId="65" r:id="rId65"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="60" hidden="1">all_consolidated_table!$A$2:$F$603</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="62" hidden="1">all_consolidated_table!$A$2:$F$603</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId64"/>
-    <pivotCache cacheId="1" r:id="rId65"/>
-    <pivotCache cacheId="2" r:id="rId66"/>
+    <pivotCache cacheId="0" r:id="rId66"/>
+    <pivotCache cacheId="1" r:id="rId67"/>
+    <pivotCache cacheId="2" r:id="rId68"/>
   </pivotCaches>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -104,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11176" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11550" uniqueCount="296">
   <si>
     <t>Sales Tax</t>
   </si>
@@ -856,6 +858,12 @@
     <t>https://www.walmart.com/ip/Southwire-500-Ft-10-AWG-Solid-Black-THHN-Electrical-Wire-11595657/39744717</t>
   </si>
   <si>
+    <t>11/14/2022 09:46:08</t>
+  </si>
+  <si>
+    <t>11/14/2022 09:46:09</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
@@ -982,13 +990,10 @@
     <t>online</t>
   </si>
   <si>
-    <t>11/14/2022 09:46:08</t>
+    <t>https://www.menards.com/main/electrical/electrical-wire-cable/thhn-electrical-wire/stranded-thhn-building-wire/20493301/p-1444442918910-c-1525874617505.htm</t>
   </si>
   <si>
-    <t>11/14/2022 09:46:09</t>
-  </si>
-  <si>
-    <t>https://www.menards.com/main/electrical/electrical-wire-cable/thhn-electrical-wire/stranded-thhn-building-wire/20493301/p-1444442918910-c-1525874617505.htm</t>
+    <t>11/15/2022 08:23:33</t>
   </si>
 </sst>
 </file>
@@ -1000,7 +1005,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="dddd"/>
   </numFmts>
-  <fonts count="52" x14ac:knownFonts="1">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1323,6 +1328,11 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1392,7 +1402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="63">
+  <borders count="64">
     <border>
       <left/>
       <right/>
@@ -2228,12 +2238,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="165">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2512,31 +2537,20 @@
     <xf numFmtId="0" fontId="51" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="17" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2549,6 +2563,23 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2563,15 +2594,19 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -18342,13 +18377,13 @@
       <c r="P8" s="63"/>
     </row>
     <row r="9" spans="1:16" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="150" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="140"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="141"/>
+      <c r="D9" s="141"/>
+      <c r="E9" s="151"/>
       <c r="F9" s="9"/>
       <c r="G9" s="51">
         <f t="shared" si="1"/>
@@ -18371,14 +18406,14 @@
         <v>11</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="141" t="s">
+      <c r="E10" s="152" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="54" t="str">
         <f>C10</f>
         <v>TOTAL</v>
       </c>
-      <c r="G10" s="143" t="s">
+      <c r="G10" s="154" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="63"/>
@@ -18398,11 +18433,11 @@
         <v>14</v>
       </c>
       <c r="D11" s="55"/>
-      <c r="E11" s="142"/>
+      <c r="E11" s="153"/>
       <c r="F11" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="144"/>
+      <c r="G11" s="143"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="63"/>
@@ -18414,59 +18449,59 @@
       <c r="P11" s="63"/>
     </row>
     <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="145" t="s">
+      <c r="A12" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="146">
+      <c r="B12" s="156">
         <f t="shared" ref="B12:G12" si="2">SUM(B2:B8)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="146">
+      <c r="C12" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D12" s="146">
+      <c r="D12" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E12" s="146">
+      <c r="E12" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="146">
+      <c r="F12" s="156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G12" s="149">
+      <c r="G12" s="144">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="151" t="s">
+      <c r="H12" s="146" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="144"/>
-      <c r="J12" s="144"/>
-      <c r="K12" s="144"/>
-      <c r="L12" s="144"/>
-      <c r="M12" s="144"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="143"/>
       <c r="N12" s="63"/>
       <c r="O12" s="63"/>
       <c r="P12" s="63"/>
     </row>
     <row r="13" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="144"/>
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="150"/>
-      <c r="H13" s="152"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
-      <c r="M13" s="144"/>
+      <c r="A13" s="143"/>
+      <c r="B13" s="143"/>
+      <c r="C13" s="143"/>
+      <c r="D13" s="143"/>
+      <c r="E13" s="143"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="143"/>
+      <c r="J13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="143"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
       <c r="P13" s="63"/>
@@ -18531,10 +18566,10 @@
       <c r="B18" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="153"/>
-      <c r="D18" s="154"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="154"/>
+      <c r="C18" s="148"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
@@ -18551,10 +18586,10 @@
       <c r="B19" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="147"/>
-      <c r="D19" s="139"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="141"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
       <c r="G19" s="63"/>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
@@ -18571,15 +18606,15 @@
       <c r="B20" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="153"/>
-      <c r="D20" s="154"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="154"/>
-      <c r="H20" s="154"/>
-      <c r="I20" s="154"/>
-      <c r="J20" s="154"/>
-      <c r="K20" s="154"/>
+      <c r="C20" s="148"/>
+      <c r="D20" s="149"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149"/>
       <c r="L20" s="63"/>
       <c r="M20" s="63"/>
       <c r="N20" s="63"/>
@@ -18591,10 +18626,10 @@
       <c r="B21" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="147"/>
-      <c r="D21" s="139"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
+      <c r="C21" s="140"/>
+      <c r="D21" s="141"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
       <c r="G21" s="67"/>
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
@@ -18624,14 +18659,14 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="63"/>
       <c r="B23" s="63"/>
-      <c r="C23" s="148" t="s">
+      <c r="C23" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="144"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="144"/>
-      <c r="G23" s="144"/>
-      <c r="H23" s="144"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="143"/>
+      <c r="F23" s="143"/>
+      <c r="G23" s="143"/>
+      <c r="H23" s="143"/>
       <c r="I23" s="63"/>
       <c r="J23" s="63"/>
       <c r="K23" s="63"/>
@@ -18644,12 +18679,12 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="63"/>
       <c r="B24" s="63"/>
-      <c r="C24" s="144"/>
-      <c r="D24" s="144"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="144"/>
-      <c r="H24" s="144"/>
+      <c r="C24" s="143"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="143"/>
+      <c r="G24" s="143"/>
+      <c r="H24" s="143"/>
       <c r="I24" s="63"/>
       <c r="J24" s="63"/>
       <c r="K24" s="63"/>
@@ -18662,12 +18697,12 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="63"/>
       <c r="B25" s="63"/>
-      <c r="C25" s="144"/>
-      <c r="D25" s="144"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
+      <c r="C25" s="143"/>
+      <c r="D25" s="143"/>
+      <c r="E25" s="143"/>
+      <c r="F25" s="143"/>
+      <c r="G25" s="143"/>
+      <c r="H25" s="143"/>
       <c r="I25" s="63"/>
       <c r="J25" s="63"/>
       <c r="K25" s="63"/>
@@ -18697,13 +18732,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C23:H25"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:M13"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:K20"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="G10:G11"/>
@@ -18713,6 +18741,13 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C23:H25"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:M13"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -43263,7 +43298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -43272,7 +43307,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="64.796875" style="163" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.1328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="110.265625" bestFit="1" customWidth="1"/>
@@ -43283,7 +43318,7 @@
       <c r="A1" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="138" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="137" t="s">
@@ -43297,7 +43332,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="162" t="s">
+      <c r="A2" s="113" t="s">
         <v>88</v>
       </c>
       <c r="B2">
@@ -43310,11 +43345,11 @@
         <v>207</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="162" t="s">
+      <c r="A3" s="113" t="s">
         <v>90</v>
       </c>
       <c r="B3">
@@ -43327,11 +43362,11 @@
         <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="162" t="s">
+      <c r="A4" s="113" t="s">
         <v>73</v>
       </c>
       <c r="B4">
@@ -43344,11 +43379,11 @@
         <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="162" t="s">
+      <c r="A5" s="113" t="s">
         <v>95</v>
       </c>
       <c r="B5">
@@ -43361,11 +43396,11 @@
         <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="162" t="s">
+      <c r="A6" s="113" t="s">
         <v>97</v>
       </c>
       <c r="B6">
@@ -43378,11 +43413,11 @@
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="162" t="s">
+      <c r="A7" s="113" t="s">
         <v>101</v>
       </c>
       <c r="B7">
@@ -43395,11 +43430,11 @@
         <v>102</v>
       </c>
       <c r="E7" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="113" t="s">
         <v>103</v>
       </c>
       <c r="B8">
@@ -43412,11 +43447,11 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="162" t="s">
+      <c r="A9" s="113" t="s">
         <v>105</v>
       </c>
       <c r="B9">
@@ -43429,11 +43464,11 @@
         <v>135</v>
       </c>
       <c r="E9" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="162" t="s">
+      <c r="A10" s="113" t="s">
         <v>107</v>
       </c>
       <c r="B10">
@@ -43446,11 +43481,11 @@
         <v>198</v>
       </c>
       <c r="E10" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="162" t="s">
+      <c r="A11" s="113" t="s">
         <v>109</v>
       </c>
       <c r="B11">
@@ -43463,11 +43498,11 @@
         <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="162" t="s">
+      <c r="A12" s="113" t="s">
         <v>111</v>
       </c>
       <c r="B12">
@@ -43480,11 +43515,11 @@
         <v>246</v>
       </c>
       <c r="E12" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="162" t="s">
+      <c r="A13" s="113" t="s">
         <v>113</v>
       </c>
       <c r="B13">
@@ -43497,11 +43532,11 @@
         <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="162" t="s">
+      <c r="A14" s="113" t="s">
         <v>115</v>
       </c>
       <c r="B14">
@@ -43514,11 +43549,11 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="162" t="s">
+      <c r="A15" s="113" t="s">
         <v>117</v>
       </c>
       <c r="B15">
@@ -43531,12 +43566,12 @@
         <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -43768,11 +43803,974 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
-  <dimension ref="A1:F409"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView topLeftCell="B380" workbookViewId="0">
-      <selection activeCell="F395" sqref="F395:F409"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="64.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.1328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="137.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="138" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="137" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="137" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2">
+        <v>7.22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>5.99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>5.88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <v>5.88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7">
+        <v>7.24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>11.91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>10.47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>8.35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E10" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>20.62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12">
+        <v>17.55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="C13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" t="s">
+        <v>165</v>
+      </c>
+      <c r="E13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14">
+        <v>2.98</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>190</v>
+      </c>
+      <c r="E14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15">
+        <v>2.98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18">
+        <v>1.6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19">
+        <v>116.93</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20">
+        <v>111.07</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>137</v>
+      </c>
+      <c r="E20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <v>124</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
+        <v>138</v>
+      </c>
+      <c r="E21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22">
+        <v>110</v>
+      </c>
+      <c r="C22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" t="s">
+        <v>242</v>
+      </c>
+      <c r="E22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="B23">
+        <v>159</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E23" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="B24">
+        <v>172.22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25">
+        <v>149</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="B26">
+        <v>149</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27">
+        <v>289</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28">
+        <v>352.78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29">
+        <v>765</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30">
+        <v>634.6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31">
+        <v>634.75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32">
+        <v>409</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33">
+        <v>423</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34">
+        <v>354.99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35">
+        <v>445.81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36">
+        <v>449</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>294</v>
+      </c>
+      <c r="E36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37">
+        <v>156</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38">
+        <v>155.99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39">
+        <v>165</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="68.19921875" style="165" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="116.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="164" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="139" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="166" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2">
+        <v>4.49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>8.35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="166" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>2.98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="166" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="166" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="166" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8">
+        <v>1.6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9">
+        <v>84.99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="166" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>289</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13">
+        <v>634.6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14">
+        <v>354.99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="166" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15">
+        <v>154.99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
+  <dimension ref="A1:F423"/>
+  <sheetViews>
+    <sheetView topLeftCell="A386" workbookViewId="0">
+      <selection activeCell="F409" sqref="F409:F423"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -43797,13 +44795,13 @@
         <v>85</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E1" s="70" t="s">
         <v>87</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -49123,7 +50121,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E243" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="3"/>
@@ -49145,7 +50143,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E244" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="3"/>
@@ -49167,7 +50165,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E245" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="3"/>
@@ -49189,7 +50187,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E246" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="3"/>
@@ -49211,7 +50209,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E247" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="3"/>
@@ -49233,7 +50231,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E248" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="3"/>
@@ -49255,7 +50253,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E249" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="3"/>
@@ -49277,7 +50275,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E250" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="3"/>
@@ -49299,7 +50297,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E251" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="3"/>
@@ -49321,7 +50319,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E252" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="3"/>
@@ -49343,7 +50341,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E253" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="3"/>
@@ -49365,7 +50363,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E254" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="3"/>
@@ -49387,7 +50385,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E255" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="3"/>
@@ -49409,7 +50407,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E256" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="3"/>
@@ -52475,7 +53473,7 @@
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A396" s="164" t="s">
+      <c r="A396" s="129" t="s">
         <v>88</v>
       </c>
       <c r="B396">
@@ -52489,7 +53487,7 @@
         <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
       </c>
       <c r="E396" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="F396" t="str">
         <f t="shared" si="6"/>
@@ -52497,7 +53495,7 @@
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A397" s="164" t="s">
+      <c r="A397" s="129" t="s">
         <v>90</v>
       </c>
       <c r="B397">
@@ -52511,7 +53509,7 @@
         <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
       </c>
       <c r="E397" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="F397" t="str">
         <f t="shared" si="6"/>
@@ -52519,7 +53517,7 @@
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A398" s="164" t="s">
+      <c r="A398" s="129" t="s">
         <v>73</v>
       </c>
       <c r="B398">
@@ -52533,7 +53531,7 @@
         <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
       </c>
       <c r="E398" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F398" t="str">
         <f t="shared" si="6"/>
@@ -52541,7 +53539,7 @@
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A399" s="164" t="s">
+      <c r="A399" s="129" t="s">
         <v>95</v>
       </c>
       <c r="B399">
@@ -52555,7 +53553,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E399" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F399" t="str">
         <f t="shared" si="6"/>
@@ -52563,7 +53561,7 @@
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A400" s="164" t="s">
+      <c r="A400" s="129" t="s">
         <v>97</v>
       </c>
       <c r="B400">
@@ -52577,7 +53575,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E400" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F400" t="str">
         <f t="shared" si="6"/>
@@ -52585,7 +53583,7 @@
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A401" s="164" t="s">
+      <c r="A401" s="129" t="s">
         <v>101</v>
       </c>
       <c r="B401">
@@ -52599,7 +53597,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E401" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F401" t="str">
         <f t="shared" si="6"/>
@@ -52607,7 +53605,7 @@
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A402" s="164" t="s">
+      <c r="A402" s="129" t="s">
         <v>103</v>
       </c>
       <c r="B402">
@@ -52621,7 +53619,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E402" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F402" t="str">
         <f t="shared" si="6"/>
@@ -52629,7 +53627,7 @@
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A403" s="164" t="s">
+      <c r="A403" s="129" t="s">
         <v>105</v>
       </c>
       <c r="B403">
@@ -52643,7 +53641,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E403" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F403" t="str">
         <f t="shared" si="6"/>
@@ -52651,7 +53649,7 @@
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A404" s="164" t="s">
+      <c r="A404" s="129" t="s">
         <v>107</v>
       </c>
       <c r="B404">
@@ -52665,7 +53663,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E404" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F404" t="str">
         <f t="shared" si="6"/>
@@ -52673,7 +53671,7 @@
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A405" s="164" t="s">
+      <c r="A405" s="129" t="s">
         <v>109</v>
       </c>
       <c r="B405">
@@ -52687,7 +53685,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E405" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F405" t="str">
         <f t="shared" si="6"/>
@@ -52695,7 +53693,7 @@
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A406" s="164" t="s">
+      <c r="A406" s="129" t="s">
         <v>111</v>
       </c>
       <c r="B406">
@@ -52709,7 +53707,7 @@
         <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
       </c>
       <c r="E406" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F406" t="str">
         <f t="shared" si="6"/>
@@ -52717,7 +53715,7 @@
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A407" s="164" t="s">
+      <c r="A407" s="129" t="s">
         <v>113</v>
       </c>
       <c r="B407">
@@ -52731,7 +53729,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E407" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F407" t="str">
         <f t="shared" si="6"/>
@@ -52739,7 +53737,7 @@
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A408" s="164" t="s">
+      <c r="A408" s="129" t="s">
         <v>115</v>
       </c>
       <c r="B408">
@@ -52753,7 +53751,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E408" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F408" t="str">
         <f t="shared" si="6"/>
@@ -52761,7 +53759,7 @@
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A409" s="164" t="s">
+      <c r="A409" s="129" t="s">
         <v>117</v>
       </c>
       <c r="B409">
@@ -52775,11 +53773,319 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E409" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F409" t="str">
         <f t="shared" si="6"/>
         <v>Monday</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A410" s="166" t="s">
+        <v>88</v>
+      </c>
+      <c r="B410">
+        <v>4.49</v>
+      </c>
+      <c r="C410" t="s">
+        <v>57</v>
+      </c>
+      <c r="D410" t="str">
+        <f>VLOOKUP(C410,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
+      </c>
+      <c r="E410" t="s">
+        <v>295</v>
+      </c>
+      <c r="F410" t="str">
+        <f t="shared" si="6"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A411" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="B411">
+        <v>8.35</v>
+      </c>
+      <c r="C411" t="s">
+        <v>55</v>
+      </c>
+      <c r="D411" t="str">
+        <f>VLOOKUP(C411,vendor_table!$B$2:$C$31,2,)</f>
+        <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
+      </c>
+      <c r="E411" t="s">
+        <v>295</v>
+      </c>
+      <c r="F411" t="str">
+        <f t="shared" si="6"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A412" s="166" t="s">
+        <v>73</v>
+      </c>
+      <c r="B412">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="C412" t="s">
+        <v>54</v>
+      </c>
+      <c r="D412" t="str">
+        <f>VLOOKUP(C412,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
+      </c>
+      <c r="E412" t="s">
+        <v>295</v>
+      </c>
+      <c r="F412" t="str">
+        <f t="shared" si="6"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A413" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="B413">
+        <v>2.98</v>
+      </c>
+      <c r="C413" t="s">
+        <v>58</v>
+      </c>
+      <c r="D413" t="str">
+        <f>VLOOKUP(C413,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E413" t="s">
+        <v>295</v>
+      </c>
+      <c r="F413" t="str">
+        <f t="shared" si="6"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A414" s="166" t="s">
+        <v>97</v>
+      </c>
+      <c r="B414">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C414" t="s">
+        <v>58</v>
+      </c>
+      <c r="D414" t="str">
+        <f>VLOOKUP(C414,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E414" t="s">
+        <v>295</v>
+      </c>
+      <c r="F414" t="str">
+        <f t="shared" si="6"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A415" s="166" t="s">
+        <v>101</v>
+      </c>
+      <c r="B415">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C415" t="s">
+        <v>49</v>
+      </c>
+      <c r="D415" t="str">
+        <f>VLOOKUP(C415,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E415" t="s">
+        <v>295</v>
+      </c>
+      <c r="F415" t="str">
+        <f t="shared" si="6"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A416" s="166" t="s">
+        <v>103</v>
+      </c>
+      <c r="B416">
+        <v>1.6</v>
+      </c>
+      <c r="C416" t="s">
+        <v>58</v>
+      </c>
+      <c r="D416" t="str">
+        <f>VLOOKUP(C416,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E416" t="s">
+        <v>295</v>
+      </c>
+      <c r="F416" t="str">
+        <f t="shared" si="6"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A417" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B417">
+        <v>84.99</v>
+      </c>
+      <c r="C417" t="s">
+        <v>49</v>
+      </c>
+      <c r="D417" t="str">
+        <f>VLOOKUP(C417,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E417" t="s">
+        <v>295</v>
+      </c>
+      <c r="F417" t="str">
+        <f t="shared" si="6"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A418" s="166" t="s">
+        <v>107</v>
+      </c>
+      <c r="B418">
+        <v>135</v>
+      </c>
+      <c r="C418" t="s">
+        <v>58</v>
+      </c>
+      <c r="D418" t="str">
+        <f>VLOOKUP(C418,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E418" t="s">
+        <v>295</v>
+      </c>
+      <c r="F418" t="str">
+        <f t="shared" si="6"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A419" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="B419">
+        <v>149</v>
+      </c>
+      <c r="C419" t="s">
+        <v>58</v>
+      </c>
+      <c r="D419" t="str">
+        <f>VLOOKUP(C419,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E419" t="s">
+        <v>295</v>
+      </c>
+      <c r="F419" t="str">
+        <f t="shared" si="6"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A420" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="B420">
+        <v>289</v>
+      </c>
+      <c r="C420" t="s">
+        <v>54</v>
+      </c>
+      <c r="D420" t="str">
+        <f>VLOOKUP(C420,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
+      </c>
+      <c r="E420" t="s">
+        <v>295</v>
+      </c>
+      <c r="F420" t="str">
+        <f t="shared" si="6"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A421" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="B421">
+        <v>634.6</v>
+      </c>
+      <c r="C421" t="s">
+        <v>49</v>
+      </c>
+      <c r="D421" t="str">
+        <f>VLOOKUP(C421,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E421" t="s">
+        <v>295</v>
+      </c>
+      <c r="F421" t="str">
+        <f t="shared" si="6"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A422" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="B422">
+        <v>354.99</v>
+      </c>
+      <c r="C422" t="s">
+        <v>49</v>
+      </c>
+      <c r="D422" t="str">
+        <f>VLOOKUP(C422,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E422" t="s">
+        <v>295</v>
+      </c>
+      <c r="F422" t="str">
+        <f t="shared" si="6"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A423" s="166" t="s">
+        <v>117</v>
+      </c>
+      <c r="B423">
+        <v>154.99</v>
+      </c>
+      <c r="C423" t="s">
+        <v>49</v>
+      </c>
+      <c r="D423" t="str">
+        <f>VLOOKUP(C423,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E423" t="s">
+        <v>295</v>
+      </c>
+      <c r="F423" t="str">
+        <f t="shared" si="6"/>
+        <v>Tuesday</v>
       </c>
     </row>
   </sheetData>
@@ -52788,7 +54094,7 @@
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D1 C410:D1048576 C34:C409">
+  <conditionalFormatting sqref="C1:D1 C424:D1048576 C34:C423">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"rona"</formula>
     </cfRule>
@@ -52798,18 +54104,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
-  <dimension ref="A1:J1120"/>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+  <dimension ref="A1:J1158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1091" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F1120"/>
+    <sheetView tabSelected="1" topLeftCell="A1121" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F1158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="64.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="47.796875" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" customWidth="1"/>
@@ -52829,17 +54135,17 @@
         <v>85</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E1" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="82" t="s">
-        <v>251</v>
+      <c r="F1" s="168" t="s">
+        <v>253</v>
       </c>
       <c r="G1" s="85"/>
       <c r="I1" s="85" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -76788,7 +78094,7 @@
       </c>
     </row>
     <row r="1083" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1083" s="164" t="s">
+      <c r="A1083" s="129" t="s">
         <v>88</v>
       </c>
       <c r="B1083">
@@ -76802,7 +78108,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1083" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="F1083" t="str">
         <f t="shared" si="16"/>
@@ -76810,7 +78116,7 @@
       </c>
     </row>
     <row r="1084" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1084" s="164" t="s">
+      <c r="A1084" s="129" t="s">
         <v>88</v>
       </c>
       <c r="B1084">
@@ -76824,7 +78130,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E1084" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="F1084" t="str">
         <f t="shared" si="16"/>
@@ -76832,7 +78138,7 @@
       </c>
     </row>
     <row r="1085" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1085" s="164" t="s">
+      <c r="A1085" s="129" t="s">
         <v>88</v>
       </c>
       <c r="B1085">
@@ -76846,7 +78152,7 @@
         <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
       </c>
       <c r="E1085" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="F1085" t="str">
         <f t="shared" si="16"/>
@@ -76854,7 +78160,7 @@
       </c>
     </row>
     <row r="1086" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1086" s="164" t="s">
+      <c r="A1086" s="129" t="s">
         <v>88</v>
       </c>
       <c r="B1086">
@@ -76868,7 +78174,7 @@
         <v>6260 Abbott Dr. Omaha, Nebraska, 68110</v>
       </c>
       <c r="E1086" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="F1086" t="str">
         <f t="shared" si="16"/>
@@ -76876,7 +78182,7 @@
       </c>
     </row>
     <row r="1087" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1087" s="164" t="s">
+      <c r="A1087" s="129" t="s">
         <v>88</v>
       </c>
       <c r="B1087">
@@ -76890,7 +78196,7 @@
         <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
       </c>
       <c r="E1087" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="F1087" t="str">
         <f t="shared" si="16"/>
@@ -76898,7 +78204,7 @@
       </c>
     </row>
     <row r="1088" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1088" s="164" t="s">
+      <c r="A1088" s="129" t="s">
         <v>88</v>
       </c>
       <c r="B1088">
@@ -76912,7 +78218,7 @@
         <v>4777 Menard Drive. Eau Claire, Wisconsin, 54703</v>
       </c>
       <c r="E1088" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="F1088" t="str">
         <f t="shared" si="16"/>
@@ -76920,7 +78226,7 @@
       </c>
     </row>
     <row r="1089" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1089" s="164" t="s">
+      <c r="A1089" s="129" t="s">
         <v>90</v>
       </c>
       <c r="B1089">
@@ -76934,7 +78240,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1089" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="F1089" t="str">
         <f t="shared" si="16"/>
@@ -76942,7 +78248,7 @@
       </c>
     </row>
     <row r="1090" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1090" s="164" t="s">
+      <c r="A1090" s="129" t="s">
         <v>90</v>
       </c>
       <c r="B1090">
@@ -76956,15 +78262,15 @@
         <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
       </c>
       <c r="E1090" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="F1090" t="str">
-        <f t="shared" ref="F1090:F1120" si="17">TEXT(E1090,"dddd")</f>
+        <f t="shared" ref="F1090:F1153" si="17">TEXT(E1090,"dddd")</f>
         <v>Monday</v>
       </c>
     </row>
     <row r="1091" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1091" s="164" t="s">
+      <c r="A1091" s="129" t="s">
         <v>90</v>
       </c>
       <c r="B1091">
@@ -76978,7 +78284,7 @@
         <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
       </c>
       <c r="E1091" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="F1091" t="str">
         <f t="shared" si="17"/>
@@ -76986,7 +78292,7 @@
       </c>
     </row>
     <row r="1092" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1092" s="164" t="s">
+      <c r="A1092" s="129" t="s">
         <v>73</v>
       </c>
       <c r="B1092">
@@ -77000,7 +78306,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1092" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1092" t="str">
         <f t="shared" si="17"/>
@@ -77008,7 +78314,7 @@
       </c>
     </row>
     <row r="1093" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1093" s="164" t="s">
+      <c r="A1093" s="129" t="s">
         <v>73</v>
       </c>
       <c r="B1093">
@@ -77022,7 +78328,7 @@
         <v>28 Biopolis Road. Singapore, 138568</v>
       </c>
       <c r="E1093" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1093" t="str">
         <f t="shared" si="17"/>
@@ -77030,7 +78336,7 @@
       </c>
     </row>
     <row r="1094" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1094" s="164" t="s">
+      <c r="A1094" s="129" t="s">
         <v>73</v>
       </c>
       <c r="B1094">
@@ -77044,7 +78350,7 @@
         <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
       </c>
       <c r="E1094" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1094" t="str">
         <f t="shared" si="17"/>
@@ -77052,7 +78358,7 @@
       </c>
     </row>
     <row r="1095" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1095" s="164" t="s">
+      <c r="A1095" s="129" t="s">
         <v>95</v>
       </c>
       <c r="B1095">
@@ -77066,7 +78372,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1095" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1095" t="str">
         <f t="shared" si="17"/>
@@ -77074,7 +78380,7 @@
       </c>
     </row>
     <row r="1096" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1096" s="164" t="s">
+      <c r="A1096" s="129" t="s">
         <v>95</v>
       </c>
       <c r="B1096">
@@ -77088,7 +78394,7 @@
         <v>651 Brannan St. San Francisco, CA, 94107</v>
       </c>
       <c r="E1096" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1096" t="str">
         <f t="shared" si="17"/>
@@ -77096,7 +78402,7 @@
       </c>
     </row>
     <row r="1097" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1097" s="164" t="s">
+      <c r="A1097" s="129" t="s">
         <v>97</v>
       </c>
       <c r="B1097">
@@ -77110,7 +78416,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1097" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1097" t="str">
         <f t="shared" si="17"/>
@@ -77118,7 +78424,7 @@
       </c>
     </row>
     <row r="1098" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1098" s="164" t="s">
+      <c r="A1098" s="129" t="s">
         <v>101</v>
       </c>
       <c r="B1098">
@@ -77132,7 +78438,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1098" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1098" t="str">
         <f t="shared" si="17"/>
@@ -77140,7 +78446,7 @@
       </c>
     </row>
     <row r="1099" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1099" s="164" t="s">
+      <c r="A1099" s="129" t="s">
         <v>103</v>
       </c>
       <c r="B1099">
@@ -77154,7 +78460,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1099" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1099" t="str">
         <f t="shared" si="17"/>
@@ -77162,7 +78468,7 @@
       </c>
     </row>
     <row r="1100" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1100" s="164" t="s">
+      <c r="A1100" s="129" t="s">
         <v>105</v>
       </c>
       <c r="B1100">
@@ -77176,7 +78482,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E1100" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1100" t="str">
         <f t="shared" si="17"/>
@@ -77184,7 +78490,7 @@
       </c>
     </row>
     <row r="1101" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1101" s="164" t="s">
+      <c r="A1101" s="129" t="s">
         <v>105</v>
       </c>
       <c r="B1101">
@@ -77198,7 +78504,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E1101" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1101" t="str">
         <f t="shared" si="17"/>
@@ -77206,7 +78512,7 @@
       </c>
     </row>
     <row r="1102" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1102" s="164" t="s">
+      <c r="A1102" s="129" t="s">
         <v>105</v>
       </c>
       <c r="B1102">
@@ -77220,7 +78526,7 @@
         <v>5512 West Pico Blvd. Los Angeles, CA, 90019</v>
       </c>
       <c r="E1102" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1102" t="str">
         <f t="shared" si="17"/>
@@ -77228,7 +78534,7 @@
       </c>
     </row>
     <row r="1103" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1103" s="164" t="s">
+      <c r="A1103" s="129" t="s">
         <v>105</v>
       </c>
       <c r="B1103">
@@ -77242,7 +78548,7 @@
         <v>1220 Village Way #A. Santa Ana, CA, 92705</v>
       </c>
       <c r="E1103" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1103" t="str">
         <f t="shared" si="17"/>
@@ -77250,7 +78556,7 @@
       </c>
     </row>
     <row r="1104" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1104" s="164" t="s">
+      <c r="A1104" s="129" t="s">
         <v>107</v>
       </c>
       <c r="B1104">
@@ -77264,7 +78570,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1104" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1104" t="str">
         <f t="shared" si="17"/>
@@ -77272,7 +78578,7 @@
       </c>
     </row>
     <row r="1105" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1105" s="164" t="s">
+      <c r="A1105" s="129" t="s">
         <v>107</v>
       </c>
       <c r="B1105">
@@ -77286,7 +78592,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E1105" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1105" t="str">
         <f t="shared" si="17"/>
@@ -77294,7 +78600,7 @@
       </c>
     </row>
     <row r="1106" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1106" s="164" t="s">
+      <c r="A1106" s="129" t="s">
         <v>109</v>
       </c>
       <c r="B1106">
@@ -77308,7 +78614,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1106" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1106" t="str">
         <f t="shared" si="17"/>
@@ -77316,7 +78622,7 @@
       </c>
     </row>
     <row r="1107" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1107" s="164" t="s">
+      <c r="A1107" s="129" t="s">
         <v>109</v>
       </c>
       <c r="B1107">
@@ -77330,7 +78636,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E1107" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1107" t="str">
         <f t="shared" si="17"/>
@@ -77338,7 +78644,7 @@
       </c>
     </row>
     <row r="1108" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1108" s="164" t="s">
+      <c r="A1108" s="129" t="s">
         <v>111</v>
       </c>
       <c r="B1108">
@@ -77352,7 +78658,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1108" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1108" t="str">
         <f t="shared" si="17"/>
@@ -77360,7 +78666,7 @@
       </c>
     </row>
     <row r="1109" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1109" s="164" t="s">
+      <c r="A1109" s="129" t="s">
         <v>111</v>
       </c>
       <c r="B1109">
@@ -77374,7 +78680,7 @@
         <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
       </c>
       <c r="E1109" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1109" t="str">
         <f t="shared" si="17"/>
@@ -77382,7 +78688,7 @@
       </c>
     </row>
     <row r="1110" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1110" s="164" t="s">
+      <c r="A1110" s="129" t="s">
         <v>113</v>
       </c>
       <c r="B1110">
@@ -77396,7 +78702,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1110" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1110" t="str">
         <f t="shared" si="17"/>
@@ -77404,7 +78710,7 @@
       </c>
     </row>
     <row r="1111" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1111" s="164" t="s">
+      <c r="A1111" s="129" t="s">
         <v>113</v>
       </c>
       <c r="B1111">
@@ -77418,7 +78724,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E1111" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1111" t="str">
         <f t="shared" si="17"/>
@@ -77426,7 +78732,7 @@
       </c>
     </row>
     <row r="1112" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1112" s="164" t="s">
+      <c r="A1112" s="129" t="s">
         <v>113</v>
       </c>
       <c r="B1112">
@@ -77440,7 +78746,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E1112" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1112" t="str">
         <f t="shared" si="17"/>
@@ -77448,7 +78754,7 @@
       </c>
     </row>
     <row r="1113" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1113" s="164" t="s">
+      <c r="A1113" s="129" t="s">
         <v>115</v>
       </c>
       <c r="B1113">
@@ -77462,7 +78768,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1113" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1113" t="str">
         <f t="shared" si="17"/>
@@ -77470,7 +78776,7 @@
       </c>
     </row>
     <row r="1114" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1114" s="164" t="s">
+      <c r="A1114" s="129" t="s">
         <v>115</v>
       </c>
       <c r="B1114">
@@ -77484,7 +78790,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E1114" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1114" t="str">
         <f t="shared" si="17"/>
@@ -77492,7 +78798,7 @@
       </c>
     </row>
     <row r="1115" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1115" s="164" t="s">
+      <c r="A1115" s="129" t="s">
         <v>115</v>
       </c>
       <c r="B1115">
@@ -77506,7 +78812,7 @@
         <v>1917 S Avenue B. Yuma, AZ, 85364</v>
       </c>
       <c r="E1115" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1115" t="str">
         <f t="shared" si="17"/>
@@ -77514,7 +78820,7 @@
       </c>
     </row>
     <row r="1116" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1116" s="164" t="s">
+      <c r="A1116" s="129" t="s">
         <v>115</v>
       </c>
       <c r="B1116">
@@ -77528,7 +78834,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E1116" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1116" t="str">
         <f t="shared" si="17"/>
@@ -77536,7 +78842,7 @@
       </c>
     </row>
     <row r="1117" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1117" s="164" t="s">
+      <c r="A1117" s="129" t="s">
         <v>115</v>
       </c>
       <c r="B1117">
@@ -77550,7 +78856,7 @@
         <v>4777 Menard Drive. Eau Claire, Wisconsin, 54703</v>
       </c>
       <c r="E1117" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1117" t="str">
         <f t="shared" si="17"/>
@@ -77558,7 +78864,7 @@
       </c>
     </row>
     <row r="1118" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1118" s="164" t="s">
+      <c r="A1118" s="129" t="s">
         <v>117</v>
       </c>
       <c r="B1118">
@@ -77572,7 +78878,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1118" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1118" t="str">
         <f t="shared" si="17"/>
@@ -77580,7 +78886,7 @@
       </c>
     </row>
     <row r="1119" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1119" s="164" t="s">
+      <c r="A1119" s="129" t="s">
         <v>117</v>
       </c>
       <c r="B1119">
@@ -77594,7 +78900,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E1119" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1119" t="str">
         <f t="shared" si="17"/>
@@ -77602,7 +78908,7 @@
       </c>
     </row>
     <row r="1120" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1120" s="164" t="s">
+      <c r="A1120" s="129" t="s">
         <v>117</v>
       </c>
       <c r="B1120">
@@ -77616,22 +78922,858 @@
         <v>1431 7th St Ste 204. Santa Monica, California, 90401</v>
       </c>
       <c r="E1120" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="F1120" t="str">
         <f t="shared" si="17"/>
         <v>Monday</v>
       </c>
     </row>
+    <row r="1121" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1121" s="166" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1121">
+        <v>4.49</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1121" t="str">
+        <f>VLOOKUP(C1121,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1121" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1122" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1122">
+        <v>11.91</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1122" t="str">
+        <f>VLOOKUP(C1122,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1122" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1123" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1123">
+        <v>10.47</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1123" t="str">
+        <f>VLOOKUP(C1123,vendor_table!$B$2:$C$31,2,)</f>
+        <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1123" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1124" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1124">
+        <v>8.35</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1124" t="str">
+        <f>VLOOKUP(C1124,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1124" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1125" s="166" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1125">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1125" t="str">
+        <f>VLOOKUP(C1125,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1125" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1126" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1126">
+        <v>2.98</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1126" t="str">
+        <f>VLOOKUP(C1126,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1126" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1127" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1127">
+        <v>2.98</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1127" t="str">
+        <f>VLOOKUP(C1127,vendor_table!$B$2:$C$31,2,)</f>
+        <v>651 Brannan St. San Francisco, CA, 94107</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1127" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1128" s="166" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1128">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1128" t="str">
+        <f>VLOOKUP(C1128,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1128" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1129" s="166" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1129">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1129" t="str">
+        <f>VLOOKUP(C1129,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1129" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1130" s="166" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1130">
+        <v>5.99</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1130" t="str">
+        <f>VLOOKUP(C1130,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1130" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1131" s="166" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1131">
+        <v>20</v>
+      </c>
+      <c r="C1131" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1131" t="str">
+        <f>VLOOKUP(C1131,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E1131" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1131" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1132" s="166" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1132">
+        <v>1.6</v>
+      </c>
+      <c r="C1132" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1132" t="str">
+        <f>VLOOKUP(C1132,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1132" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1132" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1133" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1133">
+        <v>116.92</v>
+      </c>
+      <c r="C1133" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1133" t="str">
+        <f>VLOOKUP(C1133,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E1133" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1133" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1134" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1134">
+        <v>118</v>
+      </c>
+      <c r="C1134" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1134" t="str">
+        <f>VLOOKUP(C1134,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E1134" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1134" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1135" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1135">
+        <v>111.07</v>
+      </c>
+      <c r="C1135" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1135" t="str">
+        <f>VLOOKUP(C1135,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
+      </c>
+      <c r="E1135" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1135" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1136" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1136">
+        <v>124</v>
+      </c>
+      <c r="C1136" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1136" t="str">
+        <f>VLOOKUP(C1136,vendor_table!$B$2:$C$31,2,)</f>
+        <v>5512 West Pico Blvd. Los Angeles, CA, 90019</v>
+      </c>
+      <c r="E1136" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1136" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1137" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1137">
+        <v>84.99</v>
+      </c>
+      <c r="C1137" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1137" t="str">
+        <f>VLOOKUP(C1137,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1200 E Us Hwy 169. Grand Rapids, Minnesota, 55744</v>
+      </c>
+      <c r="E1137" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1137" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1138" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1138">
+        <v>90</v>
+      </c>
+      <c r="C1138" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1138" t="str">
+        <f>VLOOKUP(C1138,vendor_table!$B$2:$C$31,2,)</f>
+        <v>online</v>
+      </c>
+      <c r="E1138" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1138" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1139" s="166" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1139">
+        <v>159</v>
+      </c>
+      <c r="C1139" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1139" t="str">
+        <f>VLOOKUP(C1139,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1139" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1139" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1140" s="166" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1140">
+        <v>159</v>
+      </c>
+      <c r="C1140" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1140" t="str">
+        <f>VLOOKUP(C1140,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E1140" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1140" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1141" s="166" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1141">
+        <v>135</v>
+      </c>
+      <c r="C1141" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1141" t="str">
+        <f>VLOOKUP(C1141,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1220 Village Way #A. Santa Ana, CA, 92705</v>
+      </c>
+      <c r="E1141" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1141" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1142" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1142">
+        <v>149</v>
+      </c>
+      <c r="C1142" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1142" t="str">
+        <f>VLOOKUP(C1142,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1142" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1142" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1143" s="166" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1143">
+        <v>149</v>
+      </c>
+      <c r="C1143" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1143" t="str">
+        <f>VLOOKUP(C1143,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E1143" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1143" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1144" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1144">
+        <v>289</v>
+      </c>
+      <c r="C1144" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1144" t="str">
+        <f>VLOOKUP(C1144,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1144" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1144" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1145" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1145">
+        <v>289</v>
+      </c>
+      <c r="C1145" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1145" t="str">
+        <f>VLOOKUP(C1145,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E1145" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1145" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1146" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1146">
+        <v>315.01</v>
+      </c>
+      <c r="C1146" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1146" t="str">
+        <f>VLOOKUP(C1146,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
+      </c>
+      <c r="E1146" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1146" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1147" s="166" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1147">
+        <v>352.78</v>
+      </c>
+      <c r="C1147" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1147" t="str">
+        <f>VLOOKUP(C1147,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
+      </c>
+      <c r="E1147" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1147" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1148" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1148">
+        <v>765</v>
+      </c>
+      <c r="C1148" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1148" t="str">
+        <f>VLOOKUP(C1148,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1148" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1148" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1149" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1149">
+        <v>634.6</v>
+      </c>
+      <c r="C1149" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1149" t="str">
+        <f>VLOOKUP(C1149,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E1149" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1149" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1150" s="166" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1150">
+        <v>634.75</v>
+      </c>
+      <c r="C1150" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1150" t="str">
+        <f>VLOOKUP(C1150,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
+      </c>
+      <c r="E1150" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1150" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1151" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1151">
+        <v>409</v>
+      </c>
+      <c r="C1151" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1151" t="str">
+        <f>VLOOKUP(C1151,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1151" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1151" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1152" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1152">
+        <v>423</v>
+      </c>
+      <c r="C1152" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1152" t="str">
+        <f>VLOOKUP(C1152,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E1152" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1152" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1153" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1153">
+        <v>354.99</v>
+      </c>
+      <c r="C1153" t="s">
+        <v>211</v>
+      </c>
+      <c r="D1153" t="str">
+        <f>VLOOKUP(C1153,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1917 S Avenue B. Yuma, AZ, 85364</v>
+      </c>
+      <c r="E1153" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1153" t="str">
+        <f t="shared" si="17"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1154" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1154">
+        <v>445.81</v>
+      </c>
+      <c r="C1154" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1154" t="str">
+        <f>VLOOKUP(C1154,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
+      </c>
+      <c r="E1154" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1154" t="str">
+        <f t="shared" ref="F1154:F1158" si="18">TEXT(E1154,"dddd")</f>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1155" s="166" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1155">
+        <v>449</v>
+      </c>
+      <c r="C1155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1155" t="str">
+        <f>VLOOKUP(C1155,vendor_table!$B$2:$C$31,2,)</f>
+        <v>4777 Menard Drive. Eau Claire, Wisconsin, 54703</v>
+      </c>
+      <c r="E1155" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1155" t="str">
+        <f t="shared" si="18"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1156" s="166" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1156">
+        <v>156</v>
+      </c>
+      <c r="C1156" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1156" t="str">
+        <f>VLOOKUP(C1156,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1156" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1156" t="str">
+        <f t="shared" si="18"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1157" s="166" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1157">
+        <v>154.99</v>
+      </c>
+      <c r="C1157" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1157" t="str">
+        <f>VLOOKUP(C1157,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E1157" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1157" t="str">
+        <f t="shared" si="18"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1158" s="166" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1158">
+        <v>165</v>
+      </c>
+      <c r="C1158" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1158" t="str">
+        <f>VLOOKUP(C1158,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1431 7th St Ste 204. Santa Monica, California, 90401</v>
+      </c>
+      <c r="E1158" t="s">
+        <v>295</v>
+      </c>
+      <c r="F1158" t="str">
+        <f t="shared" si="18"/>
+        <v>Tuesday</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:F603" xr:uid="{00000000-0009-0000-0000-00003B000000}"/>
+  <autoFilter ref="A2:F603" xr:uid="{00000000-0009-0000-0000-00003C000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -77647,13 +79789,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B1" s="113" t="s">
         <v>85</v>
       </c>
       <c r="C1" s="114" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -77664,7 +79806,7 @@
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -77675,7 +79817,7 @@
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -77686,7 +79828,7 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -77697,7 +79839,7 @@
         <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -77708,7 +79850,7 @@
         <v>55</v>
       </c>
       <c r="C6" s="112" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -77719,7 +79861,7 @@
         <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -77730,7 +79872,7 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -77741,7 +79883,7 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -77752,7 +79894,7 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -77763,7 +79905,7 @@
         <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -77774,7 +79916,7 @@
         <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -77785,7 +79927,7 @@
         <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -77796,7 +79938,7 @@
         <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -77807,7 +79949,7 @@
         <v>211</v>
       </c>
       <c r="C15" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -77818,7 +79960,7 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -77829,7 +79971,7 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -77840,7 +79982,7 @@
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -77851,7 +79993,7 @@
         <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -77862,7 +80004,7 @@
         <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -77873,7 +80015,7 @@
         <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -77884,7 +80026,7 @@
         <v>67</v>
       </c>
       <c r="C22" s="120" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -77895,7 +80037,7 @@
         <v>241</v>
       </c>
       <c r="C23" s="112" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -77906,7 +80048,7 @@
         <v>244</v>
       </c>
       <c r="C24" s="112" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -77917,7 +80059,7 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -77928,7 +80070,7 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -77939,7 +80081,7 @@
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -77950,7 +80092,7 @@
         <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -77961,7 +80103,7 @@
         <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -77972,7 +80114,7 @@
         <v>223</v>
       </c>
       <c r="C30" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -77983,7 +80125,7 @@
         <v>229</v>
       </c>
       <c r="C31" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -77992,484 +80134,484 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C2" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="64.796875" style="163" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="137.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.19921875" style="163" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="144.19921875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="167" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="161" t="s">
+      <c r="B1" s="139" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="137" t="s">
+      <c r="C1" s="139" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="139" t="s">
         <v>86</v>
       </c>
-      <c r="E1" s="137" t="s">
+      <c r="E1" s="139" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="164" t="s">
+      <c r="A2" s="166" t="s">
         <v>88</v>
       </c>
       <c r="B2">
-        <v>7.22</v>
+        <v>4.49</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="164" t="s">
-        <v>88</v>
+      <c r="A3" s="166" t="s">
+        <v>90</v>
       </c>
       <c r="B3">
+        <v>11.91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>10.47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="166" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>8.35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="166" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <v>2.98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="166" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>2.98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="166" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="166" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="166" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11">
         <v>5.99</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C11" t="s">
         <v>61</v>
       </c>
-      <c r="D3" t="s">
-        <v>120</v>
-      </c>
-      <c r="E3" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="164" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4">
-        <v>4.7300000000000004</v>
-      </c>
-      <c r="C4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="164" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5">
-        <v>5.88</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="164" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6">
-        <v>5.88</v>
-      </c>
-      <c r="C6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D6" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="164" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7">
-        <v>7.24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" t="s">
-        <v>186</v>
-      </c>
-      <c r="E7" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="164" t="s">
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="166" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="166" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>1.6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>116.92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16">
+        <v>111.07</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18">
+        <v>84.99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="166" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19">
         <v>90</v>
       </c>
-      <c r="B8">
-        <v>11.91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E8" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="164" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9">
-        <v>10.47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
-        <v>91</v>
-      </c>
-      <c r="E9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="164" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10">
-        <v>8.35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="164" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11">
-        <v>20.62</v>
-      </c>
-      <c r="C11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="164" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12">
-        <v>17.55</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="164" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13">
-        <v>33.340000000000003</v>
-      </c>
-      <c r="C13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D13" t="s">
-        <v>165</v>
-      </c>
-      <c r="E13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="164" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14">
-        <v>2.98</v>
-      </c>
-      <c r="C14" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" t="s">
-        <v>190</v>
-      </c>
-      <c r="E14" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="164" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15">
-        <v>2.98</v>
-      </c>
-      <c r="C15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="164" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>98</v>
-      </c>
-      <c r="E16" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="164" t="s">
-        <v>101</v>
-      </c>
-      <c r="B17">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="164" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18">
-        <v>1.6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E18" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="164" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19">
-        <v>116.93</v>
-      </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>139</v>
       </c>
       <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="166" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="166" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21">
+        <v>159</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="166" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22">
         <v>135</v>
-      </c>
-      <c r="E19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="164" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20">
-        <v>111.07</v>
-      </c>
-      <c r="C20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>137</v>
-      </c>
-      <c r="E20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="164" t="s">
-        <v>105</v>
-      </c>
-      <c r="B21">
-        <v>124</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>138</v>
-      </c>
-      <c r="E21" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="164" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22">
-        <v>110</v>
       </c>
       <c r="C22" t="s">
         <v>241</v>
       </c>
       <c r="D22" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="E22" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="164" t="s">
-        <v>107</v>
+      <c r="A23" s="166" t="s">
+        <v>109</v>
       </c>
       <c r="B23">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C23" t="s">
         <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="164" t="s">
-        <v>107</v>
+      <c r="A24" s="166" t="s">
+        <v>109</v>
       </c>
       <c r="B24">
-        <v>172.22</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D24" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="E24" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="164" t="s">
-        <v>109</v>
+      <c r="A25" s="166" t="s">
+        <v>111</v>
       </c>
       <c r="B25">
-        <v>149</v>
+        <v>289</v>
       </c>
       <c r="C25" t="s">
         <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="164" t="s">
-        <v>109</v>
+      <c r="A26" s="166" t="s">
+        <v>111</v>
       </c>
       <c r="B26">
-        <v>149</v>
+        <v>289</v>
       </c>
       <c r="C26" t="s">
         <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E26" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="164" t="s">
+      <c r="A27" s="166" t="s">
         <v>111</v>
       </c>
       <c r="B27">
-        <v>289</v>
+        <v>315.01</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D27" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="E27" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="164" t="s">
+      <c r="A28" s="166" t="s">
         <v>111</v>
       </c>
       <c r="B28">
@@ -78482,11 +80624,11 @@
         <v>246</v>
       </c>
       <c r="E28" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="164" t="s">
+      <c r="A29" s="166" t="s">
         <v>113</v>
       </c>
       <c r="B29">
@@ -78499,11 +80641,11 @@
         <v>146</v>
       </c>
       <c r="E29" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="164" t="s">
+      <c r="A30" s="166" t="s">
         <v>113</v>
       </c>
       <c r="B30">
@@ -78516,11 +80658,11 @@
         <v>114</v>
       </c>
       <c r="E30" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="164" t="s">
+      <c r="A31" s="166" t="s">
         <v>113</v>
       </c>
       <c r="B31">
@@ -78533,11 +80675,11 @@
         <v>147</v>
       </c>
       <c r="E31" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="164" t="s">
+      <c r="A32" s="166" t="s">
         <v>115</v>
       </c>
       <c r="B32">
@@ -78550,11 +80692,11 @@
         <v>149</v>
       </c>
       <c r="E32" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="164" t="s">
+      <c r="A33" s="166" t="s">
         <v>115</v>
       </c>
       <c r="B33">
@@ -78567,11 +80709,11 @@
         <v>116</v>
       </c>
       <c r="E33" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="164" t="s">
+      <c r="A34" s="166" t="s">
         <v>115</v>
       </c>
       <c r="B34">
@@ -78584,11 +80726,11 @@
         <v>212</v>
       </c>
       <c r="E34" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="164" t="s">
+      <c r="A35" s="166" t="s">
         <v>115</v>
       </c>
       <c r="B35">
@@ -78601,11 +80743,11 @@
         <v>150</v>
       </c>
       <c r="E35" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="164" t="s">
+      <c r="A36" s="166" t="s">
         <v>115</v>
       </c>
       <c r="B36">
@@ -78618,11 +80760,11 @@
         <v>294</v>
       </c>
       <c r="E36" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="164" t="s">
+      <c r="A37" s="166" t="s">
         <v>117</v>
       </c>
       <c r="B37">
@@ -78635,15 +80777,15 @@
         <v>151</v>
       </c>
       <c r="E37" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="164" t="s">
+      <c r="A38" s="166" t="s">
         <v>117</v>
       </c>
       <c r="B38">
-        <v>155.99</v>
+        <v>154.99</v>
       </c>
       <c r="C38" t="s">
         <v>49</v>
@@ -78652,11 +80794,11 @@
         <v>118</v>
       </c>
       <c r="E38" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="164" t="s">
+      <c r="A39" s="166" t="s">
         <v>117</v>
       </c>
       <c r="B39">
@@ -78669,7 +80811,7 @@
         <v>158</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -78843,12 +80985,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="83" customFormat="1" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="160" t="s">
+      <c r="A1" s="162" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="157"/>
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="D1" s="159"/>
     </row>
     <row r="2" spans="1:39" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="94" t="s">
@@ -79212,10 +81354,10 @@
       <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:39" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="158" t="s">
+      <c r="A6" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="140"/>
+      <c r="B6" s="151"/>
       <c r="C6" s="83"/>
     </row>
     <row r="7" spans="1:39" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -79282,12 +81424,12 @@
     </row>
     <row r="14" spans="1:39" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="1:39" s="100" customFormat="1" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="155" t="s">
+      <c r="A15" s="157" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="156"/>
-      <c r="C15" s="156"/>
-      <c r="D15" s="157"/>
+      <c r="B15" s="158"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="159"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A16" s="102" t="s">
@@ -79630,11 +81772,11 @@
     </row>
     <row r="19" spans="1:45" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="20" spans="1:45" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="158" t="str">
+      <c r="A20" s="160" t="str">
         <f>A6</f>
         <v>Metrics</v>
       </c>
-      <c r="B20" s="140"/>
+      <c r="B20" s="151"/>
     </row>
     <row r="21" spans="1:45" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="90" t="str">
@@ -79684,12 +81826,12 @@
     </row>
     <row r="26" spans="1:45" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="27" spans="1:45" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="155" t="s">
+      <c r="A27" s="157" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="156"/>
-      <c r="C27" s="156"/>
-      <c r="D27" s="157"/>
+      <c r="B27" s="158"/>
+      <c r="C27" s="158"/>
+      <c r="D27" s="159"/>
     </row>
     <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="89" t="str">
@@ -80109,11 +82251,11 @@
       <c r="A31" s="85"/>
     </row>
     <row r="32" spans="1:45" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="159" t="str">
+      <c r="A32" s="161" t="str">
         <f>A20</f>
         <v>Metrics</v>
       </c>
-      <c r="B32" s="140"/>
+      <c r="B32" s="151"/>
     </row>
     <row r="33" spans="1:2" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="92" t="str">

--- a/Consolidated_Estimator_Worksheet.xlsx
+++ b/Consolidated_Estimator_Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kijah\Documents\Data_Bootcamp\Estimator_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CADE9272-30B7-4FFB-B727-FFFE80F779DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{89719AE2-DFFC-4D7B-8BFC-5DDAADA95A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6105" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="58" activeTab="62" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6105" yWindow="-16320" windowWidth="29040" windowHeight="15720" firstSheet="60" activeTab="64" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary - Rates" sheetId="1" r:id="rId1"/>
@@ -72,21 +72,23 @@
     <sheet name="target_table24" sheetId="57" r:id="rId57"/>
     <sheet name="all_table24" sheetId="58" r:id="rId58"/>
     <sheet name="target_table25" sheetId="59" r:id="rId59"/>
-    <sheet name="all_table25" sheetId="63" r:id="rId60"/>
-    <sheet name="target_table26" sheetId="64" r:id="rId61"/>
-    <sheet name="target_consolidated_table" sheetId="60" r:id="rId62"/>
-    <sheet name="all_consolidated_table" sheetId="61" r:id="rId63"/>
-    <sheet name="vendor_table" sheetId="62" r:id="rId64"/>
-    <sheet name="all_table26" sheetId="65" r:id="rId65"/>
+    <sheet name="all_table25" sheetId="60" r:id="rId60"/>
+    <sheet name="target_table26" sheetId="61" r:id="rId61"/>
+    <sheet name="all_table26" sheetId="65" r:id="rId62"/>
+    <sheet name="target_table27" sheetId="66" r:id="rId63"/>
+    <sheet name="all_table27" sheetId="67" r:id="rId64"/>
+    <sheet name="target_consolidated_table" sheetId="62" r:id="rId65"/>
+    <sheet name="all_consolidated_table" sheetId="63" r:id="rId66"/>
+    <sheet name="vendor_table" sheetId="64" r:id="rId67"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="62" hidden="1">all_consolidated_table!$A$2:$F$603</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="65" hidden="1">all_consolidated_table!$A$2:$F$603</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId66"/>
-    <pivotCache cacheId="1" r:id="rId67"/>
-    <pivotCache cacheId="2" r:id="rId68"/>
+    <pivotCache cacheId="0" r:id="rId68"/>
+    <pivotCache cacheId="1" r:id="rId69"/>
+    <pivotCache cacheId="2" r:id="rId70"/>
   </pivotCaches>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -106,7 +108,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11550" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11966" uniqueCount="297">
   <si>
     <t>Sales Tax</t>
   </si>
@@ -864,6 +866,12 @@
     <t>11/14/2022 09:46:09</t>
   </si>
   <si>
+    <t>https://www.menards.com/main/electrical/electrical-wire-cable/thhn-electrical-wire/stranded-thhn-building-wire/20493301/p-1444442918910-c-1525874617505.htm</t>
+  </si>
+  <si>
+    <t>11/15/2022 08:23:33</t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
@@ -990,10 +998,7 @@
     <t>online</t>
   </si>
   <si>
-    <t>https://www.menards.com/main/electrical/electrical-wire-cable/thhn-electrical-wire/stranded-thhn-building-wire/20493301/p-1444442918910-c-1525874617505.htm</t>
-  </si>
-  <si>
-    <t>11/15/2022 08:23:33</t>
+    <t>11/16/2022 08:33:11</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1010,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="dddd"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1333,6 +1338,17 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -1402,7 +1418,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="64">
+  <borders count="65">
     <border>
       <left/>
       <right/>
@@ -2253,12 +2269,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="169">
+  <cellXfs count="171">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2543,14 +2574,43 @@
     <xf numFmtId="0" fontId="52" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="17" fillId="11" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2563,23 +2623,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2594,26 +2637,42 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="71">
+  <dxfs count="73">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -15480,13 +15539,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="70" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="1" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="3" operator="equal">
       <formula>98.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16623,13 +16682,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="67" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="1" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="3" operator="equal">
       <formula>98.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17817,13 +17876,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="64" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="1" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="3" operator="equal">
       <formula>98.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18377,13 +18436,13 @@
       <c r="P8" s="63"/>
     </row>
     <row r="9" spans="1:16" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="150" t="s">
+      <c r="A9" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="141"/>
-      <c r="C9" s="141"/>
-      <c r="D9" s="141"/>
-      <c r="E9" s="151"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="146"/>
       <c r="F9" s="9"/>
       <c r="G9" s="51">
         <f t="shared" si="1"/>
@@ -18406,14 +18465,14 @@
         <v>11</v>
       </c>
       <c r="D10" s="14"/>
-      <c r="E10" s="152" t="s">
+      <c r="E10" s="147" t="s">
         <v>12</v>
       </c>
       <c r="F10" s="54" t="str">
         <f>C10</f>
         <v>TOTAL</v>
       </c>
-      <c r="G10" s="154" t="s">
+      <c r="G10" s="149" t="s">
         <v>13</v>
       </c>
       <c r="H10" s="63"/>
@@ -18433,11 +18492,11 @@
         <v>14</v>
       </c>
       <c r="D11" s="55"/>
-      <c r="E11" s="153"/>
+      <c r="E11" s="148"/>
       <c r="F11" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G11" s="143"/>
+      <c r="G11" s="150"/>
       <c r="H11" s="63"/>
       <c r="I11" s="63"/>
       <c r="J11" s="63"/>
@@ -18449,59 +18508,59 @@
       <c r="P11" s="63"/>
     </row>
     <row r="12" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="155" t="s">
+      <c r="A12" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="156">
+      <c r="B12" s="152">
         <f t="shared" ref="B12:G12" si="2">SUM(B2:B8)</f>
         <v>0</v>
       </c>
-      <c r="C12" s="156">
+      <c r="C12" s="152">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="D12" s="156">
+      <c r="D12" s="152">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E12" s="156">
+      <c r="E12" s="152">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="F12" s="156">
+      <c r="F12" s="152">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G12" s="144">
+      <c r="G12" s="155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H12" s="146" t="s">
+      <c r="H12" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="I12" s="143"/>
-      <c r="J12" s="143"/>
-      <c r="K12" s="143"/>
-      <c r="L12" s="143"/>
-      <c r="M12" s="143"/>
+      <c r="I12" s="150"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="150"/>
+      <c r="L12" s="150"/>
+      <c r="M12" s="150"/>
       <c r="N12" s="63"/>
       <c r="O12" s="63"/>
       <c r="P12" s="63"/>
     </row>
     <row r="13" spans="1:16" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="143"/>
-      <c r="B13" s="143"/>
-      <c r="C13" s="143"/>
-      <c r="D13" s="143"/>
-      <c r="E13" s="143"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="143"/>
-      <c r="J13" s="143"/>
-      <c r="K13" s="143"/>
-      <c r="L13" s="143"/>
-      <c r="M13" s="143"/>
+      <c r="A13" s="150"/>
+      <c r="B13" s="150"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="150"/>
+      <c r="F13" s="150"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="158"/>
+      <c r="I13" s="150"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="150"/>
+      <c r="L13" s="150"/>
+      <c r="M13" s="150"/>
       <c r="N13" s="63"/>
       <c r="O13" s="63"/>
       <c r="P13" s="63"/>
@@ -18566,10 +18625,10 @@
       <c r="B18" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="148"/>
-      <c r="D18" s="149"/>
-      <c r="E18" s="149"/>
-      <c r="F18" s="149"/>
+      <c r="C18" s="159"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="160"/>
+      <c r="F18" s="160"/>
       <c r="G18" s="63"/>
       <c r="H18" s="63"/>
       <c r="I18" s="63"/>
@@ -18586,10 +18645,10 @@
       <c r="B19" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="140"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="141"/>
-      <c r="F19" s="141"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="145"/>
+      <c r="E19" s="145"/>
+      <c r="F19" s="145"/>
       <c r="G19" s="63"/>
       <c r="H19" s="63"/>
       <c r="I19" s="63"/>
@@ -18606,15 +18665,15 @@
       <c r="B20" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="148"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="149"/>
-      <c r="F20" s="149"/>
-      <c r="G20" s="149"/>
-      <c r="H20" s="149"/>
-      <c r="I20" s="149"/>
-      <c r="J20" s="149"/>
-      <c r="K20" s="149"/>
+      <c r="C20" s="159"/>
+      <c r="D20" s="160"/>
+      <c r="E20" s="160"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
+      <c r="K20" s="160"/>
       <c r="L20" s="63"/>
       <c r="M20" s="63"/>
       <c r="N20" s="63"/>
@@ -18626,10 +18685,10 @@
       <c r="B21" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="140"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="141"/>
-      <c r="F21" s="141"/>
+      <c r="C21" s="153"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="145"/>
       <c r="G21" s="67"/>
       <c r="H21" s="63"/>
       <c r="I21" s="63"/>
@@ -18659,14 +18718,14 @@
     <row r="23" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A23" s="63"/>
       <c r="B23" s="63"/>
-      <c r="C23" s="142" t="s">
+      <c r="C23" s="154" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="143"/>
-      <c r="E23" s="143"/>
-      <c r="F23" s="143"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="143"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="150"/>
+      <c r="F23" s="150"/>
+      <c r="G23" s="150"/>
+      <c r="H23" s="150"/>
       <c r="I23" s="63"/>
       <c r="J23" s="63"/>
       <c r="K23" s="63"/>
@@ -18679,12 +18738,12 @@
     <row r="24" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A24" s="63"/>
       <c r="B24" s="63"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="143"/>
-      <c r="G24" s="143"/>
-      <c r="H24" s="143"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="150"/>
+      <c r="F24" s="150"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="150"/>
       <c r="I24" s="63"/>
       <c r="J24" s="63"/>
       <c r="K24" s="63"/>
@@ -18697,12 +18756,12 @@
     <row r="25" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A25" s="63"/>
       <c r="B25" s="63"/>
-      <c r="C25" s="143"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="143"/>
-      <c r="F25" s="143"/>
-      <c r="G25" s="143"/>
-      <c r="H25" s="143"/>
+      <c r="C25" s="150"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="150"/>
+      <c r="G25" s="150"/>
+      <c r="H25" s="150"/>
       <c r="I25" s="63"/>
       <c r="J25" s="63"/>
       <c r="K25" s="63"/>
@@ -18732,6 +18791,13 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C23:H25"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:M13"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:K20"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="G10:G11"/>
@@ -18741,13 +18807,6 @@
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C23:H25"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:M13"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:K20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19571,13 +19630,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="61" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="1" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="3" operator="equal">
       <formula>98.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20646,16 +20705,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B43">
-    <cfRule type="cellIs" dxfId="58" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>98.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="2" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="3" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="55" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="4" operator="equal">
       <formula>98.98</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21792,13 +21851,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B47">
-    <cfRule type="cellIs" dxfId="54" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="1" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="3" operator="equal">
       <formula>98.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22867,13 +22926,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B43">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="1" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>98.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23925,13 +23984,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B42">
-    <cfRule type="cellIs" dxfId="48" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="1" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="3" operator="equal">
       <formula>98.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26004,13 +26063,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B49">
-    <cfRule type="cellIs" dxfId="45" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>98.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27079,13 +27138,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B43">
-    <cfRule type="cellIs" dxfId="42" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="1" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>98.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28152,13 +28211,13 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B40">
-    <cfRule type="cellIs" dxfId="39" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="1" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="3" operator="equal">
       <formula>98.99</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29278,31 +29337,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B46">
-    <cfRule type="cellIs" dxfId="36" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="1" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="3" operator="equal">
       <formula>98.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>0.68</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="5" operator="equal">
       <formula>0.68</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="6" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="7" operator="equal">
       <formula>98.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="9" operator="equal">
       <formula>150</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30405,16 +30464,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B45">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="3" operator="equal">
       <formula>98.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="4" operator="equal">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33669,16 +33728,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
       <formula>98.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34555,16 +34614,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B50">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>98.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35769,16 +35828,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B51">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>98.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36094,16 +36153,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B12">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
       <formula>98.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
@@ -36810,16 +36869,16 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>98.99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37923,10 +37982,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B45">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>150</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43803,7 +43862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44425,7 +44484,7 @@
         <v>63</v>
       </c>
       <c r="D36" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="E36" t="s">
         <v>251</v>
@@ -44488,7 +44547,7 @@
 </file>
 
 <file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -44497,7 +44556,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="68.19921875" style="165" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="68.19921875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.73046875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="116.86328125" bestFit="1" customWidth="1"/>
@@ -44508,7 +44567,7 @@
       <c r="A1" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="164" t="s">
+      <c r="B1" s="140" t="s">
         <v>84</v>
       </c>
       <c r="C1" s="139" t="s">
@@ -44522,7 +44581,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="166" t="s">
+      <c r="A2" s="129" t="s">
         <v>88</v>
       </c>
       <c r="B2">
@@ -44535,11 +44594,11 @@
         <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="129" t="s">
         <v>90</v>
       </c>
       <c r="B3">
@@ -44552,11 +44611,11 @@
         <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="166" t="s">
+      <c r="A4" s="129" t="s">
         <v>73</v>
       </c>
       <c r="B4">
@@ -44569,11 +44628,11 @@
         <v>165</v>
       </c>
       <c r="E4" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="166" t="s">
+      <c r="A5" s="129" t="s">
         <v>95</v>
       </c>
       <c r="B5">
@@ -44586,11 +44645,11 @@
         <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="129" t="s">
         <v>97</v>
       </c>
       <c r="B6">
@@ -44603,11 +44662,11 @@
         <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="129" t="s">
         <v>101</v>
       </c>
       <c r="B7">
@@ -44620,11 +44679,11 @@
         <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="166" t="s">
+      <c r="A8" s="129" t="s">
         <v>103</v>
       </c>
       <c r="B8">
@@ -44637,11 +44696,11 @@
         <v>104</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="166" t="s">
+      <c r="A9" s="129" t="s">
         <v>105</v>
       </c>
       <c r="B9">
@@ -44654,11 +44713,11 @@
         <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="166" t="s">
+      <c r="A10" s="129" t="s">
         <v>107</v>
       </c>
       <c r="B10">
@@ -44671,11 +44730,11 @@
         <v>140</v>
       </c>
       <c r="E10" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="129" t="s">
         <v>109</v>
       </c>
       <c r="B11">
@@ -44688,11 +44747,11 @@
         <v>143</v>
       </c>
       <c r="E11" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="166" t="s">
+      <c r="A12" s="129" t="s">
         <v>111</v>
       </c>
       <c r="B12">
@@ -44705,11 +44764,11 @@
         <v>246</v>
       </c>
       <c r="E12" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="166" t="s">
+      <c r="A13" s="129" t="s">
         <v>113</v>
       </c>
       <c r="B13">
@@ -44722,11 +44781,11 @@
         <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="166" t="s">
+      <c r="A14" s="129" t="s">
         <v>115</v>
       </c>
       <c r="B14">
@@ -44739,11 +44798,11 @@
         <v>116</v>
       </c>
       <c r="E14" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="166" t="s">
+      <c r="A15" s="129" t="s">
         <v>117</v>
       </c>
       <c r="B15">
@@ -44756,7 +44815,970 @@
         <v>118</v>
       </c>
       <c r="E15" t="s">
-        <v>295</v>
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
+  <dimension ref="A1:E39"/>
+  <sheetViews>
+    <sheetView topLeftCell="C2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="68.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="144.19921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="141" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="139" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="139" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="139" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="139" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="129" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2">
+        <v>4.49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>11.91</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4">
+        <v>10.47</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="129" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5">
+        <v>8.35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E5" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <v>2.98</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="129" t="s">
+        <v>95</v>
+      </c>
+      <c r="B8">
+        <v>2.98</v>
+      </c>
+      <c r="C8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11">
+        <v>5.99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="129" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="129" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13">
+        <v>1.6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14">
+        <v>116.92</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>136</v>
+      </c>
+      <c r="E15" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16">
+        <v>111.07</v>
+      </c>
+      <c r="C16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17">
+        <v>124</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B18">
+        <v>84.99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" t="s">
+        <v>170</v>
+      </c>
+      <c r="E18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="129" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19">
+        <v>90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" t="s">
+        <v>106</v>
+      </c>
+      <c r="E19" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="B20">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21">
+        <v>159</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="129" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>241</v>
+      </c>
+      <c r="D22" t="s">
+        <v>248</v>
+      </c>
+      <c r="E22" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="129" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24">
+        <v>149</v>
+      </c>
+      <c r="C24" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" t="s">
+        <v>157</v>
+      </c>
+      <c r="E24" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25">
+        <v>289</v>
+      </c>
+      <c r="C25" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" t="s">
+        <v>112</v>
+      </c>
+      <c r="E25" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26">
+        <v>289</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>144</v>
+      </c>
+      <c r="E26" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27">
+        <v>315.01</v>
+      </c>
+      <c r="C27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" t="s">
+        <v>168</v>
+      </c>
+      <c r="E27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="129" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28">
+        <v>352.78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29">
+        <v>765</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30">
+        <v>634.6</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31">
+        <v>634.75</v>
+      </c>
+      <c r="C31" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32">
+        <v>409</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33">
+        <v>423</v>
+      </c>
+      <c r="C33" t="s">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s">
+        <v>116</v>
+      </c>
+      <c r="E33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34">
+        <v>354.99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>211</v>
+      </c>
+      <c r="D34" t="s">
+        <v>212</v>
+      </c>
+      <c r="E34" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35">
+        <v>445.81</v>
+      </c>
+      <c r="C35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D35" t="s">
+        <v>150</v>
+      </c>
+      <c r="E35" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="129" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36">
+        <v>449</v>
+      </c>
+      <c r="C36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D36" t="s">
+        <v>252</v>
+      </c>
+      <c r="E36" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37">
+        <v>156</v>
+      </c>
+      <c r="C37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38">
+        <v>154.99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>49</v>
+      </c>
+      <c r="D38" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="129" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39">
+        <v>165</v>
+      </c>
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" t="s">
+        <v>158</v>
+      </c>
+      <c r="E39" t="s">
+        <v>253</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4100-000000000000}">
+  <dimension ref="A1:E15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="68.19921875" style="168" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="117.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="167" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="143" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="143" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2">
+        <v>4.49</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="169" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3">
+        <v>10.47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="169" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4">
+        <v>17.55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="169" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5">
+        <v>2.98</v>
+      </c>
+      <c r="C5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="169" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>196</v>
+      </c>
+      <c r="E7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="169" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8">
+        <v>1.6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9">
+        <v>90</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="169" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10">
+        <v>135</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <v>149</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="169" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12">
+        <v>279</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="169" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13">
+        <v>634.6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="169" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14">
+        <v>395</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="169" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15">
+        <v>149</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -44765,12 +45787,799 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
-  <dimension ref="A1:F423"/>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4200-000000000000}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView topLeftCell="A386" workbookViewId="0">
-      <selection activeCell="F409" sqref="F409:F423"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="68.19921875" style="168" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.06640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="145" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="133" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="167" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="143" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="143" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="143" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2">
+        <v>7.22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3">
+        <v>5.99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4">
+        <v>4.49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5">
+        <v>5.88</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6">
+        <v>5.88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>207</v>
+      </c>
+      <c r="E6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7">
+        <v>7.24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" s="169" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <v>11.91</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" s="169" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>10.47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" s="169" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10">
+        <v>20.62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" s="169" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>17.55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" s="169" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" s="169" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13">
+        <v>2.98</v>
+      </c>
+      <c r="C13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E13" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" s="169" t="s">
+        <v>95</v>
+      </c>
+      <c r="B14">
+        <v>5.99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" s="169" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15">
+        <v>2.98</v>
+      </c>
+      <c r="C15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" s="169" t="s">
+        <v>97</v>
+      </c>
+      <c r="B16">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" t="s">
+        <v>102</v>
+      </c>
+      <c r="E17" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18">
+        <v>5.99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>134</v>
+      </c>
+      <c r="E18" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" s="169" t="s">
+        <v>103</v>
+      </c>
+      <c r="B20">
+        <v>1.6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21">
+        <v>116.91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>136</v>
+      </c>
+      <c r="E22" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23">
+        <v>111.07</v>
+      </c>
+      <c r="C23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E23" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24">
+        <v>124</v>
+      </c>
+      <c r="C24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25">
+        <v>90</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26">
+        <v>110</v>
+      </c>
+      <c r="C26" t="s">
+        <v>241</v>
+      </c>
+      <c r="D26" t="s">
+        <v>242</v>
+      </c>
+      <c r="E26" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" s="169" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27">
+        <v>167.24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" s="169" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28">
+        <v>158</v>
+      </c>
+      <c r="C28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" s="169" t="s">
+        <v>107</v>
+      </c>
+      <c r="B29">
+        <v>135</v>
+      </c>
+      <c r="C29" t="s">
+        <v>241</v>
+      </c>
+      <c r="D29" t="s">
+        <v>248</v>
+      </c>
+      <c r="E29" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30">
+        <v>149</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" t="s">
+        <v>143</v>
+      </c>
+      <c r="E30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31">
+        <v>149</v>
+      </c>
+      <c r="C31" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" s="169" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32">
+        <v>279</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+      <c r="D32" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" s="169" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33">
+        <v>289</v>
+      </c>
+      <c r="C33" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" s="169" t="s">
+        <v>111</v>
+      </c>
+      <c r="B34">
+        <v>315.01</v>
+      </c>
+      <c r="C34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" s="169" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35">
+        <v>352.78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36" s="169" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36">
+        <v>765</v>
+      </c>
+      <c r="C36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D36" t="s">
+        <v>146</v>
+      </c>
+      <c r="E36" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37" s="169" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37">
+        <v>634.6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38" s="169" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38">
+        <v>634.75</v>
+      </c>
+      <c r="C38" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" t="s">
+        <v>147</v>
+      </c>
+      <c r="E38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39" s="169" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39">
+        <v>395</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40" s="169" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40">
+        <v>423</v>
+      </c>
+      <c r="C40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s">
+        <v>116</v>
+      </c>
+      <c r="E40" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41" s="169" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41">
+        <v>445.81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>150</v>
+      </c>
+      <c r="E41" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42" s="169" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42">
+        <v>449</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
+        <v>252</v>
+      </c>
+      <c r="E42" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43" s="169" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>151</v>
+      </c>
+      <c r="E43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44" s="169" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44">
+        <v>154.99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45" s="169" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45">
+        <v>165</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" t="s">
+        <v>158</v>
+      </c>
+      <c r="E45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+  <dimension ref="A1:F437"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="C441" sqref="C441"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -44795,13 +46604,13 @@
         <v>85</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E1" s="70" t="s">
         <v>87</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
@@ -50121,7 +51930,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E243" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F243" t="str">
         <f t="shared" si="3"/>
@@ -50143,7 +51952,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E244" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F244" t="str">
         <f t="shared" si="3"/>
@@ -50165,7 +51974,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E245" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F245" t="str">
         <f t="shared" si="3"/>
@@ -50187,7 +51996,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E246" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F246" t="str">
         <f t="shared" si="3"/>
@@ -50209,7 +52018,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E247" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F247" t="str">
         <f t="shared" si="3"/>
@@ -50231,7 +52040,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E248" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F248" t="str">
         <f t="shared" si="3"/>
@@ -50253,7 +52062,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E249" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F249" t="str">
         <f t="shared" si="3"/>
@@ -50275,7 +52084,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E250" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F250" t="str">
         <f t="shared" si="3"/>
@@ -50297,7 +52106,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E251" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F251" t="str">
         <f t="shared" si="3"/>
@@ -50319,7 +52128,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E252" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F252" t="str">
         <f t="shared" si="3"/>
@@ -50341,7 +52150,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E253" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F253" t="str">
         <f t="shared" si="3"/>
@@ -50363,7 +52172,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E254" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F254" t="str">
         <f t="shared" si="3"/>
@@ -50385,7 +52194,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E255" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F255" t="str">
         <f t="shared" si="3"/>
@@ -50407,7 +52216,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E256" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F256" t="str">
         <f t="shared" si="3"/>
@@ -53781,7 +55590,7 @@
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A410" s="166" t="s">
+      <c r="A410" s="129" t="s">
         <v>88</v>
       </c>
       <c r="B410">
@@ -53795,7 +55604,7 @@
         <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
       </c>
       <c r="E410" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F410" t="str">
         <f t="shared" si="6"/>
@@ -53803,7 +55612,7 @@
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A411" s="166" t="s">
+      <c r="A411" s="129" t="s">
         <v>90</v>
       </c>
       <c r="B411">
@@ -53817,7 +55626,7 @@
         <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
       </c>
       <c r="E411" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F411" t="str">
         <f t="shared" si="6"/>
@@ -53825,7 +55634,7 @@
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A412" s="166" t="s">
+      <c r="A412" s="129" t="s">
         <v>73</v>
       </c>
       <c r="B412">
@@ -53839,7 +55648,7 @@
         <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
       </c>
       <c r="E412" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F412" t="str">
         <f t="shared" si="6"/>
@@ -53847,7 +55656,7 @@
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A413" s="166" t="s">
+      <c r="A413" s="129" t="s">
         <v>95</v>
       </c>
       <c r="B413">
@@ -53861,7 +55670,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E413" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F413" t="str">
         <f t="shared" si="6"/>
@@ -53869,7 +55678,7 @@
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A414" s="166" t="s">
+      <c r="A414" s="129" t="s">
         <v>97</v>
       </c>
       <c r="B414">
@@ -53883,7 +55692,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E414" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F414" t="str">
         <f t="shared" si="6"/>
@@ -53891,7 +55700,7 @@
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A415" s="166" t="s">
+      <c r="A415" s="129" t="s">
         <v>101</v>
       </c>
       <c r="B415">
@@ -53905,7 +55714,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E415" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F415" t="str">
         <f t="shared" si="6"/>
@@ -53913,7 +55722,7 @@
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A416" s="166" t="s">
+      <c r="A416" s="129" t="s">
         <v>103</v>
       </c>
       <c r="B416">
@@ -53927,7 +55736,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E416" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F416" t="str">
         <f t="shared" si="6"/>
@@ -53935,7 +55744,7 @@
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A417" s="166" t="s">
+      <c r="A417" s="129" t="s">
         <v>105</v>
       </c>
       <c r="B417">
@@ -53949,7 +55758,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E417" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F417" t="str">
         <f t="shared" si="6"/>
@@ -53957,7 +55766,7 @@
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A418" s="166" t="s">
+      <c r="A418" s="129" t="s">
         <v>107</v>
       </c>
       <c r="B418">
@@ -53971,7 +55780,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E418" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F418" t="str">
         <f t="shared" si="6"/>
@@ -53979,7 +55788,7 @@
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A419" s="166" t="s">
+      <c r="A419" s="129" t="s">
         <v>109</v>
       </c>
       <c r="B419">
@@ -53993,7 +55802,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E419" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F419" t="str">
         <f t="shared" si="6"/>
@@ -54001,7 +55810,7 @@
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A420" s="166" t="s">
+      <c r="A420" s="129" t="s">
         <v>111</v>
       </c>
       <c r="B420">
@@ -54015,7 +55824,7 @@
         <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
       </c>
       <c r="E420" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F420" t="str">
         <f t="shared" si="6"/>
@@ -54023,7 +55832,7 @@
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A421" s="166" t="s">
+      <c r="A421" s="129" t="s">
         <v>113</v>
       </c>
       <c r="B421">
@@ -54037,7 +55846,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E421" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F421" t="str">
         <f t="shared" si="6"/>
@@ -54045,7 +55854,7 @@
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A422" s="166" t="s">
+      <c r="A422" s="129" t="s">
         <v>115</v>
       </c>
       <c r="B422">
@@ -54059,7 +55868,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E422" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F422" t="str">
         <f t="shared" si="6"/>
@@ -54067,7 +55876,7 @@
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A423" s="166" t="s">
+      <c r="A423" s="129" t="s">
         <v>117</v>
       </c>
       <c r="B423">
@@ -54081,21 +55890,330 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E423" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F423" t="str">
         <f t="shared" si="6"/>
         <v>Tuesday</v>
       </c>
     </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A424" s="170" t="s">
+        <v>88</v>
+      </c>
+      <c r="B424" s="84">
+        <v>4.49</v>
+      </c>
+      <c r="C424" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D424" t="str">
+        <f>VLOOKUP(C424,vendor_table!$B$2:$C$31,2,)</f>
+        <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
+      </c>
+      <c r="E424" t="s">
+        <v>296</v>
+      </c>
+      <c r="F424" t="str">
+        <f t="shared" si="6"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A425" s="170" t="s">
+        <v>90</v>
+      </c>
+      <c r="B425" s="84">
+        <v>10.47</v>
+      </c>
+      <c r="C425" s="84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D425" t="str">
+        <f>VLOOKUP(C425,vendor_table!$B$2:$C$31,2,)</f>
+        <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
+      </c>
+      <c r="E425" t="s">
+        <v>296</v>
+      </c>
+      <c r="F425" t="str">
+        <f t="shared" si="6"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A426" s="170" t="s">
+        <v>73</v>
+      </c>
+      <c r="B426" s="84">
+        <v>17.55</v>
+      </c>
+      <c r="C426" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D426" t="str">
+        <f>VLOOKUP(C426,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
+      </c>
+      <c r="E426" t="s">
+        <v>296</v>
+      </c>
+      <c r="F426" t="str">
+        <f t="shared" si="6"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A427" s="170" t="s">
+        <v>95</v>
+      </c>
+      <c r="B427" s="84">
+        <v>2.98</v>
+      </c>
+      <c r="C427" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D427" t="str">
+        <f>VLOOKUP(C427,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E427" t="s">
+        <v>296</v>
+      </c>
+      <c r="F427" t="str">
+        <f t="shared" si="6"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A428" s="170" t="s">
+        <v>97</v>
+      </c>
+      <c r="B428" s="84">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C428" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D428" t="str">
+        <f>VLOOKUP(C428,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E428" t="s">
+        <v>296</v>
+      </c>
+      <c r="F428" t="str">
+        <f t="shared" si="6"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A429" s="170" t="s">
+        <v>101</v>
+      </c>
+      <c r="B429" s="84">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C429" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D429" t="str">
+        <f>VLOOKUP(C429,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E429" t="s">
+        <v>296</v>
+      </c>
+      <c r="F429" t="str">
+        <f t="shared" si="6"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A430" s="170" t="s">
+        <v>103</v>
+      </c>
+      <c r="B430" s="84">
+        <v>1.6</v>
+      </c>
+      <c r="C430" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D430" t="str">
+        <f>VLOOKUP(C430,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E430" t="s">
+        <v>296</v>
+      </c>
+      <c r="F430" t="str">
+        <f t="shared" si="6"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A431" s="170" t="s">
+        <v>105</v>
+      </c>
+      <c r="B431" s="84">
+        <v>90</v>
+      </c>
+      <c r="C431" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D431" t="str">
+        <f>VLOOKUP(C431,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E431" t="s">
+        <v>296</v>
+      </c>
+      <c r="F431" t="str">
+        <f t="shared" si="6"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A432" s="170" t="s">
+        <v>107</v>
+      </c>
+      <c r="B432" s="84">
+        <v>135</v>
+      </c>
+      <c r="C432" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D432" t="str">
+        <f>VLOOKUP(C432,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E432" t="s">
+        <v>296</v>
+      </c>
+      <c r="F432" t="str">
+        <f t="shared" si="6"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A433" s="170" t="s">
+        <v>109</v>
+      </c>
+      <c r="B433" s="84">
+        <v>149</v>
+      </c>
+      <c r="C433" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="D433" t="str">
+        <f>VLOOKUP(C433,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E433" t="s">
+        <v>296</v>
+      </c>
+      <c r="F433" t="str">
+        <f t="shared" si="6"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A434" s="170" t="s">
+        <v>111</v>
+      </c>
+      <c r="B434" s="84">
+        <v>279</v>
+      </c>
+      <c r="C434" s="84" t="s">
+        <v>54</v>
+      </c>
+      <c r="D434" t="str">
+        <f>VLOOKUP(C434,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
+      </c>
+      <c r="E434" t="s">
+        <v>296</v>
+      </c>
+      <c r="F434" t="str">
+        <f t="shared" si="6"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A435" s="170" t="s">
+        <v>113</v>
+      </c>
+      <c r="B435" s="84">
+        <v>634.6</v>
+      </c>
+      <c r="C435" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D435" t="str">
+        <f>VLOOKUP(C435,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E435" t="s">
+        <v>296</v>
+      </c>
+      <c r="F435" t="str">
+        <f t="shared" si="6"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A436" s="170" t="s">
+        <v>115</v>
+      </c>
+      <c r="B436" s="84">
+        <v>395</v>
+      </c>
+      <c r="C436" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D436" t="str">
+        <f>VLOOKUP(C436,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E436" t="s">
+        <v>296</v>
+      </c>
+      <c r="F436" t="str">
+        <f t="shared" si="6"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A437" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="B437" s="84">
+        <v>149</v>
+      </c>
+      <c r="C437" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="D437" t="str">
+        <f>VLOOKUP(C437,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E437" t="s">
+        <v>296</v>
+      </c>
+      <c r="F437" t="str">
+        <f t="shared" si="6"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="54" type="noConversion"/>
   <conditionalFormatting sqref="B34:B317">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>0.68</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:D1 C424:D1048576 C34:C423">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+  <conditionalFormatting sqref="C1:D1 C438:D1048576 C34:C423">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"rona"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -54104,12 +56222,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
-  <dimension ref="A1:J1158"/>
+<file path=xl/worksheets/sheet66.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
+  <dimension ref="A1:J1202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1121" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F1158"/>
+    <sheetView topLeftCell="A1173" workbookViewId="0">
+      <selection activeCell="E1205" sqref="E1205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -54135,17 +56253,17 @@
         <v>85</v>
       </c>
       <c r="D1" s="117" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E1" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="F1" s="168" t="s">
-        <v>253</v>
+      <c r="F1" s="142" t="s">
+        <v>255</v>
       </c>
       <c r="G1" s="85"/>
       <c r="I1" s="85" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
@@ -78930,7 +81048,7 @@
       </c>
     </row>
     <row r="1121" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1121" s="166" t="s">
+      <c r="A1121" s="129" t="s">
         <v>88</v>
       </c>
       <c r="B1121">
@@ -78944,7 +81062,7 @@
         <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
       </c>
       <c r="E1121" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1121" t="str">
         <f t="shared" si="17"/>
@@ -78952,7 +81070,7 @@
       </c>
     </row>
     <row r="1122" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1122" s="166" t="s">
+      <c r="A1122" s="129" t="s">
         <v>90</v>
       </c>
       <c r="B1122">
@@ -78966,7 +81084,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1122" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1122" t="str">
         <f t="shared" si="17"/>
@@ -78974,7 +81092,7 @@
       </c>
     </row>
     <row r="1123" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1123" s="166" t="s">
+      <c r="A1123" s="129" t="s">
         <v>90</v>
       </c>
       <c r="B1123">
@@ -78988,7 +81106,7 @@
         <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
       </c>
       <c r="E1123" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1123" t="str">
         <f t="shared" si="17"/>
@@ -78996,7 +81114,7 @@
       </c>
     </row>
     <row r="1124" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1124" s="166" t="s">
+      <c r="A1124" s="129" t="s">
         <v>90</v>
       </c>
       <c r="B1124">
@@ -79010,7 +81128,7 @@
         <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
       </c>
       <c r="E1124" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1124" t="str">
         <f t="shared" si="17"/>
@@ -79018,7 +81136,7 @@
       </c>
     </row>
     <row r="1125" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1125" s="166" t="s">
+      <c r="A1125" s="129" t="s">
         <v>73</v>
       </c>
       <c r="B1125">
@@ -79032,7 +81150,7 @@
         <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
       </c>
       <c r="E1125" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1125" t="str">
         <f t="shared" si="17"/>
@@ -79040,7 +81158,7 @@
       </c>
     </row>
     <row r="1126" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1126" s="166" t="s">
+      <c r="A1126" s="129" t="s">
         <v>95</v>
       </c>
       <c r="B1126">
@@ -79054,7 +81172,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1126" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1126" t="str">
         <f t="shared" si="17"/>
@@ -79062,7 +81180,7 @@
       </c>
     </row>
     <row r="1127" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1127" s="166" t="s">
+      <c r="A1127" s="129" t="s">
         <v>95</v>
       </c>
       <c r="B1127">
@@ -79076,7 +81194,7 @@
         <v>651 Brannan St. San Francisco, CA, 94107</v>
       </c>
       <c r="E1127" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1127" t="str">
         <f t="shared" si="17"/>
@@ -79084,7 +81202,7 @@
       </c>
     </row>
     <row r="1128" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1128" s="166" t="s">
+      <c r="A1128" s="129" t="s">
         <v>97</v>
       </c>
       <c r="B1128">
@@ -79098,7 +81216,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1128" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1128" t="str">
         <f t="shared" si="17"/>
@@ -79106,7 +81224,7 @@
       </c>
     </row>
     <row r="1129" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1129" s="166" t="s">
+      <c r="A1129" s="129" t="s">
         <v>101</v>
       </c>
       <c r="B1129">
@@ -79120,7 +81238,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1129" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1129" t="str">
         <f t="shared" si="17"/>
@@ -79128,7 +81246,7 @@
       </c>
     </row>
     <row r="1130" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1130" s="166" t="s">
+      <c r="A1130" s="129" t="s">
         <v>101</v>
       </c>
       <c r="B1130">
@@ -79142,7 +81260,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E1130" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1130" t="str">
         <f t="shared" si="17"/>
@@ -79150,7 +81268,7 @@
       </c>
     </row>
     <row r="1131" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1131" s="166" t="s">
+      <c r="A1131" s="129" t="s">
         <v>101</v>
       </c>
       <c r="B1131">
@@ -79164,7 +81282,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E1131" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1131" t="str">
         <f t="shared" si="17"/>
@@ -79172,7 +81290,7 @@
       </c>
     </row>
     <row r="1132" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1132" s="166" t="s">
+      <c r="A1132" s="129" t="s">
         <v>103</v>
       </c>
       <c r="B1132">
@@ -79186,7 +81304,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1132" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1132" t="str">
         <f t="shared" si="17"/>
@@ -79194,7 +81312,7 @@
       </c>
     </row>
     <row r="1133" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1133" s="166" t="s">
+      <c r="A1133" s="129" t="s">
         <v>105</v>
       </c>
       <c r="B1133">
@@ -79208,7 +81326,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E1133" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1133" t="str">
         <f t="shared" si="17"/>
@@ -79216,7 +81334,7 @@
       </c>
     </row>
     <row r="1134" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1134" s="166" t="s">
+      <c r="A1134" s="129" t="s">
         <v>105</v>
       </c>
       <c r="B1134">
@@ -79230,7 +81348,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E1134" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1134" t="str">
         <f t="shared" si="17"/>
@@ -79238,7 +81356,7 @@
       </c>
     </row>
     <row r="1135" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1135" s="166" t="s">
+      <c r="A1135" s="129" t="s">
         <v>105</v>
       </c>
       <c r="B1135">
@@ -79252,7 +81370,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E1135" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1135" t="str">
         <f t="shared" si="17"/>
@@ -79260,7 +81378,7 @@
       </c>
     </row>
     <row r="1136" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1136" s="166" t="s">
+      <c r="A1136" s="129" t="s">
         <v>105</v>
       </c>
       <c r="B1136">
@@ -79274,7 +81392,7 @@
         <v>5512 West Pico Blvd. Los Angeles, CA, 90019</v>
       </c>
       <c r="E1136" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1136" t="str">
         <f t="shared" si="17"/>
@@ -79282,7 +81400,7 @@
       </c>
     </row>
     <row r="1137" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1137" s="166" t="s">
+      <c r="A1137" s="129" t="s">
         <v>105</v>
       </c>
       <c r="B1137">
@@ -79296,7 +81414,7 @@
         <v>1200 E Us Hwy 169. Grand Rapids, Minnesota, 55744</v>
       </c>
       <c r="E1137" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1137" t="str">
         <f t="shared" si="17"/>
@@ -79304,7 +81422,7 @@
       </c>
     </row>
     <row r="1138" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1138" s="166" t="s">
+      <c r="A1138" s="129" t="s">
         <v>105</v>
       </c>
       <c r="B1138">
@@ -79318,7 +81436,7 @@
         <v>online</v>
       </c>
       <c r="E1138" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1138" t="str">
         <f t="shared" si="17"/>
@@ -79326,7 +81444,7 @@
       </c>
     </row>
     <row r="1139" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1139" s="166" t="s">
+      <c r="A1139" s="129" t="s">
         <v>107</v>
       </c>
       <c r="B1139">
@@ -79340,7 +81458,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1139" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1139" t="str">
         <f t="shared" si="17"/>
@@ -79348,7 +81466,7 @@
       </c>
     </row>
     <row r="1140" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1140" s="166" t="s">
+      <c r="A1140" s="129" t="s">
         <v>107</v>
       </c>
       <c r="B1140">
@@ -79362,7 +81480,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E1140" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1140" t="str">
         <f t="shared" si="17"/>
@@ -79370,7 +81488,7 @@
       </c>
     </row>
     <row r="1141" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1141" s="166" t="s">
+      <c r="A1141" s="129" t="s">
         <v>107</v>
       </c>
       <c r="B1141">
@@ -79384,7 +81502,7 @@
         <v>1220 Village Way #A. Santa Ana, CA, 92705</v>
       </c>
       <c r="E1141" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1141" t="str">
         <f t="shared" si="17"/>
@@ -79392,7 +81510,7 @@
       </c>
     </row>
     <row r="1142" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1142" s="166" t="s">
+      <c r="A1142" s="129" t="s">
         <v>109</v>
       </c>
       <c r="B1142">
@@ -79406,7 +81524,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1142" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1142" t="str">
         <f t="shared" si="17"/>
@@ -79414,7 +81532,7 @@
       </c>
     </row>
     <row r="1143" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1143" s="166" t="s">
+      <c r="A1143" s="129" t="s">
         <v>109</v>
       </c>
       <c r="B1143">
@@ -79428,7 +81546,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E1143" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1143" t="str">
         <f t="shared" si="17"/>
@@ -79436,7 +81554,7 @@
       </c>
     </row>
     <row r="1144" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1144" s="166" t="s">
+      <c r="A1144" s="129" t="s">
         <v>111</v>
       </c>
       <c r="B1144">
@@ -79450,7 +81568,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1144" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1144" t="str">
         <f t="shared" si="17"/>
@@ -79458,7 +81576,7 @@
       </c>
     </row>
     <row r="1145" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1145" s="166" t="s">
+      <c r="A1145" s="129" t="s">
         <v>111</v>
       </c>
       <c r="B1145">
@@ -79472,7 +81590,7 @@
         <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
       </c>
       <c r="E1145" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1145" t="str">
         <f t="shared" si="17"/>
@@ -79480,7 +81598,7 @@
       </c>
     </row>
     <row r="1146" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1146" s="166" t="s">
+      <c r="A1146" s="129" t="s">
         <v>111</v>
       </c>
       <c r="B1146">
@@ -79494,7 +81612,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E1146" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1146" t="str">
         <f t="shared" si="17"/>
@@ -79502,7 +81620,7 @@
       </c>
     </row>
     <row r="1147" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1147" s="166" t="s">
+      <c r="A1147" s="129" t="s">
         <v>111</v>
       </c>
       <c r="B1147">
@@ -79516,7 +81634,7 @@
         <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
       </c>
       <c r="E1147" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1147" t="str">
         <f t="shared" si="17"/>
@@ -79524,7 +81642,7 @@
       </c>
     </row>
     <row r="1148" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1148" s="166" t="s">
+      <c r="A1148" s="129" t="s">
         <v>113</v>
       </c>
       <c r="B1148">
@@ -79538,7 +81656,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1148" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1148" t="str">
         <f t="shared" si="17"/>
@@ -79546,7 +81664,7 @@
       </c>
     </row>
     <row r="1149" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1149" s="166" t="s">
+      <c r="A1149" s="129" t="s">
         <v>113</v>
       </c>
       <c r="B1149">
@@ -79560,7 +81678,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E1149" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1149" t="str">
         <f t="shared" si="17"/>
@@ -79568,7 +81686,7 @@
       </c>
     </row>
     <row r="1150" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1150" s="166" t="s">
+      <c r="A1150" s="129" t="s">
         <v>113</v>
       </c>
       <c r="B1150">
@@ -79582,7 +81700,7 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E1150" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1150" t="str">
         <f t="shared" si="17"/>
@@ -79590,7 +81708,7 @@
       </c>
     </row>
     <row r="1151" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1151" s="166" t="s">
+      <c r="A1151" s="129" t="s">
         <v>115</v>
       </c>
       <c r="B1151">
@@ -79604,7 +81722,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1151" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1151" t="str">
         <f t="shared" si="17"/>
@@ -79612,7 +81730,7 @@
       </c>
     </row>
     <row r="1152" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1152" s="166" t="s">
+      <c r="A1152" s="129" t="s">
         <v>115</v>
       </c>
       <c r="B1152">
@@ -79626,7 +81744,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E1152" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1152" t="str">
         <f t="shared" si="17"/>
@@ -79634,7 +81752,7 @@
       </c>
     </row>
     <row r="1153" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1153" s="166" t="s">
+      <c r="A1153" s="129" t="s">
         <v>115</v>
       </c>
       <c r="B1153">
@@ -79648,7 +81766,7 @@
         <v>1917 S Avenue B. Yuma, AZ, 85364</v>
       </c>
       <c r="E1153" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1153" t="str">
         <f t="shared" si="17"/>
@@ -79656,7 +81774,7 @@
       </c>
     </row>
     <row r="1154" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1154" s="166" t="s">
+      <c r="A1154" s="129" t="s">
         <v>115</v>
       </c>
       <c r="B1154">
@@ -79670,15 +81788,15 @@
         <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
       </c>
       <c r="E1154" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1154" t="str">
-        <f t="shared" ref="F1154:F1158" si="18">TEXT(E1154,"dddd")</f>
+        <f t="shared" ref="F1154:F1217" si="18">TEXT(E1154,"dddd")</f>
         <v>Tuesday</v>
       </c>
     </row>
     <row r="1155" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1155" s="166" t="s">
+      <c r="A1155" s="129" t="s">
         <v>115</v>
       </c>
       <c r="B1155">
@@ -79692,7 +81810,7 @@
         <v>4777 Menard Drive. Eau Claire, Wisconsin, 54703</v>
       </c>
       <c r="E1155" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1155" t="str">
         <f t="shared" si="18"/>
@@ -79700,7 +81818,7 @@
       </c>
     </row>
     <row r="1156" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1156" s="166" t="s">
+      <c r="A1156" s="129" t="s">
         <v>117</v>
       </c>
       <c r="B1156">
@@ -79714,7 +81832,7 @@
         <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
       </c>
       <c r="E1156" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1156" t="str">
         <f t="shared" si="18"/>
@@ -79722,7 +81840,7 @@
       </c>
     </row>
     <row r="1157" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1157" s="166" t="s">
+      <c r="A1157" s="129" t="s">
         <v>117</v>
       </c>
       <c r="B1157">
@@ -79736,7 +81854,7 @@
         <v>410 Terry Ave N. Seattle, WA, 98109</v>
       </c>
       <c r="E1157" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1157" t="str">
         <f t="shared" si="18"/>
@@ -79744,7 +81862,7 @@
       </c>
     </row>
     <row r="1158" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1158" s="166" t="s">
+      <c r="A1158" s="129" t="s">
         <v>117</v>
       </c>
       <c r="B1158">
@@ -79758,22 +81876,990 @@
         <v>1431 7th St Ste 204. Santa Monica, California, 90401</v>
       </c>
       <c r="E1158" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="F1158" t="str">
         <f t="shared" si="18"/>
         <v>Tuesday</v>
       </c>
     </row>
+    <row r="1159" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1159" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1159">
+        <v>7.22</v>
+      </c>
+      <c r="C1159" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1159" t="str">
+        <f>VLOOKUP(C1159,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1159" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1159" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1160" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1160">
+        <v>5.99</v>
+      </c>
+      <c r="C1160" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1160" t="str">
+        <f>VLOOKUP(C1160,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E1160" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1160" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1161" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1161">
+        <v>4.49</v>
+      </c>
+      <c r="C1161" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1161" t="str">
+        <f>VLOOKUP(C1161,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1290 N Hobbie Ave. Kankakee, Illinois, 60901</v>
+      </c>
+      <c r="E1161" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1161" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1162" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1162">
+        <v>5.88</v>
+      </c>
+      <c r="C1162" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1162" t="str">
+        <f>VLOOKUP(C1162,vendor_table!$B$2:$C$31,2,)</f>
+        <v>6260 Abbott Dr. Omaha, Nebraska, 68110</v>
+      </c>
+      <c r="E1162" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1162" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1163" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1163">
+        <v>5.88</v>
+      </c>
+      <c r="C1163" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1163" t="str">
+        <f>VLOOKUP(C1163,vendor_table!$B$2:$C$31,2,)</f>
+        <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
+      </c>
+      <c r="E1163" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1163" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1164" s="169" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1164">
+        <v>7.24</v>
+      </c>
+      <c r="C1164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1164" t="str">
+        <f>VLOOKUP(C1164,vendor_table!$B$2:$C$31,2,)</f>
+        <v>4777 Menard Drive. Eau Claire, Wisconsin, 54703</v>
+      </c>
+      <c r="E1164" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1164" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1165" s="169" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1165">
+        <v>11.91</v>
+      </c>
+      <c r="C1165" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1165" t="str">
+        <f>VLOOKUP(C1165,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1165" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1165" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1166" s="169" t="s">
+        <v>90</v>
+      </c>
+      <c r="B1166">
+        <v>10.47</v>
+      </c>
+      <c r="C1166" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1166" t="str">
+        <f>VLOOKUP(C1166,vendor_table!$B$2:$C$31,2,)</f>
+        <v>4601 Bulls Bay Hwy #100. Jacksonville, FL, 32219</v>
+      </c>
+      <c r="E1166" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1166" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1167" s="169" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1167">
+        <v>20.62</v>
+      </c>
+      <c r="C1167" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1167" t="str">
+        <f>VLOOKUP(C1167,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1167" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1167" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1168" s="169" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1168">
+        <v>17.55</v>
+      </c>
+      <c r="C1168" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1168" t="str">
+        <f>VLOOKUP(C1168,vendor_table!$B$2:$C$31,2,)</f>
+        <v>28 Biopolis Road. Singapore, 138568</v>
+      </c>
+      <c r="E1168" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1168" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1169" s="169" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1169">
+        <v>33.340000000000003</v>
+      </c>
+      <c r="C1169" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1169" t="str">
+        <f>VLOOKUP(C1169,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
+      </c>
+      <c r="E1169" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1169" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1170" s="169" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1170">
+        <v>2.98</v>
+      </c>
+      <c r="C1170" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1170" t="str">
+        <f>VLOOKUP(C1170,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1170" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1170" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1171" s="169" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1171">
+        <v>5.99</v>
+      </c>
+      <c r="C1171" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1171" t="str">
+        <f>VLOOKUP(C1171,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E1171" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1171" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1172" s="169" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1172">
+        <v>2.98</v>
+      </c>
+      <c r="C1172" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1172" t="str">
+        <f>VLOOKUP(C1172,vendor_table!$B$2:$C$31,2,)</f>
+        <v>651 Brannan St. San Francisco, CA, 94107</v>
+      </c>
+      <c r="E1172" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1172" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1173" s="169" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1173">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="C1173" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1173" t="str">
+        <f>VLOOKUP(C1173,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1173" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1173" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1174" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1174">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C1174" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1174" t="str">
+        <f>VLOOKUP(C1174,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1174" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1174" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1175" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1175">
+        <v>5.99</v>
+      </c>
+      <c r="C1175" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1175" t="str">
+        <f>VLOOKUP(C1175,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E1175" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1175" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1176" s="169" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1176">
+        <v>20</v>
+      </c>
+      <c r="C1176" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1176" t="str">
+        <f>VLOOKUP(C1176,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E1176" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1176" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1177" s="169" t="s">
+        <v>103</v>
+      </c>
+      <c r="B1177">
+        <v>1.6</v>
+      </c>
+      <c r="C1177" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1177" t="str">
+        <f>VLOOKUP(C1177,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1177" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1177" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1178" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1178">
+        <v>116.91</v>
+      </c>
+      <c r="C1178" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1178" t="str">
+        <f>VLOOKUP(C1178,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E1178" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1178" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1179" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1179">
+        <v>118</v>
+      </c>
+      <c r="C1179" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1179" t="str">
+        <f>VLOOKUP(C1179,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E1179" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1179" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1180" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1180">
+        <v>111.07</v>
+      </c>
+      <c r="C1180" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1180" t="str">
+        <f>VLOOKUP(C1180,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
+      </c>
+      <c r="E1180" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1180" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1181" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1181">
+        <v>124</v>
+      </c>
+      <c r="C1181" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1181" t="str">
+        <f>VLOOKUP(C1181,vendor_table!$B$2:$C$31,2,)</f>
+        <v>5512 West Pico Blvd. Los Angeles, CA, 90019</v>
+      </c>
+      <c r="E1181" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1181" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1182" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1182">
+        <v>90</v>
+      </c>
+      <c r="C1182" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1182" t="str">
+        <f>VLOOKUP(C1182,vendor_table!$B$2:$C$31,2,)</f>
+        <v>online</v>
+      </c>
+      <c r="E1182" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1182" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1183" s="169" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1183">
+        <v>110</v>
+      </c>
+      <c r="C1183" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1183" t="str">
+        <f>VLOOKUP(C1183,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1220 Village Way #A. Santa Ana, CA, 92705</v>
+      </c>
+      <c r="E1183" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1183" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1184" s="169" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1184">
+        <v>167.24</v>
+      </c>
+      <c r="C1184" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1184" t="str">
+        <f>VLOOKUP(C1184,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1184" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1184" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1185" s="169" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1185">
+        <v>158</v>
+      </c>
+      <c r="C1185" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1185" t="str">
+        <f>VLOOKUP(C1185,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E1185" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1185" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1186" s="169" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1186">
+        <v>135</v>
+      </c>
+      <c r="C1186" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1186" t="str">
+        <f>VLOOKUP(C1186,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1220 Village Way #A. Santa Ana, CA, 92705</v>
+      </c>
+      <c r="E1186" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1186" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1187" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1187">
+        <v>149</v>
+      </c>
+      <c r="C1187" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1187" t="str">
+        <f>VLOOKUP(C1187,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1187" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1187" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1188" s="169" t="s">
+        <v>109</v>
+      </c>
+      <c r="B1188">
+        <v>149</v>
+      </c>
+      <c r="C1188" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1188" t="str">
+        <f>VLOOKUP(C1188,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E1188" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1188" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1189" s="169" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1189">
+        <v>279</v>
+      </c>
+      <c r="C1189" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1189" t="str">
+        <f>VLOOKUP(C1189,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1189" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1189" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1190" s="169" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1190">
+        <v>289</v>
+      </c>
+      <c r="C1190" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1190" t="str">
+        <f>VLOOKUP(C1190,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1000 Lowe's Blvd. Mooresville, NC, 28117</v>
+      </c>
+      <c r="E1190" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1190" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1191" s="169" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1191">
+        <v>315.01</v>
+      </c>
+      <c r="C1191" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1191" t="str">
+        <f>VLOOKUP(C1191,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
+      </c>
+      <c r="E1191" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1191" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1192" s="169" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1192">
+        <v>352.78</v>
+      </c>
+      <c r="C1192" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1192" t="str">
+        <f>VLOOKUP(C1192,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1835 E Hallandale Bch 264 Hallandale. Beach, FL, 33009</v>
+      </c>
+      <c r="E1192" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1192" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1193" s="169" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1193">
+        <v>765</v>
+      </c>
+      <c r="C1193" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1193" t="str">
+        <f>VLOOKUP(C1193,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1193" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1193" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1194" s="169" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1194">
+        <v>634.6</v>
+      </c>
+      <c r="C1194" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1194" t="str">
+        <f>VLOOKUP(C1194,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E1194" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1194" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1195" s="169" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1195">
+        <v>634.75</v>
+      </c>
+      <c r="C1195" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1195" t="str">
+        <f>VLOOKUP(C1195,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
+      </c>
+      <c r="E1195" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1195" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1196" s="169" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1196">
+        <v>395</v>
+      </c>
+      <c r="C1196" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1196" t="str">
+        <f>VLOOKUP(C1196,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1196" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1196" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1197" s="169" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1197">
+        <v>423</v>
+      </c>
+      <c r="C1197" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1197" t="str">
+        <f>VLOOKUP(C1197,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E1197" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1197" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1198" s="169" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1198">
+        <v>445.81</v>
+      </c>
+      <c r="C1198" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1198" t="str">
+        <f>VLOOKUP(C1198,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2025 Hamilton Avenue. San Jose, California, 95125</v>
+      </c>
+      <c r="E1198" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1198" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1199" s="169" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1199">
+        <v>449</v>
+      </c>
+      <c r="C1199" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1199" t="str">
+        <f>VLOOKUP(C1199,vendor_table!$B$2:$C$31,2,)</f>
+        <v>4777 Menard Drive. Eau Claire, Wisconsin, 54703</v>
+      </c>
+      <c r="E1199" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1199" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1200" s="169" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1200">
+        <v>149</v>
+      </c>
+      <c r="C1200" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1200" t="str">
+        <f>VLOOKUP(C1200,vendor_table!$B$2:$C$31,2,)</f>
+        <v>2455 Paces Ferry Rd SE. Atlanta, GA, 30339</v>
+      </c>
+      <c r="E1200" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1200" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1201" s="169" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1201">
+        <v>154.99</v>
+      </c>
+      <c r="C1201" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1201" t="str">
+        <f>VLOOKUP(C1201,vendor_table!$B$2:$C$31,2,)</f>
+        <v>410 Terry Ave N. Seattle, WA, 98109</v>
+      </c>
+      <c r="E1201" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1201" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A1202" s="169" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1202">
+        <v>165</v>
+      </c>
+      <c r="C1202" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1202" t="str">
+        <f>VLOOKUP(C1202,vendor_table!$B$2:$C$31,2,)</f>
+        <v>1431 7th St Ste 204. Santa Monica, California, 90401</v>
+      </c>
+      <c r="E1202" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1202" t="str">
+        <f t="shared" si="18"/>
+        <v>Wednesday</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A2:F603" xr:uid="{00000000-0009-0000-0000-00003C000000}"/>
+  <autoFilter ref="A2:F603" xr:uid="{00000000-0009-0000-0000-00003E000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
+<file path=xl/worksheets/sheet67.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -79789,13 +82875,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B1" s="113" t="s">
         <v>85</v>
       </c>
       <c r="C1" s="114" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.45">
@@ -79806,7 +82892,7 @@
         <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.45">
@@ -79817,7 +82903,7 @@
         <v>61</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -79828,7 +82914,7 @@
         <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.45">
@@ -79839,7 +82925,7 @@
         <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.45">
@@ -79850,7 +82936,7 @@
         <v>55</v>
       </c>
       <c r="C6" s="112" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.45">
@@ -79861,7 +82947,7 @@
         <v>63</v>
       </c>
       <c r="C7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.45">
@@ -79872,7 +82958,7 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.45">
@@ -79883,7 +82969,7 @@
         <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.45">
@@ -79894,7 +82980,7 @@
         <v>59</v>
       </c>
       <c r="C10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.45">
@@ -79905,7 +82991,7 @@
         <v>203</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.45">
@@ -79916,7 +83002,7 @@
         <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.45">
@@ -79927,7 +83013,7 @@
         <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.45">
@@ -79938,7 +83024,7 @@
         <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.45">
@@ -79949,7 +83035,7 @@
         <v>211</v>
       </c>
       <c r="C15" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.45">
@@ -79960,7 +83046,7 @@
         <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -79971,7 +83057,7 @@
         <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.45">
@@ -79982,7 +83068,7 @@
         <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.45">
@@ -79993,7 +83079,7 @@
         <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.45">
@@ -80004,7 +83090,7 @@
         <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.45">
@@ -80015,7 +83101,7 @@
         <v>66</v>
       </c>
       <c r="C21" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.45">
@@ -80026,7 +83112,7 @@
         <v>67</v>
       </c>
       <c r="C22" s="120" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.45">
@@ -80037,7 +83123,7 @@
         <v>241</v>
       </c>
       <c r="C23" s="112" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.45">
@@ -80048,7 +83134,7 @@
         <v>244</v>
       </c>
       <c r="C24" s="112" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.45">
@@ -80059,7 +83145,7 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.45">
@@ -80070,7 +83156,7 @@
         <v>51</v>
       </c>
       <c r="C26" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
@@ -80081,7 +83167,7 @@
         <v>50</v>
       </c>
       <c r="C27" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -80092,7 +83178,7 @@
         <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.45">
@@ -80103,7 +83189,7 @@
         <v>139</v>
       </c>
       <c r="C29" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.45">
@@ -80114,7 +83200,7 @@
         <v>223</v>
       </c>
       <c r="C30" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.45">
@@ -80125,697 +83211,12 @@
         <v>229</v>
       </c>
       <c r="C31" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
-  <dimension ref="A1:E39"/>
-  <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="68.19921875" style="163" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="144.19921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.86328125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="167" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="139" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="139" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="139" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="139" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="166" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2">
-        <v>4.49</v>
-      </c>
-      <c r="C2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="166" t="s">
-        <v>90</v>
-      </c>
-      <c r="B3">
-        <v>11.91</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="166" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4">
-        <v>10.47</v>
-      </c>
-      <c r="C4" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="166" t="s">
-        <v>90</v>
-      </c>
-      <c r="B5">
-        <v>8.35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E5" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="166" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6">
-        <v>33.340000000000003</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>165</v>
-      </c>
-      <c r="E6" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7">
-        <v>2.98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E7" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="166" t="s">
-        <v>95</v>
-      </c>
-      <c r="B8">
-        <v>2.98</v>
-      </c>
-      <c r="C8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="166" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="C9" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="166" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C10" t="s">
-        <v>58</v>
-      </c>
-      <c r="D10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="166" t="s">
-        <v>101</v>
-      </c>
-      <c r="B11">
-        <v>5.99</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="166" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12">
-        <v>20</v>
-      </c>
-      <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="166" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13">
-        <v>1.6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" t="s">
-        <v>104</v>
-      </c>
-      <c r="E13" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="166" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14">
-        <v>116.92</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="166" t="s">
-        <v>105</v>
-      </c>
-      <c r="B15">
-        <v>118</v>
-      </c>
-      <c r="C15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="166" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16">
-        <v>111.07</v>
-      </c>
-      <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="166" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17">
-        <v>124</v>
-      </c>
-      <c r="C17" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="166" t="s">
-        <v>105</v>
-      </c>
-      <c r="B18">
-        <v>84.99</v>
-      </c>
-      <c r="C18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="166" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19">
-        <v>90</v>
-      </c>
-      <c r="C19" t="s">
-        <v>139</v>
-      </c>
-      <c r="D19" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="166" t="s">
-        <v>107</v>
-      </c>
-      <c r="B20">
-        <v>159</v>
-      </c>
-      <c r="C20" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="166" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21">
-        <v>159</v>
-      </c>
-      <c r="C21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E21" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="166" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22">
-        <v>135</v>
-      </c>
-      <c r="C22" t="s">
-        <v>241</v>
-      </c>
-      <c r="D22" t="s">
-        <v>248</v>
-      </c>
-      <c r="E22" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="166" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23">
-        <v>149</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
-      </c>
-      <c r="D23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E23" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="166" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24">
-        <v>149</v>
-      </c>
-      <c r="C24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" t="s">
-        <v>157</v>
-      </c>
-      <c r="E24" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="B25">
-        <v>289</v>
-      </c>
-      <c r="C25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26">
-        <v>289</v>
-      </c>
-      <c r="C26" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="B27">
-        <v>315.01</v>
-      </c>
-      <c r="C27" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" t="s">
-        <v>168</v>
-      </c>
-      <c r="E27" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="166" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28">
-        <v>352.78</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" t="s">
-        <v>246</v>
-      </c>
-      <c r="E28" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A29" s="166" t="s">
-        <v>113</v>
-      </c>
-      <c r="B29">
-        <v>765</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A30" s="166" t="s">
-        <v>113</v>
-      </c>
-      <c r="B30">
-        <v>634.6</v>
-      </c>
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-      <c r="D30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A31" s="166" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31">
-        <v>634.75</v>
-      </c>
-      <c r="C31" t="s">
-        <v>56</v>
-      </c>
-      <c r="D31" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A32" s="166" t="s">
-        <v>115</v>
-      </c>
-      <c r="B32">
-        <v>409</v>
-      </c>
-      <c r="C32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D32" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A33" s="166" t="s">
-        <v>115</v>
-      </c>
-      <c r="B33">
-        <v>423</v>
-      </c>
-      <c r="C33" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" t="s">
-        <v>116</v>
-      </c>
-      <c r="E33" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A34" s="166" t="s">
-        <v>115</v>
-      </c>
-      <c r="B34">
-        <v>354.99</v>
-      </c>
-      <c r="C34" t="s">
-        <v>211</v>
-      </c>
-      <c r="D34" t="s">
-        <v>212</v>
-      </c>
-      <c r="E34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A35" s="166" t="s">
-        <v>115</v>
-      </c>
-      <c r="B35">
-        <v>445.81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E35" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A36" s="166" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36">
-        <v>449</v>
-      </c>
-      <c r="C36" t="s">
-        <v>63</v>
-      </c>
-      <c r="D36" t="s">
-        <v>294</v>
-      </c>
-      <c r="E36" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A37" s="166" t="s">
-        <v>117</v>
-      </c>
-      <c r="B37">
-        <v>156</v>
-      </c>
-      <c r="C37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D37" t="s">
-        <v>151</v>
-      </c>
-      <c r="E37" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A38" s="166" t="s">
-        <v>117</v>
-      </c>
-      <c r="B38">
-        <v>154.99</v>
-      </c>
-      <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D38" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A39" s="166" t="s">
-        <v>117</v>
-      </c>
-      <c r="B39">
-        <v>165</v>
-      </c>
-      <c r="C39" t="s">
-        <v>72</v>
-      </c>
-      <c r="D39" t="s">
-        <v>158</v>
-      </c>
-      <c r="E39" t="s">
-        <v>295</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -80985,12 +83386,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:39" s="83" customFormat="1" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="166" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="158"/>
-      <c r="C1" s="158"/>
-      <c r="D1" s="159"/>
+      <c r="B1" s="162"/>
+      <c r="C1" s="162"/>
+      <c r="D1" s="163"/>
     </row>
     <row r="2" spans="1:39" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A2" s="94" t="s">
@@ -81354,10 +83755,10 @@
       <c r="H5" s="81"/>
     </row>
     <row r="6" spans="1:39" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="151"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="83"/>
     </row>
     <row r="7" spans="1:39" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -81424,12 +83825,12 @@
     </row>
     <row r="14" spans="1:39" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="15" spans="1:39" s="100" customFormat="1" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A15" s="157" t="s">
+      <c r="A15" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="B15" s="158"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="159"/>
+      <c r="B15" s="162"/>
+      <c r="C15" s="162"/>
+      <c r="D15" s="163"/>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.45">
       <c r="A16" s="102" t="s">
@@ -81772,11 +84173,11 @@
     </row>
     <row r="19" spans="1:45" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="20" spans="1:45" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A20" s="160" t="str">
+      <c r="A20" s="164" t="str">
         <f>A6</f>
         <v>Metrics</v>
       </c>
-      <c r="B20" s="151"/>
+      <c r="B20" s="146"/>
     </row>
     <row r="21" spans="1:45" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="90" t="str">
@@ -81826,12 +84227,12 @@
     </row>
     <row r="26" spans="1:45" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="27" spans="1:45" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A27" s="157" t="s">
+      <c r="A27" s="161" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="158"/>
-      <c r="C27" s="158"/>
-      <c r="D27" s="159"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="163"/>
     </row>
     <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="89" t="str">
@@ -82251,11 +84652,11 @@
       <c r="A31" s="85"/>
     </row>
     <row r="32" spans="1:45" ht="21.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.7">
-      <c r="A32" s="161" t="str">
+      <c r="A32" s="165" t="str">
         <f>A20</f>
         <v>Metrics</v>
       </c>
-      <c r="B32" s="151"/>
+      <c r="B32" s="146"/>
     </row>
     <row r="33" spans="1:2" ht="16.149999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="92" t="str">
